--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -44,7 +44,25 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 12:04 AM</t>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>Wednesday, 27 August, 2025 9:33 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +272,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +284,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,32 +692,46 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
+      <c r="P8" s="13">
+        <v>63</v>
+      </c>
       <c r="Q8" s="13"/>
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c t="s" r="A9" s="14">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -707,13 +739,13 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c t="s" r="G9" s="15">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c t="s" r="K9" s="17">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -62,7 +62,19 @@
     <t>1:0</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 9:33 AM</t>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>Wednesday, 27 August, 2025 9:58 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -724,38 +736,71 @@
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
-        <v>63</v>
-      </c>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>16</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>18</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>18</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>19</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="P9" s="13">
+        <v>82</v>
+      </c>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="1">
+      <c t="s" r="A10" s="14">
+        <v>21</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c t="s" r="G10" s="15">
+        <v>22</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c t="s" r="K10" s="17">
+        <v>23</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="22">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -769,10 +814,15 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:Q10"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -74,7 +74,7 @@
     <t>0:1</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 9:58 AM</t>
+    <t>Wednesday, 27 August, 2025 10:00 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -44,22 +44,46 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AMARYL 2 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>63.00</t>
   </si>
   <si>
     <t>63.0000</t>
   </si>
   <si>
-    <t>1:0</t>
+    <t>CYANOHEPTAN 6 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
   </si>
   <si>
     <t>KETOLAC 10MG 20 TAB</t>
@@ -74,7 +98,25 @@
     <t>0:1</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 10:00 AM</t>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>Wednesday, 27 August, 2025 10:06 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -748,7 +790,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -758,49 +800,148 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>82</v>
-      </c>
-      <c r="Q9" s="13"/>
-    </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
         <v>21</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
         <v>22</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
         <v>23</v>
       </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>16</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>26</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>29</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>30</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>31</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>32</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>286</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>35</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>36</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>37</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -819,10 +960,25 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -116,7 +116,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 10:06 AM</t>
+    <t>Wednesday, 27 August, 2025 10:12 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -98,10 +98,28 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>0:0</t>
   </si>
   <si>
     <t>0</t>
@@ -895,53 +913,119 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>33</v>
       </c>
-      <c t="s" r="Q11" s="12">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>16</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>286</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
         <v>35</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c t="s" r="Q12" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
         <v>36</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>30</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
         <v>37</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>38</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>495</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>41</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>42</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>43</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -975,10 +1059,20 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -110,6 +110,30 @@
     <t>89.0000</t>
   </si>
   <si>
+    <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
+  </si>
+  <si>
+    <t>0:9</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
     <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
   </si>
   <si>
@@ -128,13 +152,13 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>Wednesday, 27 August, 2025 10:12 AM</t>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>Wednesday, 27 August, 2025 10:28 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -940,7 +964,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -950,14 +974,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -966,66 +990,132 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>495</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>41</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>16</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
         <v>42</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
         <v>43</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+      <c t="s" r="Q14" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>44</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>30</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>45</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>46</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>535.87</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>49</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>50</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>51</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1069,10 +1159,20 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -122,6 +122,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -143,6 +152,15 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>TREFLUCAN 150MG 1 CAPS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -158,7 +176,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 10:28 AM</t>
+    <t>Wednesday, 27 August, 2025 10:38 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -997,7 +1015,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1007,11 +1025,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>28</v>
@@ -1023,14 +1041,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1047,7 +1065,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1063,59 +1081,125 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
         <v>47</v>
       </c>
-      <c t="s" r="Q15" s="12">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>18</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>535.87</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
         <v>49</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
+      <c t="s" r="Q16" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>50</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>30</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
         <v>51</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>52</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>570.91999999999996</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>55</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>56</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>57</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1169,10 +1253,20 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -176,7 +176,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 10:38 AM</t>
+    <t>Wednesday, 27 August, 2025 10:48 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
@@ -98,6 +110,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
   </si>
   <si>
@@ -119,9 +140,6 @@
     <t>240.00</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -176,7 +194,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 10:48 AM</t>
+    <t>Wednesday, 27 August, 2025 10:49 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -916,7 +934,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -926,14 +944,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -949,7 +967,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -959,14 +977,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>32</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -982,7 +1000,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -992,14 +1010,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1008,14 +1026,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1032,7 +1050,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1062,10 +1080,10 @@
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1074,14 +1092,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1091,14 +1109,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1107,14 +1125,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1131,7 +1149,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1147,59 +1165,125 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
         <v>53</v>
       </c>
-      <c t="s" r="Q17" s="12">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>22</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>570.91999999999996</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
         <v>55</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
+      <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
         <v>56</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>37</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
         <v>57</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>58</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>625.91999999999996</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>61</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>62</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>63</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1263,10 +1347,20 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -149,6 +149,12 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>SILVIRBURN CREAM 250 GM</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -194,7 +200,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 10:49 AM</t>
+    <t>Wednesday, 27 August, 2025 10:58 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1132,7 +1138,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1142,14 +1148,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1158,14 +1164,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1175,14 +1181,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1191,14 +1197,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1208,11 +1214,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1224,66 +1230,99 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>58</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>37</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
         <v>59</v>
       </c>
-      <c t="s" r="Q19" s="12">
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>625.91999999999996</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
         <v>61</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
+      <c t="s" r="Q20" s="12">
         <v>62</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>663.91999999999996</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
         <v>63</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>64</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>65</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1357,10 +1396,15 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -200,7 +200,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 10:58 AM</t>
+    <t>Wednesday, 27 August, 2025 10:59 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -200,7 +200,19 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 10:59 AM</t>
+    <t xml:space="preserve">فازلين بيور صغير </t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 27 August, 2025 11:00 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1291,38 +1303,71 @@
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>663.91999999999996</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>63</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
         <v>64</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>59</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
         <v>65</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>673.91999999999996</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>67</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>68</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>69</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1401,10 +1446,15 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -74,12 +74,30 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>APIDONE SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>63.00</t>
   </si>
   <si>
@@ -107,9 +125,6 @@
     <t>19.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
   </si>
   <si>
@@ -170,9 +185,6 @@
     <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
   </si>
   <si>
-    <t>120.00</t>
-  </si>
-  <si>
     <t>120.0000</t>
   </si>
   <si>
@@ -194,10 +206,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>8:0</t>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>9:0</t>
   </si>
   <si>
     <t xml:space="preserve">فازلين بيور صغير </t>
@@ -212,7 +224,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 11:00 AM</t>
+    <t>Wednesday, 27 August, 2025 11:10 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -929,11 +941,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -945,14 +957,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -962,14 +974,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -978,14 +990,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -995,14 +1007,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1011,14 +1023,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1028,11 +1040,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1044,14 +1056,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1061,14 +1073,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1077,14 +1089,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1094,14 +1106,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1110,14 +1122,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1127,14 +1139,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1143,14 +1155,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1160,14 +1172,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1183,7 +1195,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1193,14 +1205,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1209,7 +1221,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1226,11 +1238,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1242,14 +1254,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1259,14 +1271,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1275,31 +1287,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1308,66 +1320,132 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>673.91999999999996</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>62</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>42</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>63</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>64</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
         <v>67</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
         <v>68</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>63</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
         <v>69</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>719.12</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>71</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>72</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>73</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1451,10 +1529,20 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -104,6 +104,15 @@
     <t>63.0000</t>
   </si>
   <si>
+    <t>COLOVERIN A 30 TABLETS</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
     <t>CYANOHEPTAN 6 I.M. AMP. 2 ML</t>
   </si>
   <si>
@@ -134,6 +143,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>NEVILOB 2.5 MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
   </si>
   <si>
@@ -197,6 +215,15 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>57.7500</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -224,7 +251,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 11:10 AM</t>
+    <t>Wednesday, 27 August, 2025 11:25 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1030,7 +1057,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1040,14 +1067,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1056,14 +1083,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1080,7 +1107,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1113,7 +1140,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1129,7 +1156,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1139,11 +1166,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1155,14 +1182,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1172,11 +1199,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>27</v>
@@ -1188,14 +1215,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1212,7 +1239,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1228,7 +1255,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1238,14 +1265,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1254,14 +1281,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1304,7 +1331,7 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
@@ -1327,7 +1354,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1337,14 +1364,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1353,31 +1380,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1386,66 +1413,165 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>719.12</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>68</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>16</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>13</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>69</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
         <v>71</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>48</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
         <v>72</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
         <v>73</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>76</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>77</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>72</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>78</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>832.53999999999996</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>80</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>81</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>82</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1539,10 +1665,25 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -251,7 +251,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 11:25 AM</t>
+    <t>Wednesday, 27 August, 2025 11:28 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -125,6 +125,30 @@
     <t>114.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 80MG/2ML 3 AMPS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
     <t>KETOLAC 10MG 20 TAB</t>
   </si>
   <si>
@@ -239,6 +263,15 @@
     <t>9:0</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">فازلين بيور صغير </t>
   </si>
   <si>
@@ -251,7 +284,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 11:28 AM</t>
+    <t>Wednesday, 27 August, 2025 11:30 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1123,7 +1156,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1133,11 +1166,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>27</v>
@@ -1149,14 +1182,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1166,14 +1199,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1182,14 +1215,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1199,11 +1232,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>27</v>
@@ -1215,14 +1248,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1232,11 +1265,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1248,14 +1281,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1269,7 +1302,7 @@
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>27</v>
@@ -1281,14 +1314,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1298,14 +1331,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1314,14 +1347,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1331,14 +1364,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1347,14 +1380,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1364,11 +1397,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>27</v>
@@ -1380,7 +1413,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1397,11 +1430,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1413,14 +1446,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1430,14 +1463,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1446,7 +1479,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1463,14 +1496,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1479,31 +1512,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1519,59 +1552,158 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>79</v>
       </c>
-      <c t="s" r="Q26" s="12">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>56</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>80</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>81</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>84</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>56</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>80</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>85</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>832.53999999999996</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>87</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>88</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
         <v>80</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
-        <v>81</v>
-      </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
-        <v>82</v>
-      </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>89</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>867.22000000000003</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>91</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>92</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>93</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1680,10 +1812,25 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -44,69 +44,60 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>AMARYL 2 MG 30 TABS</t>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>APIDONE SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>COLOVERIN A 30 TABLETS</t>
   </si>
   <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>APIDONE SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>19.2000</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>COLOVERIN A 30 TABLETS</t>
-  </si>
-  <si>
     <t>99.00</t>
   </si>
   <si>
@@ -116,13 +107,16 @@
     <t>CYANOHEPTAN 6 I.M. AMP. 2 ML</t>
   </si>
   <si>
-    <t>0:3</t>
+    <t>0:0</t>
   </si>
   <si>
     <t>114.00</t>
   </si>
   <si>
-    <t>114.0000</t>
+    <t>171.0000</t>
+  </si>
+  <si>
+    <t>1:3</t>
   </si>
   <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
@@ -179,9 +173,6 @@
     <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>89.00</t>
   </si>
   <si>
@@ -284,7 +275,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 11:30 AM</t>
+    <t>Wednesday, 27 August, 2025 11:34 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -968,11 +959,11 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
@@ -984,14 +975,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1001,14 +992,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1017,14 +1008,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1041,7 +1032,7 @@
         <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1050,14 +1041,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1074,7 +1065,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1090,7 +1081,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1100,14 +1091,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1116,14 +1107,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1133,14 +1124,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1149,14 +1140,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1166,14 +1157,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1182,14 +1173,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1199,14 +1190,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1215,7 +1206,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1232,14 +1223,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1248,14 +1239,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1265,14 +1256,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1281,14 +1272,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1298,14 +1289,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1314,14 +1305,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1331,14 +1322,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1354,7 +1345,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1364,14 +1355,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1387,7 +1378,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1397,14 +1388,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1413,14 +1404,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1430,14 +1421,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1446,14 +1437,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1463,14 +1454,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1479,14 +1470,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1496,7 +1487,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -1519,7 +1510,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1536,7 +1527,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1552,24 +1543,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>27</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1578,31 +1569,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1618,92 +1609,59 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
-      <c r="A29" s="7">
-        <v>23</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c t="s" r="C29" s="8">
-        <v>87</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c t="s" r="H29" s="9">
+      <c r="P29" s="13">
+        <v>846.22000000000003</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
         <v>88</v>
       </c>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c t="s" r="L29" s="10">
-        <v>80</v>
-      </c>
-      <c r="M29" s="10"/>
-      <c t="s" r="N29" s="8">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
         <v>89</v>
       </c>
-      <c r="O29" s="8"/>
-      <c t="s" r="P29" s="11">
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
         <v>90</v>
       </c>
-      <c t="s" r="Q29" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>867.22000000000003</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
-        <v>91</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
-        <v>92</v>
-      </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
-        <v>93</v>
-      </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1822,15 +1780,10 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -239,6 +239,18 @@
     <t>57.7500</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -248,10 +260,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>9:0</t>
+    <t>12:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -275,7 +284,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 11:34 AM</t>
+    <t>Wednesday, 27 August, 2025 11:36 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1543,13 +1552,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1560,7 +1569,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1569,7 +1578,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1582,7 +1591,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1590,10 +1599,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>83</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1609,59 +1618,92 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>846.22000000000003</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>87</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
         <v>88</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>81</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
         <v>89</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
         <v>90</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c t="s" r="Q29" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>948.22000000000003</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>91</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>92</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>93</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1780,10 +1822,15 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -284,7 +284,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 11:36 AM</t>
+    <t>Wednesday, 27 August, 2025 11:37 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -131,6 +131,18 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>167.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>GARAMYCIN 80MG/2ML 3 AMPS.</t>
   </si>
   <si>
@@ -284,7 +296,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 11:37 AM</t>
+    <t>Wednesday, 27 August, 2025 11:39 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1156,7 +1168,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1166,14 +1178,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>43</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1189,7 +1201,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1199,11 +1211,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>23</v>
@@ -1215,7 +1227,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1232,14 +1244,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1248,14 +1260,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1265,14 +1277,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1281,14 +1293,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1298,14 +1310,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1314,14 +1326,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1335,10 +1347,10 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1347,14 +1359,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1364,11 +1376,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>23</v>
@@ -1380,14 +1392,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1397,14 +1409,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1413,14 +1425,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1430,14 +1442,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1453,7 +1465,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1463,14 +1475,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1479,14 +1491,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1496,11 +1508,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1512,14 +1524,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1529,14 +1541,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1545,14 +1557,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1569,7 +1581,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1585,13 +1597,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1599,10 +1611,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1624,18 +1636,18 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1644,20 +1656,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1672,38 +1684,71 @@
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>948.22000000000003</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
         <v>91</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
         <v>92</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>85</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
         <v>93</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>1115.22</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>95</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>96</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>97</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1827,10 +1872,15 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -104,6 +104,18 @@
     <t>32.6700</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>CYANOHEPTAN 6 I.M. AMP. 2 ML</t>
   </si>
   <si>
@@ -251,6 +263,18 @@
     <t>57.7500</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -287,16 +311,13 @@
     <t xml:space="preserve">فازلين بيور صغير </t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>10.00</t>
   </si>
   <si>
     <t>10.0000</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 11:39 AM</t>
+    <t>Wednesday, 27 August, 2025 11:44 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1119,7 +1140,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1128,14 +1149,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1145,14 +1166,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>39</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1168,7 +1189,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1178,14 +1199,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1201,7 +1222,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1211,14 +1232,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>47</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1234,7 +1255,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1244,11 +1265,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>23</v>
@@ -1260,7 +1281,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1277,14 +1298,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1293,14 +1314,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1310,14 +1331,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1326,14 +1347,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1343,14 +1364,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1359,14 +1380,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1380,10 +1401,10 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1392,14 +1413,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1409,11 +1430,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>23</v>
@@ -1425,14 +1446,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1442,14 +1463,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1458,14 +1479,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1475,14 +1496,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1498,7 +1519,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1508,14 +1529,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1524,14 +1545,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1541,11 +1562,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1557,14 +1578,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1574,14 +1595,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1590,14 +1611,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1614,7 +1635,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1630,13 +1651,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1644,10 +1665,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1663,21 +1684,21 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1689,66 +1710,132 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q30" s="12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>96</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>36</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>93</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>97</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>1115.22</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
-        <v>95</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
-        <v>96</v>
-      </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
-        <v>97</v>
-      </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>99</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>85</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>93</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>100</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1174.22</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>102</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>103</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>104</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1877,10 +1964,20 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -143,6 +143,18 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
     <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
   </si>
   <si>
@@ -158,15 +170,21 @@
     <t>GARAMYCIN 80MG/2ML 3 AMPS.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
     <t>19.8000</t>
   </si>
   <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 10MG 20 TAB</t>
   </si>
   <si>
@@ -203,15 +221,21 @@
     <t>89.0000</t>
   </si>
   <si>
+    <t>PANTAZOL 40MG 14 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
   </si>
   <si>
     <t>0:9</t>
   </si>
   <si>
-    <t>240.00</t>
-  </si>
-  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -317,7 +341,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 11:44 AM</t>
+    <t>Wednesday, 27 August, 2025 11:54 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1222,7 +1246,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1232,14 +1256,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1255,7 +1279,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1265,14 +1289,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>51</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1288,7 +1312,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1354,7 +1378,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1387,7 +1411,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1420,7 +1444,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1430,11 +1454,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>23</v>
@@ -1453,7 +1477,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1470,7 +1494,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1486,7 +1510,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1496,14 +1520,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1512,14 +1536,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1529,11 +1553,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>23</v>
@@ -1545,14 +1569,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1562,14 +1586,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1585,7 +1609,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1595,11 +1619,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1611,14 +1635,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1651,7 +1675,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1661,11 +1685,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1677,14 +1701,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1694,11 +1718,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1710,31 +1734,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>95</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1743,28 +1767,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1776,66 +1800,165 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1174.22</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>100</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>36</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>101</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
         <v>102</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>103</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
         <v>104</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>36</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>101</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>105</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>107</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>93</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>101</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>108</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1483.22</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>110</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>111</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>112</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1974,10 +2097,25 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -341,7 +341,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 11:54 AM</t>
+    <t>Wednesday, 27 August, 2025 12:05 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -68,6 +68,18 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -80,9 +92,6 @@
     <t>19.2000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
@@ -143,6 +152,18 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>FLAGYL 500MG 20 TAB.</t>
   </si>
   <si>
@@ -278,6 +299,9 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
+  </si>
+  <si>
     <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -290,58 +314,67 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>39:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فازلين بيور صغير </t>
+  </si>
+  <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فازلين بيور صغير </t>
-  </si>
-  <si>
     <t>10.00</t>
   </si>
   <si>
     <t>10.0000</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 12:05 PM</t>
+    <t>Wednesday, 27 August, 2025 12:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1048,7 +1081,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1058,14 +1091,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>21</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>22</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1074,14 +1107,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1098,7 +1131,7 @@
         <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1114,7 +1147,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1124,14 +1157,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1140,14 +1173,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1157,14 +1190,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1173,14 +1206,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1190,14 +1223,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1206,14 +1239,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1223,14 +1256,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1239,14 +1272,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1256,14 +1289,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1272,14 +1305,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1289,14 +1322,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>50</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>51</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1305,14 +1338,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1329,7 +1362,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1345,7 +1378,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1362,7 +1395,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1371,14 +1404,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1388,14 +1421,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1404,7 +1437,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1421,11 +1454,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1437,14 +1470,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1454,14 +1487,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1470,14 +1503,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1487,11 +1520,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1503,14 +1536,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1520,14 +1553,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1536,14 +1569,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1553,14 +1586,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1569,14 +1602,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1586,14 +1619,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1602,14 +1635,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1619,14 +1652,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1635,14 +1668,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1652,14 +1685,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1668,7 +1701,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1685,11 +1718,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1701,14 +1734,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1718,14 +1751,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1734,7 +1767,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1751,14 +1784,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1767,14 +1800,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1807,7 +1840,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1817,11 +1850,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1833,31 +1866,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>103</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1866,31 +1899,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1899,66 +1932,198 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1483.22</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>106</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>107</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>108</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>109</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
         <v>110</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
+      <c t="s" r="Q36" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
         <v>111</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>39</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>108</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
         <v>112</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>114</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>39</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>108</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>115</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>117</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>118</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>108</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>119</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1613.1400000000001</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>121</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>122</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>123</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2112,10 +2277,30 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -68,6 +68,21 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>BEPRA 20MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>154.50</t>
+  </si>
+  <si>
+    <t>50.9850</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -77,9 +92,6 @@
     <t>43.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -125,12 +137,21 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>CORNETEARS 1000IU/G AQUEOUS EYE GEL 10 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
     <t>CYANOHEPTAN 6 I.M. AMP. 2 ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>114.00</t>
   </si>
   <si>
@@ -161,9 +182,6 @@
     <t>7.9200</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>FLAGYL 500MG 20 TAB.</t>
   </si>
   <si>
@@ -206,6 +224,15 @@
     <t>240.0000</t>
   </si>
   <si>
+    <t>INNO MOVE 10 SACHETS</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 10MG 20 TAB</t>
   </si>
   <si>
@@ -215,6 +242,18 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
     <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
   </si>
   <si>
@@ -233,6 +272,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>NEVXAL 0.1% EYE DPS. 5 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
   </si>
   <si>
@@ -266,6 +314,15 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>RX MASSAGE GEL 50 GM</t>
+  </si>
+  <si>
+    <t>79.90</t>
+  </si>
+  <si>
+    <t>79.9000</t>
+  </si>
+  <si>
     <t>SILVIRBURN CREAM 250 GM</t>
   </si>
   <si>
@@ -314,7 +371,16 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>26.00</t>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
   </si>
   <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
@@ -350,7 +416,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>12:0</t>
+    <t>14:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -374,7 +440,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 12:33 PM</t>
+    <t>Wednesday, 27 August, 2025 12:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1081,7 +1147,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1091,14 +1157,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1107,14 +1173,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1131,7 +1197,7 @@
         <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1147,7 +1213,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1157,14 +1223,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1173,14 +1239,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1197,7 +1263,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1230,7 +1296,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1263,7 +1329,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1272,14 +1338,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1289,14 +1355,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1305,14 +1371,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1322,14 +1388,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>49</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>50</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1338,14 +1404,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1355,14 +1421,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1371,14 +1437,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1388,14 +1454,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1404,14 +1470,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1421,14 +1487,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1437,14 +1503,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1454,14 +1520,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>64</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1477,7 +1543,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1494,7 +1560,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1543,7 +1609,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1560,7 +1626,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1576,7 +1642,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1593,7 +1659,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1609,7 +1675,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1619,14 +1685,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1635,14 +1701,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1652,14 +1718,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1668,14 +1734,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1685,14 +1751,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1701,14 +1767,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1718,11 +1784,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1734,14 +1800,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1751,14 +1817,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1767,14 +1833,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1784,14 +1850,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1800,14 +1866,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1817,14 +1883,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1833,14 +1899,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1850,14 +1916,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1866,14 +1932,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1883,14 +1949,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1899,14 +1965,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1916,14 +1982,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1932,14 +1998,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1949,14 +2015,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1965,28 +2031,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -1998,31 +2064,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2031,28 +2097,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2064,66 +2130,297 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>119</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>12</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>13</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>88</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
         <v>120</v>
       </c>
-      <c t="s" r="Q39" s="12">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>121</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>13</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>122</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>124</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>125</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>13</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>126</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1613.1400000000001</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
-        <v>121</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
-        <v>122</v>
-      </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
-        <v>123</v>
-      </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>128</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>129</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>130</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>131</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>133</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>43</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>130</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>134</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>136</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>43</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>130</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>137</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>139</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>140</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>130</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>141</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>2088.1849999999999</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>143</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>144</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>145</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2297,10 +2594,45 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -440,7 +440,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 12:48 PM</t>
+    <t>Wednesday, 27 August, 2025 12:50 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -173,6 +173,18 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -368,6 +380,12 @@
     <t>57.7500</t>
   </si>
   <si>
+    <t>VETOCETAMOL 24 TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -440,7 +458,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 12:50 PM</t>
+    <t>Wednesday, 27 August, 2025 1:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1454,14 +1472,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1470,14 +1488,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1487,14 +1505,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1510,7 +1528,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1520,14 +1538,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>64</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1543,7 +1561,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1560,7 +1578,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1569,14 +1587,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1586,14 +1604,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1602,14 +1620,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1619,11 +1637,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1635,14 +1653,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1652,14 +1670,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1668,14 +1686,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1708,7 +1726,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1718,14 +1736,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1734,14 +1752,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1751,14 +1769,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1767,14 +1785,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1784,14 +1802,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1800,7 +1818,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1817,11 +1835,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1833,14 +1851,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1850,14 +1868,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1866,14 +1884,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1883,11 +1901,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>23</v>
@@ -1899,14 +1917,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1916,11 +1934,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>23</v>
@@ -1932,14 +1950,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1949,14 +1967,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1965,14 +1983,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1982,11 +2000,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1998,14 +2016,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2015,14 +2033,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2038,7 +2056,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2048,14 +2066,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2064,14 +2082,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2081,11 +2099,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2097,14 +2115,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2114,11 +2132,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2130,7 +2148,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2147,14 +2165,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2163,14 +2181,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2180,14 +2198,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2196,14 +2214,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2213,14 +2231,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2229,14 +2247,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2246,14 +2264,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2262,31 +2280,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2295,31 +2313,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2328,20 +2346,20 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2368,59 +2386,125 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
         <v>142</v>
       </c>
-      <c t="s" r="Q46" s="12">
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>43</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>136</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>143</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>2088.1849999999999</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
-        <v>143</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
-        <v>144</v>
-      </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
         <v>145</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>146</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>136</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>147</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>2122.0250000000001</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
+        <v>149</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>150</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>151</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2629,10 +2713,20 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -446,19 +446,49 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>شامبو الفيف 200 مل</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاور جل مود </t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">فازلين بيور صغير </t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>10.00</t>
   </si>
   <si>
     <t>10.0000</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 1:03 PM</t>
+    <t>فيانسيه كريم بخاخ</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 27 August, 2025 1:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2452,7 +2482,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2462,49 +2492,181 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
         <v>148</v>
       </c>
-      <c t="s" r="Q48" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>2122.0250000000001</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>131</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>136</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>146</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
         <v>149</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
         <v>150</v>
       </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>136</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
         <v>151</v>
       </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>153</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>150</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>136</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>154</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>156</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>12</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>136</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>157</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2397.0250000000001</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>159</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>160</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>161</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2723,10 +2885,30 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -488,7 +488,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 1:18 PM</t>
+    <t>Wednesday, 27 August, 2025 1:25 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -488,7 +488,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 1:25 PM</t>
+    <t>Wednesday, 27 August, 2025 1:33 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -477,6 +477,12 @@
   </si>
   <si>
     <t>10.0000</t>
+  </si>
+  <si>
+    <t>فرش اسنان اورل فريش</t>
+  </si>
+  <si>
+    <t>8:0</t>
   </si>
   <si>
     <t>فيانسيه كريم بخاخ</t>
@@ -2614,7 +2620,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2624,49 +2630,82 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
         <v>158</v>
       </c>
-      <c t="s" r="Q52" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2397.0250000000001</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>12</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>136</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
         <v>159</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
         <v>160</v>
       </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
+      <c t="s" r="Q53" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>2412.0250000000001</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
         <v>161</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>162</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>163</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2905,10 +2944,15 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -47,348 +47,351 @@
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>APIDONE SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>BEPRA 20MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>154.50</t>
+  </si>
+  <si>
+    <t>50.9850</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>COLOVERIN A 30 TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CORNETEARS 1000IU/G AQUEOUS EYE GEL 10 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>CYANOHEPTAN 6 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>171.0000</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>167.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 80MG/2ML 3 AMPS.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>INNO MOVE 10 SACHETS</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>NEVILOB 2.5 MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>NEVXAL 0.1% EYE DPS. 5 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>PANTAZOL 40MG 14 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
+  </si>
+  <si>
+    <t>0:9</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
+    <t>RX MASSAGE GEL 50 GM</t>
+  </si>
+  <si>
+    <t>79.90</t>
+  </si>
+  <si>
+    <t>79.9000</t>
+  </si>
+  <si>
+    <t>SILVIRBURN CREAM 250 GM</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>TREFLUCAN 150MG 1 CAPS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>57.7500</t>
+  </si>
+  <si>
+    <t>VETOCETAMOL 24 TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>APIDONE SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>BEPRA 20MG 14 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>154.50</t>
-  </si>
-  <si>
-    <t>50.9850</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>19.2000</t>
-  </si>
-  <si>
-    <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>COLOVERIN A 30 TABLETS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>32.6700</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CORNETEARS 1000IU/G AQUEOUS EYE GEL 10 GM</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>CYANOHEPTAN 6 I.M. AMP. 2 ML</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>171.0000</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>5:3</t>
-  </si>
-  <si>
-    <t>7.9200</t>
-  </si>
-  <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>167.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 80MG/2ML 3 AMPS.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>19.8000</t>
-  </si>
-  <si>
-    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t>INNO MOVE 10 SACHETS</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>MILGA ADVANCE 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>NEVILOB 2.5 MG 14 TAB.</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>NEVXAL 0.1% EYE DPS. 5 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>PANTAZOL 40MG 14 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>104.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
-  </si>
-  <si>
-    <t>0:9</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>7.0500</t>
-  </si>
-  <si>
-    <t>RX MASSAGE GEL 50 GM</t>
-  </si>
-  <si>
-    <t>79.90</t>
-  </si>
-  <si>
-    <t>79.9000</t>
-  </si>
-  <si>
-    <t>SILVIRBURN CREAM 250 GM</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>TREFLUCAN 150MG 1 CAPS.</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
-  </si>
-  <si>
-    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>57.7500</t>
-  </si>
-  <si>
-    <t>VETOCETAMOL 24 TAB.</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -461,9 +464,6 @@
     <t>صوفي طويل جدا</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
@@ -494,7 +494,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 1:33 PM</t>
+    <t>Wednesday, 27 August, 2025 1:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1795,7 +1795,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2290,7 +2290,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2316,14 +2316,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2333,11 +2333,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2349,14 +2349,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2366,11 +2366,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2382,28 +2382,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2428,18 +2428,18 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2461,15 +2461,15 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2494,15 +2494,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2514,28 +2514,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2547,20 +2547,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2587,13 +2587,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2626,15 +2626,15 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2653,13 +2653,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>APIDONE SYRUP 125ML</t>
   </si>
   <si>
@@ -80,9 +95,6 @@
     <t>50.9850</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -116,9 +128,6 @@
     <t>COLOVERIN A 30 TABLETS</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>99.00</t>
   </si>
   <si>
@@ -494,7 +503,16 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 1:34 PM</t>
+    <t>مرطب شفاه لونا جوز هند ابيض</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 27 August, 2025 2:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1178,14 +1196,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1194,14 +1212,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1211,14 +1229,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1234,7 +1252,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1244,14 +1262,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1260,14 +1278,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1284,7 +1302,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1300,7 +1318,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1310,14 +1328,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1326,14 +1344,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1350,7 +1368,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1366,7 +1384,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1376,14 +1394,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1392,14 +1410,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1409,11 +1427,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1425,14 +1443,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1449,7 +1467,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1458,14 +1476,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1475,14 +1493,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1491,14 +1509,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1508,14 +1526,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1524,14 +1542,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1541,14 +1559,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1574,14 +1592,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1590,14 +1608,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1614,7 +1632,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1623,14 +1641,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1640,14 +1658,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>71</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1663,7 +1681,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1680,7 +1698,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1696,7 +1714,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1729,7 +1747,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1746,7 +1764,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1762,7 +1780,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1772,14 +1790,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1788,14 +1806,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1812,7 +1830,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1828,7 +1846,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1845,7 +1863,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1861,7 +1879,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1878,7 +1896,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1894,7 +1912,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1927,7 +1945,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1944,7 +1962,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1960,7 +1978,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1970,14 +1988,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1986,14 +2004,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2003,14 +2021,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2026,7 +2044,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2043,7 +2061,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2059,7 +2077,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2069,11 +2087,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2085,14 +2103,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2102,14 +2120,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2118,14 +2136,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2135,14 +2153,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2151,14 +2169,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2168,7 +2186,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2191,7 +2209,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2201,11 +2219,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2217,7 +2235,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2234,14 +2252,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2267,14 +2285,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2283,14 +2301,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2300,14 +2318,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2316,14 +2334,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2333,14 +2351,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2349,14 +2367,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2366,14 +2384,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2382,28 +2400,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2415,20 +2433,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2436,10 +2454,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>142</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2455,13 +2473,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2469,10 +2487,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>145</v>
-      </c>
-      <c t="s" r="Q47" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2488,13 +2506,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2521,21 +2539,21 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2547,28 +2565,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2593,7 +2611,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2620,21 +2638,21 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2646,66 +2664,132 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>161</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>129</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>140</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>162</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>164</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
         <v>160</v>
       </c>
-      <c t="s" r="Q53" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>2412.0250000000001</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
-        <v>161</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
-        <v>162</v>
-      </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
-        <v>163</v>
-      </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>140</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>165</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>2462.7150000000001</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
+        <v>167</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>168</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>169</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2949,10 +3033,20 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -512,7 +512,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 2:06 PM</t>
+    <t>Wednesday, 27 August, 2025 2:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -47,139 +47,154 @@
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>APIDONE SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>BEPRA 20MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>154.50</t>
+  </si>
+  <si>
+    <t>50.9850</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>COLOVERIN A 30 TABLETS</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CORNETEARS 1000IU/G AQUEOUS EYE GEL 10 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>CYANOHEPTAN 6 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>171.0000</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>APIDONE SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>BEPRA 20MG 14 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>154.50</t>
-  </si>
-  <si>
-    <t>50.9850</t>
-  </si>
-  <si>
-    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>19.2000</t>
-  </si>
-  <si>
-    <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>COLOVERIN A 30 TABLETS</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>32.6700</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CORNETEARS 1000IU/G AQUEOUS EYE GEL 10 GM</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>CYANOHEPTAN 6 I.M. AMP. 2 ML</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>171.0000</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
   </si>
   <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
@@ -203,6 +218,15 @@
     <t>7.9200</t>
   </si>
   <si>
+    <t xml:space="preserve">FLAGELLAT FORTE 200MG/5ML  100ML SUSP</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t>FLAGYL 500MG 20 TAB.</t>
   </si>
   <si>
@@ -290,9 +314,6 @@
     <t>46.00</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>NEVXAL 0.1% EYE DPS. 5 ML</t>
   </si>
   <si>
@@ -302,6 +323,9 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
     <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
   </si>
   <si>
@@ -398,9 +422,6 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -440,6 +461,15 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -512,7 +542,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 2:07 PM</t>
+    <t>Wednesday, 27 August, 2025 2:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1219,7 +1249,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1233,10 +1263,10 @@
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1245,14 +1275,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1262,11 +1292,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>21</v>
@@ -1278,14 +1308,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1295,11 +1325,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>21</v>
@@ -1311,14 +1341,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1328,11 +1358,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1344,14 +1374,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1361,14 +1391,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1377,7 +1407,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1394,11 +1424,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1410,14 +1440,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1427,14 +1457,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1443,14 +1473,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1460,14 +1490,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1476,14 +1506,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1493,14 +1523,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1509,14 +1539,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1526,11 +1556,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1542,14 +1572,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1559,14 +1589,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1575,14 +1605,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1592,14 +1622,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1608,14 +1638,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1625,14 +1655,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1641,14 +1671,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1658,14 +1688,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1681,7 +1711,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1691,11 +1721,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1707,14 +1737,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1724,14 +1754,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1740,14 +1770,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1757,14 +1787,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1773,14 +1803,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1790,14 +1820,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1806,14 +1836,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1823,14 +1853,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1839,14 +1869,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1856,14 +1886,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1872,14 +1902,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1889,11 +1919,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1905,14 +1935,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1922,14 +1952,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1938,14 +1968,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1955,14 +1985,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1971,14 +2001,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1988,14 +2018,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2004,14 +2034,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2021,14 +2051,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2044,7 +2074,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2061,7 +2091,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2077,7 +2107,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2094,7 +2124,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2110,7 +2140,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2120,14 +2150,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2143,7 +2173,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2153,11 +2183,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2169,14 +2199,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2186,14 +2216,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2209,7 +2239,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2219,14 +2249,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2235,14 +2265,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2252,14 +2282,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2268,14 +2298,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2285,14 +2315,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2301,7 +2331,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2318,14 +2348,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2334,14 +2364,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2351,14 +2381,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2367,14 +2397,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2391,7 +2421,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2407,7 +2437,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2417,14 +2447,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2433,28 +2463,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2466,31 +2496,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>145</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2499,31 +2529,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2532,31 +2562,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2565,28 +2595,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2605,13 +2635,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2619,10 +2649,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q51" s="12">
         <v>155</v>
-      </c>
-      <c t="s" r="Q51" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2638,13 +2668,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2655,7 +2685,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2671,24 +2701,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>24</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2697,31 +2727,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2730,66 +2760,198 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
         <v>166</v>
       </c>
-      <c t="s" r="Q55" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>2462.7150000000001</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>59</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>147</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
         <v>167</v>
       </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
         <v>168</v>
       </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
+      <c t="s" r="Q56" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
         <v>169</v>
       </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>170</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>147</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>148</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>171</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>12</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>147</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>172</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>174</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>170</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>147</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>175</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>2580.7150000000001</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
+        <v>177</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>178</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>179</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3043,10 +3205,30 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -542,7 +542,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 2:18 PM</t>
+    <t>Wednesday, 27 August, 2025 2:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -542,7 +542,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 2:59 PM</t>
+    <t>Wednesday, 27 August, 2025 4:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -98,6 +98,18 @@
     <t>50.9850</t>
   </si>
   <si>
+    <t>BRUFEN 400MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -119,6 +131,15 @@
     <t>19.2000</t>
   </si>
   <si>
+    <t>CODILAR SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
@@ -230,9 +251,6 @@
     <t>FLAGYL 500MG 20 TAB.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>34.00</t>
   </si>
   <si>
@@ -404,6 +422,15 @@
     <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -416,9 +443,6 @@
     <t>VETOCETAMOL 24 TAB.</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -542,7 +566,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 4:30 PM</t>
+    <t>Wednesday, 27 August, 2025 4:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1315,7 +1339,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1325,11 +1349,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>21</v>
@@ -1341,14 +1365,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1381,7 +1405,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1391,14 +1415,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1407,14 +1431,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1424,14 +1448,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1440,14 +1464,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1480,7 +1504,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1490,14 +1514,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1506,14 +1530,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1530,7 +1554,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>53</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1539,14 +1563,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1556,14 +1580,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1572,14 +1596,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1589,14 +1613,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1605,14 +1629,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1622,11 +1646,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1638,14 +1662,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1655,14 +1679,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1678,7 +1702,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1688,14 +1712,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1704,14 +1728,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1721,14 +1745,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1744,7 +1768,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1761,7 +1785,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>79</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1770,14 +1794,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1787,11 +1811,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1803,14 +1827,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1820,14 +1844,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>85</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1843,7 +1867,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1860,7 +1884,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1893,7 +1917,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1909,7 +1933,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1919,14 +1943,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1935,14 +1959,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1952,14 +1976,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1968,14 +1992,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1989,7 +2013,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2001,14 +2025,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2018,11 +2042,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>24</v>
@@ -2034,14 +2058,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2051,14 +2075,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2067,14 +2091,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2084,11 +2108,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>24</v>
@@ -2100,14 +2124,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2117,14 +2141,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2140,7 +2164,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2150,14 +2174,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2166,14 +2190,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2183,11 +2207,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2199,14 +2223,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2216,14 +2240,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2239,7 +2263,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2249,14 +2273,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2265,14 +2289,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2289,7 +2313,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2315,7 +2339,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2338,7 +2362,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2348,14 +2372,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2364,7 +2388,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2381,11 +2405,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>24</v>
@@ -2397,14 +2421,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2414,14 +2438,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2430,7 +2454,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2447,14 +2471,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2463,14 +2487,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2480,14 +2504,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2496,14 +2520,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2513,14 +2537,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2529,14 +2553,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2546,14 +2570,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2562,31 +2586,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2595,31 +2619,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2628,31 +2652,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>155</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2661,28 +2685,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>24</v>
@@ -2694,31 +2718,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2727,31 +2751,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>24</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2760,28 +2784,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>24</v>
@@ -2793,28 +2817,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>24</v>
@@ -2826,28 +2850,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>24</v>
@@ -2866,13 +2890,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2899,13 +2923,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -2920,38 +2944,137 @@
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>2580.7150000000001</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
         <v>177</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
         <v>178</v>
       </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>155</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>156</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
         <v>179</v>
       </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>12</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>155</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>180</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>182</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>178</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>155</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>183</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>2651.4549999999999</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>185</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>186</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>187</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3225,10 +3348,25 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -392,6 +392,24 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>SINEMET 25/250 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>61.0000</t>
+  </si>
+  <si>
+    <t>SOFENACIN 5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>46.5300</t>
+  </si>
+  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -566,7 +584,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 4:33 PM</t>
+    <t>Wednesday, 27 August, 2025 5:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2395,7 +2413,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2405,14 +2423,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2428,7 +2446,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2438,14 +2456,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2454,7 +2472,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2471,11 +2489,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>24</v>
@@ -2487,14 +2505,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2504,14 +2522,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2520,7 +2538,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2537,14 +2555,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2560,7 +2578,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2574,7 +2592,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2586,14 +2604,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2603,14 +2621,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2619,14 +2637,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2636,14 +2654,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>63</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2652,14 +2670,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2669,14 +2687,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2685,31 +2703,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2718,31 +2736,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2751,20 +2769,20 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2772,10 +2790,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>163</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2797,7 +2815,7 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2808,7 +2826,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2824,13 +2842,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2838,10 +2856,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q56" s="12">
         <v>169</v>
-      </c>
-      <c t="s" r="Q56" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2857,21 +2875,21 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>150</v>
+        <v>54</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>24</v>
@@ -2883,28 +2901,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>24</v>
@@ -2916,28 +2934,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>24</v>
@@ -2956,21 +2974,21 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>66</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>24</v>
@@ -2982,28 +3000,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>24</v>
@@ -3015,66 +3033,132 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>185</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>12</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>161</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>186</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>188</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
         <v>184</v>
       </c>
-      <c t="s" r="Q62" s="12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>2651.4549999999999</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
-        <v>185</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
-        <v>186</v>
-      </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
-        <v>187</v>
-      </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>161</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>189</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>2758.9850000000001</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
+        <v>191</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>192</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>193</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3363,10 +3447,20 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -221,7 +221,7 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>6:2</t>
+    <t>11:2</t>
   </si>
   <si>
     <t>48.00</t>
@@ -341,9 +341,6 @@
     <t>26.0000</t>
   </si>
   <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
     <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
   </si>
   <si>
@@ -584,7 +581,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 5:02 PM</t>
+    <t>Wednesday, 27 August, 2025 5:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2149,7 +2146,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2159,11 +2156,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>24</v>
@@ -2175,14 +2172,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2192,14 +2189,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2208,14 +2205,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2225,11 +2222,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2241,14 +2238,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2258,11 +2255,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2274,14 +2271,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2291,14 +2288,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2307,14 +2304,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2324,11 +2321,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>24</v>
@@ -2340,14 +2337,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2357,14 +2354,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2373,14 +2370,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2390,11 +2387,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2406,14 +2403,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2423,11 +2420,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2439,14 +2436,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2456,14 +2453,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2472,14 +2469,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2489,11 +2486,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>24</v>
@@ -2505,14 +2502,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2522,11 +2519,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>24</v>
@@ -2545,7 +2542,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>24</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2555,14 +2552,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2571,14 +2568,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2588,11 +2585,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2604,7 +2601,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2621,11 +2618,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>63</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2644,7 +2641,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2654,14 +2651,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2677,7 +2674,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2687,14 +2684,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2703,14 +2700,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2720,14 +2717,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2736,28 +2733,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>24</v>
@@ -2769,31 +2766,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>54</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2802,7 +2799,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2815,18 +2812,18 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2835,7 +2832,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2848,18 +2845,18 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>169</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2868,28 +2865,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>24</v>
@@ -2901,28 +2898,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>24</v>
@@ -2941,21 +2938,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>156</v>
+        <v>66</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>24</v>
@@ -2967,7 +2964,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -2980,15 +2977,15 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>24</v>
@@ -3000,28 +2997,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>66</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>24</v>
@@ -3033,28 +3030,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>24</v>
@@ -3066,99 +3063,66 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>24</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
-      <c r="A64" s="7">
-        <v>58</v>
-      </c>
-      <c r="B64" s="7"/>
-      <c t="s" r="C64" s="8">
-        <v>188</v>
-      </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c t="s" r="H64" s="9">
-        <v>184</v>
-      </c>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c t="s" r="L64" s="10">
-        <v>161</v>
-      </c>
-      <c r="M64" s="10"/>
-      <c t="s" r="N64" s="8">
-        <v>189</v>
-      </c>
-      <c r="O64" s="8"/>
-      <c t="s" r="P64" s="11">
+      <c r="P64" s="13">
+        <v>2727.9850000000001</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
         <v>190</v>
       </c>
-      <c t="s" r="Q64" s="12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>2758.9850000000001</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
         <v>191</v>
       </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
         <v>192</v>
       </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
-        <v>193</v>
-      </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3452,15 +3416,10 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -581,7 +581,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 5:31 PM</t>
+    <t>Wednesday, 27 August, 2025 5:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -86,12 +86,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>AVEROTHIAZIDE 5/20/12.5MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>BEPRA 20MG 14 F.C. TAB.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>154.50</t>
   </si>
   <si>
@@ -173,9 +182,6 @@
     <t>CORNETEARS 1000IU/G AQUEOUS EYE GEL 10 GM</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>41.00</t>
   </si>
   <si>
@@ -581,7 +587,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 5:32 PM</t>
+    <t>Wednesday, 27 August, 2025 5:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1331,14 +1337,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>28</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1354,7 +1360,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1364,11 +1370,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>21</v>
@@ -1380,14 +1386,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1420,7 +1426,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1430,11 +1436,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1446,14 +1452,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1470,7 +1476,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1519,7 +1525,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1536,7 +1542,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1552,7 +1558,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1562,14 +1568,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1578,14 +1584,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1595,11 +1601,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>24</v>
@@ -1611,14 +1617,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1628,14 +1634,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1644,14 +1650,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1661,14 +1667,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1677,14 +1683,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1694,14 +1700,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1710,14 +1716,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1727,14 +1733,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1743,14 +1749,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1760,14 +1766,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1776,14 +1782,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1793,14 +1799,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1809,14 +1815,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1826,14 +1832,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1842,14 +1848,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1859,14 +1865,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1875,14 +1881,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1892,14 +1898,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1908,14 +1914,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1925,14 +1931,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1941,14 +1947,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1958,11 +1964,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>24</v>
@@ -1974,14 +1980,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1991,14 +1997,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2007,14 +2013,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2024,11 +2030,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2040,14 +2046,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2057,14 +2063,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2073,7 +2079,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2090,14 +2096,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2113,7 +2119,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2127,10 +2133,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2139,14 +2145,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2156,11 +2162,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>24</v>
@@ -2172,14 +2178,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2189,14 +2195,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2205,14 +2211,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2222,11 +2228,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2245,7 +2251,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2255,11 +2261,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2271,14 +2277,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2288,14 +2294,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2304,14 +2310,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2321,7 +2327,7 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2344,7 +2350,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2354,14 +2360,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2370,14 +2376,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2387,7 +2393,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2410,7 +2416,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2420,11 +2426,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2436,14 +2442,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2453,14 +2459,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2476,7 +2482,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2486,11 +2492,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>24</v>
@@ -2502,14 +2508,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2519,11 +2525,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>24</v>
@@ -2535,14 +2541,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2552,14 +2558,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2568,14 +2574,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2585,11 +2591,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2601,7 +2607,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2618,11 +2624,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2634,14 +2640,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2651,14 +2657,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2667,14 +2673,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2684,14 +2690,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2700,14 +2706,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2717,14 +2723,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2733,28 +2739,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>24</v>
@@ -2766,31 +2772,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2799,31 +2805,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>168</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2832,31 +2838,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>24</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2865,28 +2871,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>24</v>
@@ -2898,28 +2904,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>155</v>
+        <v>24</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>24</v>
@@ -2931,28 +2937,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>66</v>
+        <v>157</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>24</v>
@@ -2964,28 +2970,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>24</v>
@@ -2997,28 +3003,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>68</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>24</v>
@@ -3037,21 +3043,21 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>24</v>
@@ -3063,66 +3069,99 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
         <v>189</v>
       </c>
-      <c t="s" r="Q63" s="12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>2727.9850000000001</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>185</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>162</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
         <v>190</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
         <v>191</v>
       </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
+      <c t="s" r="Q64" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>2789.3649999999998</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
         <v>192</v>
       </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>193</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>194</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3416,10 +3455,15 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -56,34 +56,31 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>48.0000</t>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>APIDONE SYRUP 125ML</t>
   </si>
   <si>
     <t>2:0</t>
-  </si>
-  <si>
-    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>APIDONE SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
   </si>
   <si>
     <t>AVEROTHIAZIDE 5/20/12.5MG 30 F.C. TABS</t>
@@ -1294,7 +1291,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1308,10 +1305,10 @@
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1320,14 +1317,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1341,10 +1338,10 @@
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>27</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1353,14 +1350,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1370,11 +1367,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>21</v>
@@ -1386,14 +1383,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1403,11 +1400,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1419,14 +1416,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1436,11 +1433,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1452,14 +1449,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1469,11 +1466,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1485,14 +1482,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1502,14 +1499,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1518,14 +1515,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1535,14 +1532,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1551,7 +1548,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1568,11 +1565,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1584,14 +1581,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1601,14 +1598,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1617,14 +1614,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1634,14 +1631,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1650,14 +1647,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1667,14 +1664,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>61</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>62</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1683,14 +1680,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1700,11 +1697,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1716,14 +1713,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1733,14 +1730,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1749,14 +1746,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1766,11 +1763,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1782,14 +1779,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1803,10 +1800,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1815,14 +1812,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1832,14 +1829,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1848,14 +1845,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1865,11 +1862,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1881,7 +1878,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1898,14 +1895,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>86</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>87</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1914,14 +1911,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1931,11 +1928,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1947,14 +1944,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1964,14 +1961,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1980,14 +1977,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1997,14 +1994,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2013,14 +2010,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2030,11 +2027,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2046,14 +2043,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2063,11 +2060,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2079,7 +2076,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2096,14 +2093,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2112,14 +2109,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2129,11 +2126,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2145,14 +2142,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2162,14 +2159,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2178,14 +2175,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2195,14 +2192,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2211,7 +2208,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2228,11 +2225,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2244,14 +2241,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2261,11 +2258,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2277,7 +2274,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2294,11 +2291,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2310,14 +2307,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2327,14 +2324,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2343,14 +2340,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2360,14 +2357,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2376,14 +2373,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2393,11 +2390,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2409,14 +2406,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2426,11 +2423,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2442,14 +2439,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2459,11 +2456,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2475,14 +2472,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2492,14 +2489,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2508,14 +2505,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2525,14 +2522,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2541,14 +2538,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2558,14 +2555,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2574,14 +2571,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2591,11 +2588,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2607,14 +2604,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2624,11 +2621,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2640,14 +2637,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2657,11 +2654,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2673,7 +2670,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2690,14 +2687,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2706,14 +2703,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2723,14 +2720,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2739,14 +2736,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2756,14 +2753,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2772,31 +2769,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2805,31 +2802,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2838,31 +2835,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2871,31 +2868,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2904,31 +2901,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2937,31 +2934,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2970,31 +2967,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3003,31 +3000,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3036,31 +3033,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3069,7 +3066,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3082,18 +3079,18 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3102,42 +3099,42 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
       <c r="P65" s="13">
-        <v>2789.3649999999998</v>
+        <v>2765.3649999999998</v>
       </c>
       <c r="Q65" s="13"/>
     </row>
     <row r="66" ht="16.5" customHeight="1">
       <c t="s" r="A66" s="14">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -3145,13 +3142,13 @@
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
       <c t="s" r="G66" s="15">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H66" s="15"/>
       <c r="I66" s="15"/>
       <c r="J66" s="16"/>
       <c t="s" r="K66" s="17">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L66" s="17"/>
       <c r="M66" s="17"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -116,6 +116,18 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -210,9 +222,6 @@
   </si>
   <si>
     <t>DIASMECT 20% SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
   </si>
   <si>
     <t>23.00</t>
@@ -1423,7 +1432,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1433,14 +1442,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1449,14 +1458,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1489,7 +1498,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1499,14 +1508,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1515,7 +1524,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1532,11 +1541,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1548,14 +1557,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1565,14 +1574,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1581,14 +1590,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1605,7 +1614,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1621,7 +1630,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1631,11 +1640,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1647,7 +1656,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1664,14 +1673,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1687,7 +1696,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1697,14 +1706,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>65</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1737,7 +1746,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1753,7 +1762,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1763,14 +1772,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1779,14 +1788,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1796,14 +1805,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1819,7 +1828,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1829,14 +1838,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1852,7 +1861,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1869,7 +1878,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1885,7 +1894,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1902,7 +1911,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1911,14 +1920,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1928,14 +1937,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>89</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1951,7 +1960,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1968,7 +1977,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1984,7 +1993,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2017,7 +2026,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2034,7 +2043,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2050,7 +2059,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2060,11 +2069,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2076,14 +2085,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2100,7 +2109,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2116,7 +2125,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2130,10 +2139,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2142,14 +2151,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2159,14 +2168,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2215,7 +2224,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2232,7 +2241,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2248,7 +2257,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2258,11 +2267,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2274,14 +2283,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2291,11 +2300,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2314,7 +2323,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2331,7 +2340,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2347,7 +2356,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2357,11 +2366,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2373,14 +2382,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2390,14 +2399,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2406,14 +2415,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2423,11 +2432,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2439,14 +2448,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2456,11 +2465,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2472,14 +2481,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2489,14 +2498,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2505,14 +2514,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2522,7 +2531,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2545,7 +2554,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2555,11 +2564,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2571,14 +2580,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2588,14 +2597,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2611,7 +2620,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2621,7 +2630,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2654,11 +2663,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2670,14 +2679,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2687,14 +2696,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2703,14 +2712,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2720,14 +2729,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2736,14 +2745,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2753,14 +2762,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2769,28 +2778,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2802,20 +2811,20 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2826,7 +2835,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2848,7 +2857,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2856,10 +2865,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>169</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2881,7 +2890,7 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2889,10 +2898,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q57" s="12">
         <v>172</v>
-      </c>
-      <c t="s" r="Q57" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2908,13 +2917,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2941,21 +2950,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2967,28 +2976,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3007,13 +3016,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3040,21 +3049,21 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>36</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3066,28 +3075,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3106,13 +3115,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3127,38 +3136,71 @@
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>2765.3649999999998</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
         <v>191</v>
       </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>187</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>164</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
         <v>192</v>
       </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
         <v>193</v>
       </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>2814.3649999999998</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
+        <v>194</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
+        <v>195</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>196</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3457,10 +3499,15 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -119,111 +119,111 @@
     <t>CALAMYL LOTION 100 ML</t>
   </si>
   <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>98.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
+    <t>CODILAR SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>COLOVERIN A 30 TABLETS</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CORNETEARS 1000IU/G AQUEOUS EYE GEL 10 GM</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>CYANOHEPTAN 6 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>171.0000</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>19.2000</t>
-  </si>
-  <si>
-    <t>CODILAR SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>COLOVERIN A 30 TABLETS</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>32.6700</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CORNETEARS 1000IU/G AQUEOUS EYE GEL 10 GM</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>CYANOHEPTAN 6 I.M. AMP. 2 ML</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>171.0000</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DIASMECT 20% SUSP. 60ML</t>
-  </si>
-  <si>
     <t>23.00</t>
   </si>
   <si>
@@ -593,7 +593,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 5:34 PM</t>
+    <t>Wednesday, 27 August, 2025 5:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1432,7 +1432,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1442,14 +1442,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1475,11 +1475,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1491,14 +1491,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1508,11 +1508,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1541,11 +1541,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1574,11 +1574,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1607,11 +1607,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1623,14 +1623,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1640,11 +1640,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1673,11 +1673,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1706,14 +1706,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>64</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>65</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1722,14 +1722,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1739,11 +1739,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1755,14 +1755,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2630,7 +2630,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -3016,7 +3016,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3049,7 +3049,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3170,7 +3170,7 @@
     </row>
     <row r="66" ht="25.5" customHeight="1">
       <c r="P66" s="13">
-        <v>2814.3649999999998</v>
+        <v>2863.3649999999998</v>
       </c>
       <c r="Q66" s="13"/>
     </row>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>30.6900</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>APIDONE SYRUP 125ML</t>
   </si>
   <si>
@@ -290,6 +302,15 @@
     <t>19.8000</t>
   </si>
   <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
     <t>HELI-CURE 14 ENTERIC COATED TAB</t>
   </si>
   <si>
@@ -422,13 +443,19 @@
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>39.00</t>
   </si>
   <si>
     <t>12.8700</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
   </si>
   <si>
     <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
@@ -1310,11 +1337,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -1326,14 +1353,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1347,10 +1374,10 @@
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1366,7 +1393,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1376,14 +1403,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1392,14 +1419,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1416,7 +1443,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1432,7 +1459,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1442,14 +1469,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1458,14 +1485,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1475,14 +1502,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1491,14 +1518,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1515,7 +1542,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1531,7 +1558,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1541,11 +1568,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1557,14 +1584,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1574,14 +1601,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1590,14 +1617,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1607,11 +1634,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1623,14 +1650,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1663,7 +1690,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1673,14 +1700,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1689,14 +1716,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1706,14 +1733,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1729,7 +1756,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1739,14 +1766,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>68</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1838,14 +1865,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1854,14 +1881,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1871,14 +1898,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1887,14 +1914,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1904,11 +1931,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1920,14 +1947,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1937,14 +1964,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1960,7 +1987,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1977,7 +2004,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1986,14 +2013,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2003,11 +2030,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2019,14 +2046,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2036,11 +2063,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2052,14 +2079,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2069,11 +2096,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2085,14 +2112,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2125,7 +2152,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2158,7 +2185,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2168,14 +2195,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2184,14 +2211,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2201,14 +2228,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2217,14 +2244,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2234,11 +2261,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2250,14 +2277,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2267,11 +2294,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2283,14 +2310,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2300,11 +2327,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2316,14 +2343,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2333,14 +2360,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2349,14 +2376,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2366,11 +2393,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2382,14 +2409,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2399,11 +2426,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2415,14 +2442,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2432,11 +2459,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2448,14 +2475,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2465,11 +2492,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2481,14 +2508,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2498,14 +2525,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2514,14 +2541,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2531,11 +2558,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2547,14 +2574,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2564,11 +2591,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2580,14 +2607,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2597,11 +2624,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2613,14 +2640,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2630,11 +2657,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2646,14 +2673,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2663,11 +2690,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2679,14 +2706,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2696,11 +2723,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2712,14 +2739,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2729,14 +2756,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2745,14 +2772,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2762,14 +2789,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2778,14 +2805,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2795,11 +2822,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2818,24 +2845,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2844,31 +2871,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2877,31 +2904,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>172</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2910,20 +2937,20 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2934,7 +2961,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2950,13 +2977,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -2967,7 +2994,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2983,24 +3010,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3009,31 +3036,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3042,31 +3069,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3075,31 +3102,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3108,31 +3135,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3141,66 +3168,165 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>187</v>
+        <v>74</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>2863.3649999999998</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
-        <v>194</v>
-      </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
         <v>195</v>
       </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
         <v>196</v>
       </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>173</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>174</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>197</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>18</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>173</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>198</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>199</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>200</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>196</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>173</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>201</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>2969.2950000000001</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>203</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>204</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>205</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3504,10 +3630,25 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -158,6 +158,15 @@
     <t>19.2000</t>
   </si>
   <si>
+    <t>CLARITINE 10MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>CODILAR SYRUP 120 ML</t>
   </si>
   <si>
@@ -242,6 +251,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -254,6 +272,24 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>ERASTAPEX CO 10/40MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>108.9000</t>
+  </si>
+  <si>
+    <t>EXTRAUMA DNA CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -392,6 +428,15 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>POWERCAPS 20 CAPS.</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
   </si>
   <si>
@@ -467,12 +512,6 @@
     <t>TREFLUCAN 150MG 1 CAPS.</t>
   </si>
   <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
     <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
   </si>
   <si>
@@ -608,16 +647,10 @@
     <t>55.00</t>
   </si>
   <si>
-    <t>55.0000</t>
-  </si>
-  <si>
     <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
     <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
   </si>
   <si>
     <t>Wednesday, 27 August, 2025 5:35 PM</t>
@@ -1591,7 +1624,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1608,7 +1641,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1657,7 +1690,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1674,7 +1707,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1690,7 +1723,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1700,14 +1733,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1716,14 +1749,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1773,7 +1806,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1782,14 +1815,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1799,14 +1832,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1815,14 +1848,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1832,14 +1865,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1848,14 +1881,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1865,14 +1898,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1881,14 +1914,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1898,14 +1931,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1914,14 +1947,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1938,7 +1971,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1954,7 +1987,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1971,7 +2004,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1987,7 +2020,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2004,7 +2037,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>93</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2013,14 +2046,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2030,14 +2063,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2046,14 +2079,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2063,14 +2096,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2079,14 +2112,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2096,14 +2129,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2112,14 +2145,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2129,14 +2162,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>105</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2152,7 +2185,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2185,7 +2218,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2195,11 +2228,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2211,7 +2244,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2228,11 +2261,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2244,14 +2277,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2261,14 +2294,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2284,7 +2317,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2301,7 +2334,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2317,7 +2350,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2327,14 +2360,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2343,14 +2376,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2360,14 +2393,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2376,14 +2409,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2393,11 +2426,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2409,14 +2442,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2426,14 +2459,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2442,7 +2475,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2459,11 +2492,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2475,14 +2508,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2492,14 +2525,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2508,14 +2541,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2525,11 +2558,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2541,14 +2574,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2558,11 +2591,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2574,14 +2607,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2591,11 +2624,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2607,14 +2640,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2624,14 +2657,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2640,7 +2673,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2657,11 +2690,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2673,14 +2706,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2690,14 +2723,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2706,14 +2739,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2723,14 +2756,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2739,14 +2772,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2756,11 +2789,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2772,14 +2805,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2789,11 +2822,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2805,7 +2838,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2822,14 +2855,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2838,14 +2871,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2855,14 +2888,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2871,14 +2904,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2888,14 +2921,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2904,14 +2937,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2921,14 +2954,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2944,24 +2977,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2970,31 +3003,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>74</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3003,31 +3036,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>181</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3036,31 +3069,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>29</v>
+        <v>177</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3069,28 +3102,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>181</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3102,28 +3135,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3142,13 +3175,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3159,7 +3192,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3175,13 +3208,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3189,10 +3222,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q65" s="12">
         <v>194</v>
-      </c>
-      <c t="s" r="Q65" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3208,21 +3241,21 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>29</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3234,28 +3267,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3267,66 +3300,231 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
         <v>202</v>
       </c>
-      <c t="s" r="Q68" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>2969.2950000000001</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>77</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>186</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
         <v>203</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
         <v>204</v>
       </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
+      <c t="s" r="Q69" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
         <v>205</v>
       </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>77</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>186</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>206</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>208</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>209</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>186</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>187</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>210</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>18</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>186</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>211</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>212</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>209</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>186</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>213</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>3216.1950000000002</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>214</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>215</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>216</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3645,10 +3843,35 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -653,7 +653,7 @@
     <t>20.00</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 5:35 PM</t>
+    <t>Wednesday, 27 August, 2025 5:37 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -116,6 +116,18 @@
     <t>50.9850</t>
   </si>
   <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
@@ -356,6 +368,15 @@
     <t>240.0000</t>
   </si>
   <si>
+    <t>HERO BABY 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
     <t>INNO MOVE 10 SACHETS</t>
   </si>
   <si>
@@ -521,9 +542,6 @@
     <t>3:1</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -578,6 +596,12 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>حنه فاتيكا بني 1 كيس</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -647,13 +671,16 @@
     <t>55.00</t>
   </si>
   <si>
+    <t>كريم 555</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
     <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>Wednesday, 27 August, 2025 5:37 PM</t>
+    <t>Wednesday, 27 August, 2025 6:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1509,7 +1536,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1525,7 +1552,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1535,14 +1562,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1551,14 +1578,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1568,14 +1595,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1584,14 +1611,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1624,7 +1651,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1634,11 +1661,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1650,14 +1677,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1667,14 +1694,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1683,7 +1710,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1700,11 +1727,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1716,14 +1743,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1733,14 +1760,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1749,14 +1776,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1773,7 +1800,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1789,7 +1816,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1799,11 +1826,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1815,7 +1842,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1832,14 +1859,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1855,7 +1882,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1865,14 +1892,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>75</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1905,7 +1932,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1921,7 +1948,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1931,14 +1958,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1947,14 +1974,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1987,7 +2014,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1997,14 +2024,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2013,14 +2040,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2030,14 +2057,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2046,14 +2073,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2063,14 +2090,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2079,14 +2106,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2096,14 +2123,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2112,14 +2139,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2129,14 +2156,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2145,14 +2172,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2162,14 +2189,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2185,7 +2212,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2202,7 +2229,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2211,14 +2238,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2228,11 +2255,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2244,14 +2271,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2261,14 +2288,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2277,14 +2304,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2294,11 +2321,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2310,14 +2337,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2327,14 +2354,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2343,14 +2370,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2367,7 +2394,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2400,7 +2427,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2416,7 +2443,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2426,11 +2453,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2442,14 +2469,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2459,11 +2486,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2475,14 +2502,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2492,14 +2519,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2508,14 +2535,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2525,14 +2552,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2541,14 +2568,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2558,14 +2585,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2574,14 +2601,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2591,11 +2618,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2607,14 +2634,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2624,11 +2651,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2640,14 +2667,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2657,14 +2684,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2673,14 +2700,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2690,14 +2717,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2706,14 +2733,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2723,14 +2750,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2739,14 +2766,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2756,14 +2783,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2772,14 +2799,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2789,11 +2816,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2805,14 +2832,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2822,11 +2849,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2838,14 +2865,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2855,14 +2882,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>47</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2871,14 +2898,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2888,14 +2915,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>91</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2904,7 +2931,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2921,11 +2948,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2937,14 +2964,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2954,14 +2981,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2970,7 +2997,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2987,14 +3014,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3003,14 +3030,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3020,11 +3047,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3036,14 +3063,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3053,14 +3080,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3069,14 +3096,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3086,14 +3113,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3102,14 +3129,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3119,14 +3146,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3135,31 +3162,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3168,31 +3195,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3201,20 +3228,20 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3222,10 +3249,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>194</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3241,13 +3268,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>29</v>
+        <v>187</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3255,7 +3282,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3267,31 +3294,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3300,31 +3327,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>181</v>
+        <v>29</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3333,28 +3360,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3366,28 +3393,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3399,28 +3426,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3439,13 +3466,13 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3453,7 +3480,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3465,66 +3492,198 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>141</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>3216.1950000000002</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
-        <v>214</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
-        <v>215</v>
-      </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
         <v>216</v>
       </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>217</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>192</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>193</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>218</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>18</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>192</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>219</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>220</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>29</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>192</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>221</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>222</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>217</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>192</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>221</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="P78" s="13">
+        <v>3545.1950000000002</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
+        <v>223</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
+        <v>224</v>
+      </c>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
+        <v>225</v>
+      </c>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3868,10 +4027,30 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -395,12 +395,15 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
     <t>MILGA ADVANCE 30 F.C. TABS</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>150.00</t>
   </si>
   <si>
@@ -440,6 +443,12 @@
     <t>89.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
     <t>PANTAZOL 40MG 14 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -680,7 +689,7 @@
     <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 6:12 PM</t>
+    <t>Wednesday, 27 August, 2025 6:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2453,11 +2462,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2469,14 +2478,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2486,14 +2495,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2502,14 +2511,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2519,14 +2528,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2535,14 +2544,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2552,14 +2561,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2568,7 +2577,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2585,11 +2594,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2601,14 +2610,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2618,14 +2627,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2634,14 +2643,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2651,11 +2660,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2667,14 +2676,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2684,11 +2693,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2700,14 +2709,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2717,11 +2726,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2733,14 +2742,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2750,14 +2759,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2766,14 +2775,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2783,14 +2792,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2799,14 +2808,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2816,14 +2825,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2832,14 +2841,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2849,14 +2858,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2865,14 +2874,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2882,11 +2891,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2898,14 +2907,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2915,11 +2924,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2931,14 +2940,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2948,14 +2957,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>51</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2964,14 +2973,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2981,14 +2990,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3014,11 +3023,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3030,14 +3039,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3047,14 +3056,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3080,14 +3089,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3096,14 +3105,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>179</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3129,14 +3138,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3146,14 +3155,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3162,14 +3171,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3179,14 +3188,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3195,14 +3204,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3212,14 +3221,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3228,31 +3237,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>192</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3261,28 +3270,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>192</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>86</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3294,31 +3303,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>29</v>
+        <v>194</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3327,31 +3336,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>29</v>
+        <v>190</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>202</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3360,7 +3369,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3373,18 +3382,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3393,31 +3402,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>205</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3426,20 +3435,20 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>187</v>
+        <v>29</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3459,28 +3468,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3492,28 +3501,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3525,28 +3534,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3558,28 +3567,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>55</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3591,28 +3600,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>29</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3624,66 +3633,132 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>217</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>3545.1950000000002</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
         <v>223</v>
       </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>29</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>195</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
         <v>224</v>
       </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
         <v>225</v>
       </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>220</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>195</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>224</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="P80" s="13">
+        <v>3584.0349999999999</v>
+      </c>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="14">
+        <v>226</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c t="s" r="G81" s="15">
+        <v>227</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c t="s" r="K81" s="17">
+        <v>228</v>
+      </c>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="377">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4047,10 +4122,20 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="K81:Q81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -341,6 +341,15 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>FORTYMOX PLUS OPHTHALMIC SOL. 5 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 80MG/2ML 3 AMPS.</t>
   </si>
   <si>
@@ -395,6 +404,12 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>LACRITEARS EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -518,9 +533,6 @@
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
     <t>12.8700</t>
   </si>
   <si>
@@ -689,7 +701,7 @@
     <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 6:16 PM</t>
+    <t>Wednesday, 27 August, 2025 6:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2254,7 +2266,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2271,7 +2283,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2320,7 +2332,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2337,7 +2349,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2353,7 +2365,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2419,7 +2431,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2436,7 +2448,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2452,7 +2464,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2462,11 +2474,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2478,14 +2490,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2495,14 +2507,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2518,7 +2530,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2528,14 +2540,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2544,14 +2556,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2561,11 +2573,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2584,7 +2596,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2617,7 +2629,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2631,10 +2643,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2643,14 +2655,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2660,14 +2672,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2683,7 +2695,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2700,7 +2712,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2716,7 +2728,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2730,7 +2742,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2742,14 +2754,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2759,11 +2771,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2782,7 +2794,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2815,7 +2827,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2825,14 +2837,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2841,14 +2853,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2858,14 +2870,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2881,7 +2893,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>29</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2891,14 +2903,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2907,14 +2919,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2924,14 +2936,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2940,14 +2952,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2980,7 +2992,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2990,11 +3002,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3006,14 +3018,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3023,14 +3035,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3039,14 +3051,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3056,14 +3068,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3072,7 +3084,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3089,11 +3101,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3105,14 +3117,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3122,14 +3134,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3138,7 +3150,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3155,14 +3167,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3171,14 +3183,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>183</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3211,7 +3223,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3221,14 +3233,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3237,14 +3249,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3254,14 +3266,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>78</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3270,14 +3282,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>190</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3287,14 +3299,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>144</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3303,31 +3315,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>195</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3336,28 +3348,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>195</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>86</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3369,31 +3381,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>29</v>
+        <v>198</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3402,31 +3414,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>29</v>
+        <v>194</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>205</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3435,7 +3447,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3448,18 +3460,18 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3468,31 +3480,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>209</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3501,28 +3513,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>190</v>
+        <v>29</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3541,13 +3553,13 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3574,21 +3586,21 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3600,28 +3612,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>81</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3633,28 +3645,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>55</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3673,21 +3685,21 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>29</v>
+        <v>224</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3706,59 +3718,125 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>220</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>151</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
-      <c r="P80" s="13">
-        <v>3584.0349999999999</v>
-      </c>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c t="s" r="A81" s="14">
-        <v>226</v>
-      </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c t="s" r="G81" s="15">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
         <v>227</v>
       </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
-      <c t="s" r="K81" s="17">
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>29</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>199</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
         <v>228</v>
       </c>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>229</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>224</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>199</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>228</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>3672.0349999999999</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>230</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>231</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>232</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="377">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4132,10 +4210,20 @@
     <mergeCell ref="H79:K79"/>
     <mergeCell ref="L79:M79"/>
     <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -701,7 +701,7 @@
     <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 6:36 PM</t>
+    <t>Wednesday, 27 August, 2025 6:37 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -350,6 +350,18 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">FUSI-ZON  CREAM30MG</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 80MG/2ML 3 AMPS.</t>
   </si>
   <si>
@@ -368,6 +380,15 @@
     <t>27.7200</t>
   </si>
   <si>
+    <t>GENICA MOIST LIP BALM</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
     <t>HELI-CURE 14 ENTERIC COATED TAB</t>
   </si>
   <si>
@@ -386,6 +407,12 @@
     <t>256.0000</t>
   </si>
   <si>
+    <t>INIZIO CREAM</t>
+  </si>
+  <si>
+    <t>165.0000</t>
+  </si>
+  <si>
     <t>INNO MOVE 10 SACHETS</t>
   </si>
   <si>
@@ -410,6 +437,15 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">LAFAIR SUNSCREEN GEL CREAM  SPF 50+</t>
+  </si>
+  <si>
+    <t>205.00</t>
+  </si>
+  <si>
+    <t>205.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -608,9 +644,6 @@
     <t>39:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
@@ -623,6 +656,15 @@
     <t>35.00</t>
   </si>
   <si>
+    <t>سائل باربار</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -659,18 +701,24 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>شامبو كلير 1 كيس</t>
+  </si>
+  <si>
+    <t>109:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">شاور جل مود </t>
   </si>
   <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">فازلين بيور صغير </t>
   </si>
   <si>
@@ -701,7 +749,7 @@
     <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 6:37 PM</t>
+    <t>Wednesday, 27 August, 2025 7:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2299,24 +2347,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2325,7 +2373,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2342,11 +2390,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2358,14 +2406,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2375,14 +2423,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2391,7 +2439,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2404,15 +2452,15 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2424,14 +2472,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2441,11 +2489,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2457,14 +2505,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2474,14 +2522,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2490,28 +2538,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2523,14 +2571,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2540,14 +2588,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2556,14 +2604,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2573,11 +2621,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2589,7 +2637,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2606,11 +2654,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2622,14 +2670,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2639,14 +2687,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2655,14 +2703,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2672,14 +2720,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2688,14 +2736,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2705,14 +2753,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2721,14 +2769,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2738,14 +2786,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2754,14 +2802,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2771,11 +2819,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2787,14 +2835,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2804,14 +2852,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2820,14 +2868,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2837,14 +2885,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2853,14 +2901,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2870,11 +2918,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2886,14 +2934,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2903,14 +2951,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2919,7 +2967,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2936,14 +2984,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2952,14 +3000,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2969,11 +3017,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2992,7 +3040,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3002,11 +3050,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3018,14 +3066,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3035,14 +3083,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>111</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3051,14 +3099,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3068,14 +3116,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3084,14 +3132,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3101,14 +3149,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>51</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3117,14 +3165,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3134,14 +3182,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3150,14 +3198,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3167,14 +3215,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3183,14 +3231,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>183</v>
+        <v>23</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3200,11 +3248,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3216,7 +3264,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3233,14 +3281,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>51</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3249,14 +3297,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3266,14 +3314,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3282,14 +3330,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3299,14 +3347,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3315,14 +3363,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3332,14 +3380,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3348,14 +3396,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>194</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3365,14 +3413,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3381,31 +3429,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3414,31 +3462,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3447,31 +3495,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3480,31 +3528,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>29</v>
+        <v>206</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>96</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>209</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3513,20 +3561,20 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>29</v>
+        <v>210</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>199</v>
+        <v>114</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3553,13 +3601,13 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>199</v>
+        <v>114</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3567,7 +3615,7 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3579,28 +3627,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>194</v>
+        <v>29</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>199</v>
+        <v>114</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3612,31 +3660,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>199</v>
+        <v>114</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3645,31 +3693,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>199</v>
+        <v>114</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>223</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3678,28 +3726,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>29</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>199</v>
+        <v>114</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3711,28 +3759,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>199</v>
+        <v>114</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>55</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3744,31 +3792,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>29</v>
+        <v>231</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>199</v>
+        <v>114</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>156</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3777,20 +3825,20 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>199</v>
+        <v>114</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
@@ -3798,45 +3846,243 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>3672.0349999999999</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
-        <v>230</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
-        <v>231</v>
-      </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
-        <v>232</v>
-      </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>235</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>81</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>114</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>216</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>236</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>81</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>114</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>237</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>238</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>239</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>240</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>114</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>211</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>212</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>241</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>18</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>114</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>242</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>243</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>29</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>114</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>244</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>245</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>240</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>114</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>244</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>4315.0349999999999</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>246</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>247</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>248</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4220,10 +4466,40 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -242,388 +242,385 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>11:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 10/40MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>108.9000</t>
+  </si>
+  <si>
+    <t>EXTRAUMA DNA CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAGELLAT FORTE 200MG/5ML  100ML SUSP</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>167.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>FORTYMOX PLUS OPHTHALMIC SOL. 5 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUSI-ZON  CREAM30MG</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 80MG/2ML 3 AMPS.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>GENICA MOIST LIP BALM</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>HERO BABY 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
+    <t>INIZIO CREAM</t>
+  </si>
+  <si>
+    <t>165.0000</t>
+  </si>
+  <si>
+    <t>INNO MOVE 10 SACHETS</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>LACRITEARS EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAFAIR SUNSCREEN GEL CREAM  SPF 50+</t>
+  </si>
+  <si>
+    <t>205.00</t>
+  </si>
+  <si>
+    <t>205.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>NEVILOB 2.5 MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>NEVXAL 0.1% EYE DPS. 5 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANTAZOL 40MG 14 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>POWERCAPS 20 CAPS.</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
+  </si>
+  <si>
+    <t>0:9</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
+    <t>RX MASSAGE GEL 50 GM</t>
+  </si>
+  <si>
+    <t>79.90</t>
+  </si>
+  <si>
+    <t>79.9000</t>
+  </si>
+  <si>
+    <t>SILVIRBURN CREAM 250 GM</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>SINEMET 25/250 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>61.0000</t>
+  </si>
+  <si>
+    <t>SOFENACIN 5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>46.5300</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>TREFLUCAN 150MG 1 CAPS.</t>
+  </si>
+  <si>
+    <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>57.7500</t>
+  </si>
+  <si>
+    <t>VETOCETAMOL 24 TAB.</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
     <t>3:2</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DIASMECT 20% SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>11:2</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 10/40MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>165.00</t>
-  </si>
-  <si>
-    <t>108.9000</t>
-  </si>
-  <si>
-    <t>EXTRAUMA DNA CREAM 25 GM</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>5:3</t>
-  </si>
-  <si>
-    <t>7.9200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAGELLAT FORTE 200MG/5ML  100ML SUSP</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>167.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>FORTYMOX PLUS OPHTHALMIC SOL. 5 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUSI-ZON  CREAM30MG</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>83.00</t>
-  </si>
-  <si>
-    <t>83.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 80MG/2ML 3 AMPS.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>19.8000</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>GENICA MOIST LIP BALM</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t>HERO BABY 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>256.00</t>
-  </si>
-  <si>
-    <t>256.0000</t>
-  </si>
-  <si>
-    <t>INIZIO CREAM</t>
-  </si>
-  <si>
-    <t>165.0000</t>
-  </si>
-  <si>
-    <t>INNO MOVE 10 SACHETS</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>LACRITEARS EYE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAFAIR SUNSCREEN GEL CREAM  SPF 50+</t>
-  </si>
-  <si>
-    <t>205.00</t>
-  </si>
-  <si>
-    <t>205.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>MILGA ADVANCE 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>NEVILOB 2.5 MG 14 TAB.</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>NEVXAL 0.1% EYE DPS. 5 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PANTAZOL 40MG 14 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>104.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>POWERCAPS 20 CAPS.</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
-  </si>
-  <si>
-    <t>0:9</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>7.0500</t>
-  </si>
-  <si>
-    <t>RX MASSAGE GEL 50 GM</t>
-  </si>
-  <si>
-    <t>79.90</t>
-  </si>
-  <si>
-    <t>79.9000</t>
-  </si>
-  <si>
-    <t>SILVIRBURN CREAM 250 GM</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>SINEMET 25/250 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>61.0000</t>
-  </si>
-  <si>
-    <t>SOFENACIN 5MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>46.5300</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>TREFLUCAN 150MG 1 CAPS.</t>
-  </si>
-  <si>
-    <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>57.7500</t>
-  </si>
-  <si>
-    <t>VETOCETAMOL 24 TAB.</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>33.6600</t>
+    <t>50.4900</t>
   </si>
   <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
@@ -689,7 +686,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>شامبو الفيف 200 مل</t>
@@ -746,10 +743,13 @@
     <t>20.00</t>
   </si>
   <si>
+    <t>ماء اكسجين 20</t>
+  </si>
+  <si>
     <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 7:08 PM</t>
+    <t>Wednesday, 27 August, 2025 7:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2001,7 +2001,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -3370,7 +3370,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3413,11 +3413,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3495,14 +3495,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3512,14 +3512,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>31</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3528,14 +3528,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3545,11 +3545,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3561,14 +3561,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3578,11 +3578,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3594,14 +3594,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3627,7 +3627,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3644,11 +3644,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3677,11 +3677,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>27</v>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3710,14 +3710,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3743,14 +3743,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3759,7 +3759,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3776,11 +3776,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3792,14 +3792,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3809,11 +3809,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>27</v>
@@ -3825,14 +3825,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3842,11 +3842,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3875,11 +3875,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3908,11 +3908,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -3924,14 +3924,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3941,11 +3941,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -3990,7 +3990,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4023,14 +4023,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>240</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4040,49 +4040,82 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
+        <v>237</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>245</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>239</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>114</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>243</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
         <v>168</v>
       </c>
-      <c t="s" r="Q87" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>4315.0349999999999</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
+      <c t="s" r="Q88" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>4356.7449999999999</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
         <v>246</v>
       </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
         <v>247</v>
       </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
         <v>248</v>
       </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4496,10 +4529,15 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>64.7400</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -131,12 +146,6 @@
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>25.7400</t>
   </si>
   <si>
@@ -149,6 +158,15 @@
     <t>98.0000</t>
   </si>
   <si>
+    <t>CARFALONE 25MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>98.50</t>
+  </si>
+  <si>
+    <t>49.2500</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -227,6 +245,18 @@
     <t>41.0000</t>
   </si>
   <si>
+    <t>COXORIZET CAPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>249.00</t>
+  </si>
+  <si>
+    <t>82.1700</t>
+  </si>
+  <si>
     <t>CYANOHEPTAN 6 I.M. AMP. 2 ML</t>
   </si>
   <si>
@@ -284,6 +314,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>130.6800</t>
+  </si>
+  <si>
     <t>ERASTAPEX CO 10/40MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -353,9 +392,6 @@
     <t xml:space="preserve">FUSI-ZON  CREAM30MG</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>83.00</t>
   </si>
   <si>
@@ -470,6 +506,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>MULTI-RELAX 10MG 20 F.C.TAB</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>NEVILOB 2.5 MG 14 TAB.</t>
   </si>
   <si>
@@ -611,6 +656,9 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>VOLTAREN 1% EMULGEL 25 GM</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -677,7 +725,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>14:0</t>
+    <t>19:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -749,7 +797,7 @@
     <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 7:10 PM</t>
+    <t>Wednesday, 27 August, 2025 7:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1473,7 +1521,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1482,14 +1530,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1499,14 +1547,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1515,14 +1563,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1536,10 +1584,10 @@
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1548,14 +1596,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1565,14 +1613,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1581,7 +1629,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1598,14 +1646,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1614,14 +1662,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1631,14 +1679,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1647,7 +1695,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1664,14 +1712,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1687,7 +1735,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1704,7 +1752,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1720,7 +1768,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1730,11 +1778,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1746,14 +1794,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1763,11 +1811,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1779,14 +1827,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1803,7 +1851,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1819,7 +1867,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1836,7 +1884,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1852,7 +1900,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1869,7 +1917,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1885,7 +1933,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1895,14 +1943,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1911,14 +1959,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1928,14 +1976,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1944,14 +1992,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1968,7 +2016,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1977,14 +2025,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1994,14 +2042,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2010,31 +2058,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2043,14 +2091,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2060,14 +2108,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2076,14 +2124,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2093,14 +2141,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2109,14 +2157,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2133,7 +2181,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2149,7 +2197,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2166,7 +2214,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2192,14 +2240,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2208,31 +2256,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2241,14 +2289,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2258,14 +2306,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2274,14 +2322,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2291,14 +2339,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>109</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2314,7 +2362,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2324,14 +2372,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2347,24 +2395,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2373,14 +2421,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2390,11 +2438,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2406,14 +2454,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2423,14 +2471,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>122</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2446,13 +2494,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2463,7 +2511,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2479,13 +2527,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2496,7 +2544,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2512,7 +2560,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2529,7 +2577,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2545,24 +2593,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2571,31 +2619,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2604,14 +2652,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2621,14 +2669,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2637,14 +2685,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2654,14 +2702,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2670,31 +2718,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2703,14 +2751,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2720,14 +2768,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2736,14 +2784,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2753,11 +2801,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2769,14 +2817,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2786,14 +2834,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2802,14 +2850,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2819,14 +2867,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2835,14 +2883,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2852,14 +2900,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2868,14 +2916,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2885,14 +2933,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2901,14 +2949,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>146</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2918,14 +2966,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2934,14 +2982,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2951,11 +2999,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2967,14 +3015,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2984,11 +3032,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3000,14 +3048,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3017,14 +3065,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3033,14 +3081,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3050,14 +3098,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3066,14 +3114,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3083,14 +3131,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3099,14 +3147,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3116,14 +3164,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3132,14 +3180,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3149,11 +3197,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3165,14 +3213,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3182,11 +3230,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3198,14 +3246,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3215,11 +3263,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3231,14 +3279,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3248,14 +3296,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3264,14 +3312,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3281,14 +3329,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3297,14 +3345,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>195</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3314,14 +3362,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>95</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>96</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3330,14 +3378,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3347,14 +3395,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3363,14 +3411,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3380,11 +3428,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3396,14 +3444,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3413,11 +3461,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3429,14 +3477,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3446,14 +3494,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>38</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3462,14 +3510,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3479,14 +3527,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3495,14 +3543,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>201</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3512,14 +3560,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>109</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3528,14 +3576,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>205</v>
+        <v>87</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3545,14 +3593,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>88</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3561,31 +3609,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>209</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3594,31 +3642,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>205</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>88</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3634,24 +3682,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3660,31 +3708,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>124</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3693,31 +3741,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>29</v>
+        <v>217</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>96</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>222</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3726,31 +3774,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3759,31 +3807,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>225</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3792,31 +3840,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3825,31 +3873,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>205</v>
+        <v>34</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3858,31 +3906,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3891,31 +3939,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>238</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3924,31 +3972,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>239</v>
+        <v>34</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3957,31 +4005,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>55</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3990,31 +4038,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>29</v>
+        <v>246</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4023,31 +4071,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>221</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4056,66 +4104,264 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>239</v>
+        <v>91</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>4356.7449999999999</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
-        <v>246</v>
-      </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
-        <v>247</v>
-      </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
-        <v>248</v>
-      </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>251</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>91</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>79</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>252</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>254</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>255</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>79</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>226</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>256</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>23</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>79</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>257</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>258</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>34</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>79</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>259</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>260</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>23</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>79</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>252</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>261</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>255</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>79</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>259</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>4753.585</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>262</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>263</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>264</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4534,10 +4780,40 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -458,6 +458,15 @@
     <t>190.0000</t>
   </si>
   <si>
+    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 10MG 20 TAB</t>
   </si>
   <si>
@@ -554,6 +563,15 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>PK-MERZ 100MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>POWERCAPS 20 CAPS.</t>
   </si>
   <si>
@@ -569,6 +587,15 @@
     <t>0:9</t>
   </si>
   <si>
+    <t>RAMIXOLE 1 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>52.4700</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -596,15 +623,6 @@
     <t>SINEMET 25/250 MG 20 TABS.</t>
   </si>
   <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>61.0000</t>
-  </si>
-  <si>
     <t>SOFENACIN 5MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -737,6 +755,18 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
     <t>شامبو الفيف 200 مل</t>
   </si>
   <si>
@@ -797,7 +827,7 @@
     <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 7:12 PM</t>
+    <t>Wednesday, 27 August, 2025 7:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2791,7 +2821,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2808,7 +2838,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2834,14 +2864,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2850,7 +2880,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2867,7 +2897,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>47</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2890,7 +2920,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2900,14 +2930,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2916,14 +2946,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2933,11 +2963,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2956,7 +2986,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2973,7 +3003,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3006,7 +3036,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3022,7 +3052,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3036,7 +3066,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3048,14 +3078,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3065,14 +3095,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3121,7 +3151,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3135,10 +3165,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3147,14 +3177,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3164,11 +3194,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3187,7 +3217,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3220,7 +3250,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>185</v>
+        <v>28</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3230,11 +3260,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3246,14 +3276,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3263,11 +3293,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3279,14 +3309,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>34</v>
+        <v>191</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3296,14 +3326,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3319,7 +3349,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3329,14 +3359,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3345,14 +3375,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>195</v>
+        <v>28</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3385,7 +3415,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3395,14 +3425,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3411,14 +3441,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3428,14 +3458,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3444,14 +3474,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3461,14 +3491,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>150</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3477,14 +3507,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3494,14 +3524,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>57</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3510,14 +3540,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3527,14 +3557,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3550,7 +3580,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3560,14 +3590,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3576,14 +3606,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3593,14 +3623,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3609,14 +3639,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3626,14 +3656,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3642,7 +3672,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3659,14 +3689,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>43</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3675,14 +3705,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3692,14 +3722,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>171</v>
+        <v>88</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>180</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3708,14 +3738,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3725,14 +3755,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>124</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>125</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3741,14 +3771,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>217</v>
+        <v>26</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3758,14 +3788,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>88</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>122</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3781,7 +3811,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>221</v>
+        <v>23</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3791,14 +3821,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3807,28 +3837,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>225</v>
+        <v>32</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>124</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>26</v>
@@ -3840,31 +3870,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>96</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>26</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3873,28 +3903,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>34</v>
+        <v>227</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>26</v>
@@ -3906,14 +3936,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>34</v>
+        <v>231</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3923,14 +3953,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3939,14 +3969,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>34</v>
+        <v>227</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3956,14 +3986,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>238</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3972,7 +4002,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3989,14 +4019,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4005,14 +4035,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4022,14 +4052,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4038,14 +4068,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>246</v>
+        <v>34</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4055,14 +4085,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>32</v>
+        <v>244</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4071,14 +4101,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>221</v>
+        <v>34</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4088,14 +4118,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4104,14 +4134,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>91</v>
+        <v>249</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4121,14 +4151,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>26</v>
+        <v>227</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4137,14 +4167,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4154,11 +4184,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>26</v>
@@ -4170,14 +4200,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4187,14 +4217,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4203,14 +4233,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4220,11 +4250,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>61</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>26</v>
@@ -4236,14 +4266,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4253,11 +4283,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>183</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>26</v>
@@ -4269,14 +4299,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4286,11 +4316,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>26</v>
@@ -4302,14 +4332,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4319,49 +4349,181 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>26</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>4753.585</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>266</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>23</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>79</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>267</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>268</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>34</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>79</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>269</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>270</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>23</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>79</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
         <v>262</v>
       </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
         <v>263</v>
       </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
-        <v>264</v>
-      </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c t="s" r="Q97" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>271</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>265</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>79</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>269</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>5057.7849999999999</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>272</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>273</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>274</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4810,10 +4972,30 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -827,7 +827,7 @@
     <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 7:21 PM</t>
+    <t>Wednesday, 27 August, 2025 7:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -827,7 +827,7 @@
     <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 7:22 PM</t>
+    <t>Wednesday, 27 August, 2025 7:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AMRIZOLE 500 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG 30 TAB.</t>
   </si>
   <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>111.00</t>
   </si>
   <si>
@@ -89,9 +101,6 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -398,6 +407,18 @@
     <t>83.0000</t>
   </si>
   <si>
+    <t>FUTAPAN 40 MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>59.50</t>
+  </si>
+  <si>
+    <t>59.5000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 80MG/2ML 3 AMPS.</t>
   </si>
   <si>
@@ -644,6 +665,15 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>TAVACIN 500MG 5 F.C. TAB</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
     <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
   </si>
   <si>
@@ -674,6 +704,15 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
     <t>VOLTAREN 1% EMULGEL 25 GM</t>
   </si>
   <si>
@@ -692,9 +731,6 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>96.00</t>
   </si>
   <si>
@@ -713,6 +749,15 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>82:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
     <t>حنه فاتيكا بني 1 كيس</t>
   </si>
   <si>
@@ -734,7 +779,10 @@
     <t>4.00</t>
   </si>
   <si>
-    <t>8.0000</t>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -815,19 +863,22 @@
     <t>55.00</t>
   </si>
   <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
     <t>كريم 555</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>ماء اكسجين 20</t>
   </si>
   <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
     <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 7:24 PM</t>
+    <t>Wednesday, 27 August, 2025 7:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1485,7 +1536,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1494,14 +1545,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1511,14 +1562,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1527,14 +1578,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1544,14 +1595,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>25</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1560,14 +1611,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1577,14 +1628,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1593,14 +1644,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1610,14 +1661,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1626,14 +1677,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1643,14 +1694,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1659,14 +1710,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1676,14 +1727,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>39</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1699,7 +1750,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1709,14 +1760,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1725,14 +1776,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1742,14 +1793,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1758,14 +1809,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1775,14 +1826,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1798,7 +1849,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1815,7 +1866,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1831,7 +1882,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1848,7 +1899,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1864,7 +1915,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1874,14 +1925,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1890,14 +1941,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1914,7 +1965,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1930,7 +1981,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1947,7 +1998,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1963,7 +2014,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1980,7 +2031,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1996,7 +2047,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2013,7 +2064,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2029,7 +2080,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2039,14 +2090,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2055,14 +2106,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2079,7 +2130,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2095,24 +2146,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2121,20 +2172,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -2145,7 +2196,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2154,14 +2205,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2171,14 +2222,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>36</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2187,14 +2238,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2204,14 +2255,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2220,14 +2271,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2244,7 +2295,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2260,7 +2311,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2270,14 +2321,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2286,20 +2337,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2310,7 +2361,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2326,13 +2377,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2343,7 +2394,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2359,7 +2410,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2376,7 +2427,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2392,7 +2443,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2402,14 +2453,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2425,7 +2476,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2435,14 +2486,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2458,7 +2509,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2475,7 +2526,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2491,7 +2542,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2508,7 +2559,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2517,14 +2568,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2534,14 +2585,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>125</v>
-      </c>
-      <c t="s" r="Q39" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2557,13 +2608,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2574,7 +2625,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2590,13 +2641,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2607,7 +2658,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2623,7 +2674,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2633,14 +2684,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2649,31 +2700,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2682,14 +2733,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2699,14 +2750,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2715,31 +2766,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2748,31 +2799,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2781,14 +2832,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2798,14 +2849,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2814,31 +2865,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2847,14 +2898,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2864,14 +2915,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2880,14 +2931,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2897,14 +2948,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>47</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2913,14 +2964,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2930,14 +2981,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2946,14 +2997,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2963,14 +3014,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2979,14 +3030,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2996,14 +3047,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3012,14 +3063,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3029,14 +3080,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>102</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3045,14 +3096,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3062,14 +3113,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3078,14 +3129,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3095,14 +3146,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>93</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3111,14 +3162,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3128,14 +3179,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3144,14 +3195,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3161,14 +3212,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3177,14 +3228,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3194,14 +3245,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3210,14 +3261,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3227,14 +3278,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3243,14 +3294,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>28</v>
+        <v>168</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3260,14 +3311,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3276,14 +3327,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3293,14 +3344,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3309,14 +3360,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>191</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3326,14 +3377,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>25</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3342,14 +3393,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3359,14 +3410,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3375,14 +3426,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3392,14 +3443,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3408,14 +3459,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3425,14 +3476,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3441,14 +3492,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3458,14 +3509,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3474,14 +3525,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3491,14 +3542,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>150</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3507,14 +3558,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3524,14 +3575,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3540,14 +3591,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3557,14 +3608,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3573,14 +3624,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3590,14 +3641,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3606,14 +3657,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3623,14 +3674,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3639,14 +3690,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3656,14 +3707,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3672,14 +3723,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3689,14 +3740,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>153</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3705,14 +3756,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3722,14 +3773,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>43</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3738,14 +3789,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3755,14 +3806,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>111</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3771,14 +3822,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3788,14 +3839,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>43</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3804,14 +3855,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3821,14 +3872,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>174</v>
+        <v>91</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>183</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3837,14 +3888,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3854,14 +3905,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3870,14 +3921,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3887,14 +3938,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>91</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3903,14 +3954,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>227</v>
+        <v>27</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3920,14 +3971,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>181</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3936,31 +3987,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3976,24 +4027,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>227</v>
+        <v>35</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>127</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4002,20 +4053,20 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>34</v>
+        <v>236</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
@@ -4026,7 +4077,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>26</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4042,13 +4093,13 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
@@ -4059,7 +4110,7 @@
         <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4075,24 +4126,24 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>34</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>244</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4101,31 +4152,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>34</v>
+        <v>247</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4134,20 +4185,20 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>133</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
@@ -4155,10 +4206,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>227</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4167,31 +4218,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4200,31 +4251,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>256</v>
+        <v>37</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>32</v>
+        <v>257</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4233,31 +4284,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>227</v>
+        <v>37</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>26</v>
+        <v>260</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4266,31 +4317,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4299,31 +4350,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>91</v>
+        <v>265</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>26</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4332,31 +4383,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>265</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4365,31 +4416,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>23</v>
+        <v>272</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>61</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4398,20 +4449,20 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
@@ -4419,10 +4470,10 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>189</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4431,31 +4482,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4464,66 +4515,297 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>265</v>
+        <v>94</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>189</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>5057.7849999999999</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
-        <v>272</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
-        <v>273</v>
-      </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
-        <v>274</v>
-      </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>280</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>281</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>82</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>244</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>245</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>282</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>27</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>82</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>283</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>284</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>37</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>82</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>244</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>245</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>285</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>37</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>82</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>248</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>286</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>27</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>82</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>278</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>279</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>287</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>37</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>82</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>28</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>288</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>281</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>82</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>248</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>5399.6850000000004</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
+        <v>289</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>290</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>291</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4992,10 +5274,45 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -878,7 +878,7 @@
     <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 7:26 PM</t>
+    <t>Wednesday, 27 August, 2025 7:27 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -323,6 +323,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>DROSSA NOSA GEL</t>
+  </si>
+  <si>
+    <t>78.75</t>
+  </si>
+  <si>
+    <t>78.7500</t>
+  </si>
+  <si>
     <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
   </si>
   <si>
@@ -626,6 +635,15 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>RUTA-C 60MG 20 TAB</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>9.5000</t>
+  </si>
+  <si>
     <t>RX MASSAGE GEL 50 GM</t>
   </si>
   <si>
@@ -878,7 +896,7 @@
     <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 7:27 PM</t>
+    <t>Wednesday, 27 August, 2025 7:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2377,7 +2395,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2394,7 +2412,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2410,13 +2428,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2427,7 +2445,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2443,7 +2461,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2460,7 +2478,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2476,7 +2494,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2486,14 +2504,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2509,7 +2527,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2519,14 +2537,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2542,7 +2560,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2559,7 +2577,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2575,7 +2593,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2592,7 +2610,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>125</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2601,14 +2619,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2618,14 +2636,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>128</v>
-      </c>
-      <c t="s" r="Q40" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2641,13 +2659,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2674,21 +2692,21 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2700,14 +2718,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2724,7 +2742,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2773,13 +2791,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2790,7 +2808,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2806,13 +2824,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2839,7 +2857,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2878,15 +2896,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2898,7 +2916,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2911,11 +2929,11 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2971,7 +2989,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2988,7 +3006,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3014,14 +3032,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3030,7 +3048,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3047,7 +3065,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>50</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -3070,7 +3088,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3080,14 +3098,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>102</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3096,14 +3114,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3113,11 +3131,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>102</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -3136,7 +3154,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3153,7 +3171,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3186,7 +3204,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3202,7 +3220,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3216,7 +3234,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3228,14 +3246,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3245,14 +3263,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3301,7 +3319,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>168</v>
+        <v>37</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3315,10 +3333,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3327,14 +3345,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3344,11 +3362,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3367,7 +3385,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3400,7 +3418,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3433,7 +3451,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3443,11 +3461,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>29</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3459,14 +3477,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3476,11 +3494,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>149</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3532,7 +3550,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3549,7 +3567,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3565,7 +3583,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3575,14 +3593,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3591,14 +3609,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3608,11 +3626,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>157</v>
+        <v>212</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>158</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3624,14 +3642,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3641,14 +3659,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3657,14 +3675,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3674,14 +3692,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3690,14 +3708,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3707,11 +3725,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3723,14 +3741,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3740,14 +3758,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>130</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3763,7 +3781,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3773,14 +3791,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>60</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3789,14 +3807,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3806,14 +3824,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>111</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>112</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3822,7 +3840,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3839,11 +3857,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3855,14 +3873,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3872,14 +3890,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3888,7 +3906,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3905,14 +3923,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>163</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3921,14 +3939,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3954,14 +3972,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3971,14 +3989,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>181</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3987,14 +4005,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4004,11 +4022,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>219</v>
+        <v>91</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -4020,14 +4038,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4037,14 +4055,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4053,14 +4071,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4070,14 +4088,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>125</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4086,14 +4104,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4103,11 +4121,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4119,31 +4137,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4152,28 +4170,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>247</v>
+        <v>136</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4185,14 +4203,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>133</v>
+        <v>249</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4206,7 +4224,7 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>99</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4218,14 +4236,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>37</v>
+        <v>253</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4235,11 +4253,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4251,14 +4269,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4268,14 +4286,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>257</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4284,7 +4302,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4301,14 +4319,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>209</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>260</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4317,7 +4335,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4334,14 +4352,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
+        <v>262</v>
+      </c>
+      <c t="s" r="Q92" s="12">
         <v>263</v>
-      </c>
-      <c t="s" r="Q92" s="12">
-        <v>35</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4357,7 +4375,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>265</v>
+        <v>37</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4367,14 +4385,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>133</v>
+        <v>266</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4383,14 +4401,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4400,14 +4418,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4416,14 +4434,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4433,14 +4451,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>35</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4449,14 +4467,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4466,11 +4484,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4482,14 +4500,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>94</v>
+        <v>278</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4499,14 +4517,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4515,14 +4533,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4532,11 +4550,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4548,14 +4566,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>281</v>
+        <v>94</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4565,11 +4583,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4581,14 +4599,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4598,11 +4616,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>64</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4614,14 +4632,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>37</v>
+        <v>287</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4631,11 +4649,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4647,14 +4665,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4664,11 +4682,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>196</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4680,14 +4698,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4697,11 +4715,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4713,7 +4731,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4730,11 +4748,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>28</v>
+        <v>254</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>29</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4746,14 +4764,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>281</v>
+        <v>27</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4763,49 +4781,115 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>196</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>5399.6850000000004</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
-        <v>289</v>
-      </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
-        <v>290</v>
-      </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
-        <v>291</v>
-      </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>293</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>37</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>82</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>28</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>294</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>287</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>82</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>254</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>199</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>5487.9350000000004</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
+        <v>295</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
+        <v>296</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>297</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5309,10 +5393,20 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -896,7 +896,7 @@
     <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 7:28 PM</t>
+    <t>Wednesday, 27 August, 2025 7:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -683,6 +683,15 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>SUPRAX 100MG/5 ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>131.00</t>
+  </si>
+  <si>
+    <t>131.0000</t>
+  </si>
+  <si>
     <t>TAVACIN 500MG 5 F.C. TAB</t>
   </si>
   <si>
@@ -770,12 +779,15 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>82:0</t>
+    <t>81:0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>حنه فاتيكا بني 1 كيس</t>
   </si>
   <si>
@@ -818,7 +830,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>سرنجات انسولين</t>
@@ -890,13 +902,16 @@
     <t>ماء اكسجين 20</t>
   </si>
   <si>
+    <t>محلول خليط</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
     <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 7:34 PM</t>
+    <t>Wednesday, 27 August, 2025 7:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3814,7 +3829,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3831,7 +3846,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3847,7 +3862,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3857,14 +3872,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>60</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3873,14 +3888,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3890,11 +3905,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>115</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3906,14 +3921,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3923,11 +3938,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3939,14 +3954,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3956,14 +3971,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>46</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3972,14 +3987,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3989,11 +4004,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>91</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -4022,11 +4037,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>91</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>46</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -4038,14 +4053,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4055,14 +4070,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>184</v>
+        <v>91</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>193</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4071,14 +4086,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>27</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4088,14 +4103,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4111,7 +4126,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>35</v>
+        <v>241</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4121,14 +4136,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>130</v>
+        <v>228</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>131</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4137,14 +4152,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>242</v>
+        <v>35</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4154,14 +4169,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>130</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>128</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4170,14 +4185,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>136</v>
+        <v>245</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4194,7 +4209,7 @@
         <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>128</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4210,21 +4225,21 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>136</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4236,14 +4251,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4253,11 +4268,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>199</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4276,7 +4291,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>136</v>
+        <v>256</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4286,14 +4301,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>99</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4302,14 +4317,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4319,11 +4334,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4335,7 +4350,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4352,14 +4367,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>263</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4389,10 +4404,10 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>215</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4401,7 +4416,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4418,14 +4433,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>35</v>
+        <v>270</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4434,14 +4449,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>271</v>
+        <v>37</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4458,7 +4473,7 @@
         <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>136</v>
+        <v>267</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4474,7 +4489,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>275</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4484,14 +4499,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4500,14 +4515,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>278</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4524,7 +4539,7 @@
         <v>280</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4540,7 +4555,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>136</v>
+        <v>282</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4550,14 +4565,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4566,14 +4581,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4583,11 +4598,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4599,7 +4614,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4616,11 +4631,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4632,14 +4647,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>287</v>
+        <v>94</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4649,11 +4664,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4665,14 +4680,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>27</v>
+        <v>291</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4682,11 +4697,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>64</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4698,14 +4713,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4715,11 +4730,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>250</v>
+        <v>293</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>251</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4731,7 +4746,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4748,11 +4763,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>199</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4764,14 +4779,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4781,11 +4796,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>285</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4797,14 +4812,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4814,11 +4829,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>28</v>
+        <v>288</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>29</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4830,14 +4845,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>287</v>
+        <v>37</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4847,49 +4862,115 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>254</v>
+        <v>66</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>298</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>37</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>82</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>28</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>299</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>291</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>82</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>257</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
         <v>199</v>
       </c>
-      <c t="s" r="Q107" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="108" ht="24.75" customHeight="1">
-      <c r="P108" s="13">
-        <v>5487.9350000000004</v>
-      </c>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
-        <v>295</v>
-      </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
-        <v>296</v>
-      </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
-        <v>297</v>
-      </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+      <c t="s" r="Q109" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="P110" s="13">
+        <v>5668.9350000000004</v>
+      </c>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="14">
+        <v>300</v>
+      </c>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c t="s" r="G111" s="15">
+        <v>301</v>
+      </c>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c t="s" r="K111" s="17">
+        <v>302</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="527">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5403,10 +5484,20 @@
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="K111:Q111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -911,7 +911,7 @@
     <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 7:37 PM</t>
+    <t>Wednesday, 27 August, 2025 7:38 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -92,75 +92,81 @@
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>APIDONE SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>AVEROTHIAZIDE 5/20/12.5MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>BEPRA 20MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>154.50</t>
+  </si>
+  <si>
+    <t>50.9850</t>
+  </si>
+  <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>BRUFEN 400MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>APIDONE SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>AVEROTHIAZIDE 5/20/12.5MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>61.3800</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>BEPRA 20MG 14 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>154.50</t>
-  </si>
-  <si>
-    <t>50.9850</t>
-  </si>
-  <si>
-    <t>BETADERM 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>BRUFEN 400MG 30 TAB</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>CALAMYL LOTION 100 ML</t>
-  </si>
-  <si>
     <t>49.00</t>
   </si>
   <si>
@@ -368,6 +374,15 @@
     <t>7.9200</t>
   </si>
   <si>
+    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">FLAGELLAT FORTE 200MG/5ML  100ML SUSP</t>
   </si>
   <si>
@@ -812,9 +827,6 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -911,7 +923,7 @@
     <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 7:38 PM</t>
+    <t>Wednesday, 27 August, 2025 8:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1668,7 +1680,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1677,14 +1689,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1694,11 +1706,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>20</v>
@@ -1710,14 +1722,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1731,7 +1743,7 @@
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1743,14 +1755,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1760,14 +1772,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1776,14 +1788,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1793,11 +1805,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>20</v>
@@ -1809,14 +1821,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1826,11 +1838,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1842,7 +1854,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1863,7 +1875,7 @@
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>20</v>
@@ -1875,14 +1887,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1892,14 +1904,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1908,7 +1920,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1925,11 +1937,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>20</v>
@@ -1941,14 +1953,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1958,11 +1970,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>20</v>
@@ -1974,14 +1986,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1991,11 +2003,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -2007,7 +2019,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -2024,11 +2036,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -2040,14 +2052,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2057,11 +2069,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -2073,14 +2085,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2090,11 +2102,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -2106,14 +2118,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2123,11 +2135,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>20</v>
@@ -2139,14 +2151,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2156,11 +2168,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -2172,14 +2184,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2189,11 +2201,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -2205,7 +2217,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2218,15 +2230,15 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -2238,14 +2250,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2255,14 +2267,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2271,14 +2283,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2288,14 +2300,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2304,14 +2316,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2321,11 +2333,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2337,7 +2349,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2354,11 +2366,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -2370,14 +2382,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2387,11 +2399,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -2403,28 +2415,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2436,28 +2448,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2469,7 +2481,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2486,14 +2498,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2502,14 +2514,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2519,11 +2531,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2535,14 +2547,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2556,10 +2568,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2568,14 +2580,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2585,11 +2597,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2601,14 +2613,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2618,14 +2630,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2634,14 +2646,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2651,14 +2663,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>128</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2667,14 +2679,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2684,14 +2696,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2700,28 +2712,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2733,28 +2745,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2766,14 +2778,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2783,14 +2795,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2799,7 +2811,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2816,11 +2828,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2832,31 +2844,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2865,28 +2877,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2898,14 +2910,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2915,11 +2927,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2931,28 +2943,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2964,28 +2976,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2997,14 +3009,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3014,11 +3026,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -3030,14 +3042,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3047,14 +3059,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3063,7 +3075,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3080,14 +3092,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>50</v>
+        <v>168</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3096,7 +3108,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3113,11 +3125,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>52</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3129,14 +3141,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3146,14 +3158,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>103</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3162,14 +3174,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3179,11 +3191,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>104</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3195,14 +3207,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3212,14 +3224,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3228,7 +3240,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3245,14 +3257,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3261,14 +3273,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3278,11 +3290,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>96</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3294,14 +3306,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3311,14 +3323,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3327,14 +3339,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3344,11 +3356,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3360,14 +3372,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>171</v>
+        <v>38</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3377,14 +3389,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3393,14 +3405,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3410,11 +3422,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3426,14 +3438,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3443,11 +3455,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3459,14 +3471,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3476,11 +3488,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3492,14 +3504,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3509,11 +3521,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>29</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3525,14 +3537,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>31</v>
+        <v>206</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3542,11 +3554,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>154</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3558,14 +3570,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3575,11 +3587,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3591,14 +3603,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3608,11 +3620,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3624,14 +3636,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3641,14 +3653,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3657,14 +3669,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3674,11 +3686,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3690,14 +3702,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3707,11 +3719,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>161</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3723,14 +3735,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3740,14 +3752,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3756,14 +3768,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3773,11 +3785,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3789,14 +3801,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3806,11 +3818,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>135</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3822,14 +3834,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3839,14 +3851,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3855,14 +3867,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3872,14 +3884,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3888,14 +3900,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3905,14 +3917,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>60</v>
+        <v>233</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3921,14 +3933,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3938,11 +3950,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>115</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3954,14 +3966,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3971,11 +3983,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>215</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3987,14 +3999,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4004,14 +4016,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>91</v>
+        <v>168</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>46</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4020,14 +4032,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4037,11 +4049,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>93</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -4053,7 +4065,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4070,11 +4082,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>91</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>46</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -4086,14 +4098,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4103,14 +4115,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>193</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4119,14 +4131,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>241</v>
+        <v>51</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4136,14 +4148,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4152,14 +4164,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>35</v>
+        <v>246</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4169,14 +4181,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>131</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4185,14 +4197,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>245</v>
+        <v>30</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4202,14 +4214,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>135</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>128</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4218,14 +4230,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>136</v>
+        <v>250</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4235,14 +4247,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4251,28 +4263,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>252</v>
+        <v>141</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4284,31 +4296,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4317,31 +4329,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>136</v>
+        <v>261</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>99</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4350,28 +4362,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4383,31 +4395,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>267</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4416,31 +4428,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>215</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>270</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4449,31 +4461,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4482,20 +4494,20 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>275</v>
+        <v>38</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
@@ -4506,7 +4518,7 @@
         <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>136</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4522,24 +4534,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4548,20 +4560,20 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>282</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
@@ -4572,7 +4584,7 @@
         <v>284</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4588,24 +4600,24 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>136</v>
+        <v>286</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4614,28 +4626,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4647,28 +4659,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4680,28 +4692,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>291</v>
+        <v>96</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4713,28 +4725,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>27</v>
+        <v>295</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>64</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4746,28 +4758,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>253</v>
+        <v>297</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>254</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4779,28 +4791,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4812,28 +4824,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>289</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4845,28 +4857,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>66</v>
+        <v>292</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>67</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4878,28 +4890,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -4911,66 +4923,99 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>291</v>
+        <v>38</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>257</v>
+        <v>28</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>199</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
-      <c r="P110" s="13">
-        <v>5668.9350000000004</v>
-      </c>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="14">
-        <v>300</v>
-      </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c t="s" r="G111" s="15">
-        <v>301</v>
-      </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c t="s" r="K111" s="17">
-        <v>302</v>
-      </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>303</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>295</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>84</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>262</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="P111" s="13">
+        <v>5768.9350000000004</v>
+      </c>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="14">
+        <v>304</v>
+      </c>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c t="s" r="G112" s="15">
+        <v>305</v>
+      </c>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c t="s" r="K112" s="17">
+        <v>306</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="527">
+  <mergeCells count="532">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5494,10 +5539,15 @@
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="K112:Q112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -104,6 +104,15 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -308,6 +317,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -416,12 +434,6 @@
     <t>FORTYMOX PLUS OPHTHALMIC SOL. 5 ML</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">FUSI-ZON  CREAM30MG</t>
   </si>
   <si>
@@ -443,15 +455,18 @@
     <t>59.5000</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 80MG/2ML 3 AMPS.</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>19.8000</t>
-  </si>
-  <si>
     <t>GAST-REG 200 MG 30 TABS.</t>
   </si>
   <si>
@@ -542,6 +557,18 @@
     <t>2:2</t>
   </si>
   <si>
+    <t>LIVABION 6 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>MILGA ADVANCE 30 F.C. TABS</t>
   </si>
   <si>
@@ -722,6 +749,12 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>TOTAVIT SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
     <t>TREFLUCAN 150MG 1 CAPS.</t>
   </si>
   <si>
@@ -773,9 +806,6 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>96.00</t>
-  </si>
-  <si>
     <t>96.0000</t>
   </si>
   <si>
@@ -833,7 +863,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>19:0</t>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>23:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -923,7 +956,7 @@
     <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 8:03 PM</t>
+    <t>Wednesday, 27 August, 2025 8:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1696,7 +1729,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1706,11 +1739,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>20</v>
@@ -1722,14 +1755,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1739,14 +1772,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1755,14 +1788,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1772,14 +1805,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1788,14 +1821,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1805,14 +1838,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>43</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1828,7 +1861,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1838,14 +1871,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1854,14 +1887,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1871,14 +1904,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1887,14 +1920,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1904,14 +1937,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1920,14 +1953,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1944,7 +1977,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1960,7 +1993,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1993,7 +2026,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2003,11 +2036,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -2019,14 +2052,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2059,7 +2092,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2076,7 +2109,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2125,7 +2158,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2142,7 +2175,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2158,7 +2191,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2168,14 +2201,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2184,14 +2217,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2224,24 +2257,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2250,20 +2283,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2274,7 +2307,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2283,14 +2316,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2300,14 +2333,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>40</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2316,14 +2349,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2333,14 +2366,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2349,14 +2382,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2373,7 +2406,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2389,7 +2422,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2399,14 +2432,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2415,31 +2448,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2448,20 +2481,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2488,13 +2521,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2505,7 +2538,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2521,13 +2554,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2538,7 +2571,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2554,7 +2587,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2564,14 +2597,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2587,7 +2620,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2620,7 +2653,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2630,14 +2663,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2653,7 +2686,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2670,7 +2703,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2686,7 +2719,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2703,7 +2736,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>133</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2712,14 +2745,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2729,14 +2762,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2745,31 +2778,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q43" s="12">
         <v>139</v>
-      </c>
-      <c t="s" r="Q43" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2785,7 +2818,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2795,11 +2828,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2811,31 +2844,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2844,14 +2877,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2861,14 +2894,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2877,28 +2910,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2910,14 +2943,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2927,14 +2960,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>155</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2943,14 +2976,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2960,14 +2993,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2976,28 +3009,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -3009,14 +3042,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3026,11 +3059,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -3042,14 +3075,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3059,11 +3092,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3075,31 +3108,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3108,14 +3141,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3125,11 +3158,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3141,14 +3174,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3158,11 +3191,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3174,14 +3207,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3191,11 +3224,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>104</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>105</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3207,14 +3240,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3224,14 +3257,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>55</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3240,7 +3273,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3257,11 +3290,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3273,14 +3306,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3290,11 +3323,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>184</v>
+        <v>110</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>185</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3306,14 +3339,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3323,14 +3356,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>98</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3339,14 +3372,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3356,14 +3389,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3372,14 +3405,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3389,11 +3422,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3405,14 +3438,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3422,11 +3455,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3438,14 +3471,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3455,11 +3488,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>198</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3471,14 +3504,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3488,14 +3521,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3504,14 +3537,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3521,14 +3554,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3537,14 +3570,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3554,11 +3587,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3570,14 +3603,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3587,11 +3620,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3603,14 +3636,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3620,11 +3653,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3636,14 +3669,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3653,11 +3686,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3669,14 +3702,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3686,14 +3719,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>218</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3702,14 +3735,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3719,14 +3752,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>168</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3735,14 +3768,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3752,14 +3785,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>165</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>166</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3775,7 +3808,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3785,11 +3818,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3801,14 +3834,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3818,14 +3851,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>135</v>
+        <v>226</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3834,14 +3867,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3851,14 +3884,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3867,14 +3900,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3884,11 +3917,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3900,14 +3933,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3917,14 +3950,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3933,14 +3966,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3950,14 +3983,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3966,14 +3999,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3983,14 +4016,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>117</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4016,11 +4049,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4032,14 +4065,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4049,14 +4082,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>93</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>47</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4065,7 +4098,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4082,14 +4115,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>65</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4098,7 +4131,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4115,14 +4148,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>93</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>47</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4131,14 +4164,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4148,14 +4181,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>189</v>
+        <v>122</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>198</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4164,14 +4197,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>246</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4181,14 +4214,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>233</v>
+        <v>173</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4197,14 +4230,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4214,14 +4247,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4230,14 +4263,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4247,14 +4280,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>133</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4263,14 +4296,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4280,14 +4313,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>96</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4296,31 +4329,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>257</v>
+        <v>54</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4329,31 +4362,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4362,28 +4395,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>103</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4395,31 +4428,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>38</v>
+        <v>261</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>139</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4428,31 +4461,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>270</v>
+        <v>183</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4461,31 +4494,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>38</v>
+        <v>267</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>274</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4494,31 +4527,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>38</v>
+        <v>271</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4527,31 +4560,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>279</v>
+        <v>145</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>281</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>141</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4560,28 +4593,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4593,31 +4626,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>286</v>
+        <v>41</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4626,20 +4659,20 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
@@ -4650,7 +4683,7 @@
         <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>285</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4659,31 +4692,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4692,31 +4725,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>96</v>
+        <v>290</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>145</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4725,28 +4758,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>295</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4765,24 +4798,24 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>51</v>
+        <v>297</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>66</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4791,28 +4824,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4824,28 +4857,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>204</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4857,28 +4890,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4890,28 +4923,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>38</v>
+        <v>306</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -4923,28 +4956,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>28</v>
+        <v>308</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -4956,66 +4989,231 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>295</v>
+        <v>41</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>204</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>5768.9350000000004</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>310</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>41</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>87</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>272</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>311</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>54</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>87</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>303</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
         <v>304</v>
       </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
-        <v>305</v>
-      </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
+      <c t="s" r="Q112" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>312</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>41</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>87</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>71</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>313</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>41</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>87</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>28</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>314</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
         <v>306</v>
       </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>87</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>272</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>5973.0950000000003</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
+        <v>315</v>
+      </c>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
+        <v>316</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>317</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5544,10 +5742,35 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -236,7 +236,7 @@
     <t>63.00</t>
   </si>
   <si>
-    <t>63.0000</t>
+    <t>83.7900</t>
   </si>
   <si>
     <t>COLOVERIN A 30 TABLETS</t>
@@ -551,6 +551,15 @@
     <t>205.0000</t>
   </si>
   <si>
+    <t>LANTOPEP 60 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -611,6 +620,12 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
     <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
   </si>
   <si>
@@ -635,6 +650,15 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>PANTOLOC 20MG 14 E.C. TAB.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>PK-MERZ 100MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -956,7 +980,7 @@
     <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 8:15 PM</t>
+    <t>Wednesday, 27 August, 2025 8:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2158,7 +2182,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2175,7 +2199,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -3313,7 +3337,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>181</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3323,11 +3347,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>111</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3339,14 +3363,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3356,14 +3380,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>110</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>185</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3372,14 +3396,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3389,14 +3413,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q61" s="12">
         <v>188</v>
-      </c>
-      <c t="s" r="Q61" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3412,7 +3436,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3429,7 +3453,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3462,7 +3486,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3478,7 +3502,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3492,7 +3516,7 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3504,14 +3528,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3521,14 +3545,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3577,7 +3601,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3591,7 +3615,7 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3610,7 +3634,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3627,7 +3651,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3643,7 +3667,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>35</v>
+        <v>184</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3657,7 +3681,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3669,14 +3693,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3686,11 +3710,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3702,14 +3726,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3719,14 +3743,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>39</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3775,7 +3799,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3808,7 +3832,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>20</v>
+        <v>223</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3818,11 +3842,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>223</v>
+        <v>159</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>224</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3834,14 +3858,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3851,14 +3875,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3867,14 +3891,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3884,14 +3908,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3907,7 +3931,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3917,14 +3941,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3933,14 +3957,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3950,14 +3974,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3966,14 +3990,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3983,14 +4007,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3999,14 +4023,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4016,14 +4040,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4032,14 +4056,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4049,14 +4073,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4072,7 +4096,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4082,14 +4106,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>103</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4098,14 +4122,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4115,14 +4139,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>65</v>
+        <v>244</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4152,7 +4176,7 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4164,14 +4188,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4181,14 +4205,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>123</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4197,7 +4221,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4214,11 +4238,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>173</v>
+        <v>65</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4230,14 +4254,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4247,14 +4271,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>96</v>
+        <v>255</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>50</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4263,14 +4287,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4280,14 +4304,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>122</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4296,7 +4320,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4313,14 +4337,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>50</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4329,14 +4353,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4346,14 +4370,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>198</v>
+        <v>96</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>207</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4362,14 +4386,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4379,11 +4403,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4395,14 +4419,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4412,14 +4436,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4428,14 +4452,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>261</v>
+        <v>54</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4445,14 +4469,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>201</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>139</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4468,7 +4492,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>145</v>
+        <v>265</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4478,14 +4502,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>183</v>
+        <v>250</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4494,28 +4518,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>267</v>
+        <v>30</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>103</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4527,31 +4551,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>30</v>
+        <v>139</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4560,7 +4584,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4573,15 +4597,15 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>186</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>107</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4593,14 +4617,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>41</v>
+        <v>275</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4610,11 +4634,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4626,14 +4650,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>41</v>
+        <v>279</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4650,7 +4674,7 @@
         <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4666,7 +4690,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4680,10 +4704,10 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>285</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4692,7 +4716,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4709,14 +4733,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4725,14 +4749,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4742,14 +4766,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>145</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4758,14 +4782,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4775,14 +4799,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>293</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4791,14 +4815,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>297</v>
+        <v>41</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4808,14 +4832,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4824,14 +4848,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>145</v>
+        <v>298</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4841,14 +4865,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4864,7 +4888,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4874,11 +4898,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4890,14 +4914,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>99</v>
+        <v>305</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4907,14 +4931,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4923,14 +4947,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>306</v>
+        <v>145</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4940,11 +4964,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -4956,14 +4980,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4973,11 +4997,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>69</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -4989,14 +5013,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5006,11 +5030,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5022,14 +5046,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>41</v>
+        <v>314</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5039,11 +5063,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>213</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5055,7 +5079,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5072,11 +5096,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>304</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5088,7 +5112,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5105,11 +5129,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>71</v>
+        <v>276</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>72</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5121,7 +5145,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5138,11 +5162,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>28</v>
+        <v>280</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>39</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5154,14 +5178,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>306</v>
+        <v>54</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5171,49 +5195,148 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>213</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>5973.0950000000003</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
-        <v>315</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
-        <v>316</v>
-      </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
-        <v>317</v>
-      </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>320</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>41</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>87</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>71</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>321</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>41</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>87</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>28</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>322</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>314</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>87</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>280</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="P119" s="13">
+        <v>6195.8850000000002</v>
+      </c>
+      <c r="Q119" s="13"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="14">
+        <v>323</v>
+      </c>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c t="s" r="G120" s="15">
+        <v>324</v>
+      </c>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c t="s" r="K120" s="17">
+        <v>325</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="572">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5767,10 +5890,25 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:Q120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -44,15 +44,39 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALEJON WHITENING CLEANSER 200ML</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>245.00</t>
+  </si>
+  <si>
+    <t>245.0000</t>
+  </si>
+  <si>
+    <t>ALEJON WHITENING CREAM 50 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>290.00</t>
+  </si>
+  <si>
+    <t>290.0000</t>
+  </si>
+  <si>
     <t>AMRIZOLE 500 MG 20 TABS.</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>25.00</t>
   </si>
   <si>
@@ -134,9 +158,6 @@
     <t>AVEROTHIAZIDE 5/20/12.5MG 30 F.C. TABS</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>61.3800</t>
   </si>
   <si>
@@ -272,9 +293,6 @@
     <t>COXORIZET CAPS</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>249.00</t>
   </si>
   <si>
@@ -485,6 +503,12 @@
     <t>135.0000</t>
   </si>
   <si>
+    <t>HELANO LINE GEL</t>
+  </si>
+  <si>
+    <t>165.0000</t>
+  </si>
+  <si>
     <t>HELI-CURE 14 ENTERIC COATED TAB</t>
   </si>
   <si>
@@ -506,9 +530,6 @@
     <t>INIZIO CREAM</t>
   </si>
   <si>
-    <t>165.0000</t>
-  </si>
-  <si>
     <t>INNO MOVE 10 SACHETS</t>
   </si>
   <si>
@@ -980,7 +1001,7 @@
     <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 8:17 PM</t>
+    <t>Wednesday, 27 August, 2025 8:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1660,18 +1681,18 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1687,24 +1708,24 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1713,31 +1734,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1746,31 +1767,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>33</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1792,7 +1813,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1803,7 +1824,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1812,31 +1833,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1845,31 +1866,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1878,31 +1899,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1911,31 +1932,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>50</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1951,24 +1972,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1977,31 +1998,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2010,31 +2031,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2050,24 +2071,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2076,20 +2097,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -2100,7 +2121,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2116,13 +2137,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -2133,7 +2154,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2149,24 +2170,24 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2175,31 +2196,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2208,31 +2229,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2241,20 +2262,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2265,7 +2286,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2281,13 +2302,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -2298,7 +2319,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2314,13 +2335,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2331,7 +2352,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2347,13 +2368,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2364,7 +2385,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>93</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2373,14 +2394,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2390,14 +2411,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2406,31 +2427,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2439,31 +2460,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2472,20 +2493,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2496,7 +2517,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2512,24 +2533,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2538,31 +2559,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2571,20 +2592,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2595,7 +2616,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2611,7 +2632,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2628,7 +2649,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2644,7 +2665,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2661,7 +2682,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2677,24 +2698,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2710,13 +2731,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2743,24 +2764,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2776,13 +2797,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2793,7 +2814,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2809,13 +2830,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2826,7 +2847,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2835,31 +2856,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2868,31 +2889,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2901,28 +2922,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2934,14 +2955,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2951,11 +2972,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2967,31 +2988,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3000,31 +3021,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3033,31 +3054,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3073,13 +3094,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -3090,7 +3111,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3106,7 +3127,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3139,17 +3160,17 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -3172,13 +3193,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3205,13 +3226,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3238,7 +3259,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3248,14 +3269,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>125</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3264,28 +3285,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>55</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3297,28 +3318,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3330,31 +3351,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3363,31 +3384,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>111</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3396,7 +3417,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3409,18 +3430,18 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>188</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3429,31 +3450,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>28</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3462,31 +3483,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3495,7 +3516,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3508,18 +3529,18 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3528,31 +3549,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>30</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3561,28 +3582,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3594,7 +3615,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3607,18 +3628,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>129</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3634,13 +3655,13 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3648,10 +3669,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3660,31 +3681,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>184</v>
+        <v>17</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>101</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3700,13 +3721,13 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3714,10 +3735,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3726,28 +3747,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3759,31 +3780,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>35</v>
+        <v>191</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3792,31 +3813,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3825,31 +3846,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>159</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>39</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3858,31 +3879,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3891,31 +3912,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3924,31 +3945,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>232</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3957,31 +3978,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3990,31 +4011,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>173</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4023,31 +4044,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>170</v>
+        <v>238</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>171</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4056,31 +4077,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4089,31 +4110,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>103</v>
+        <v>180</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4122,31 +4143,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>244</v>
+        <v>177</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4162,24 +4183,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4188,31 +4209,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>109</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4221,31 +4242,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>65</v>
+        <v>251</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4254,7 +4275,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4267,15 +4288,15 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>212</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4294,24 +4315,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>122</v>
+        <v>257</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>123</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4320,7 +4341,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4333,15 +4354,15 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>173</v>
+        <v>72</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4353,31 +4374,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>96</v>
+        <v>262</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>50</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4386,31 +4407,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>128</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4419,7 +4440,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4432,18 +4453,18 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>50</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4452,31 +4473,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>212</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4485,31 +4506,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>265</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4518,31 +4539,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4551,31 +4572,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>269</v>
+        <v>61</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>208</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>139</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4584,31 +4605,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>145</v>
+        <v>272</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>186</v>
+        <v>257</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4624,21 +4645,21 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>275</v>
+        <v>38</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>109</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4650,31 +4671,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>30</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4683,28 +4704,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>193</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>107</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4716,28 +4737,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>41</v>
+        <v>282</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4749,31 +4770,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>41</v>
+        <v>286</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4782,31 +4803,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>292</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>293</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4815,31 +4836,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4848,31 +4869,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>298</v>
+        <v>17</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>145</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4881,31 +4902,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>300</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4914,31 +4935,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>305</v>
+        <v>17</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4947,31 +4968,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>145</v>
+        <v>305</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>151</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4980,28 +5001,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -5013,31 +5034,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>99</v>
+        <v>312</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5046,28 +5067,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>314</v>
+        <v>151</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5079,28 +5100,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5119,21 +5140,21 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>276</v>
+        <v>318</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5145,28 +5166,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>41</v>
+        <v>321</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>221</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5178,28 +5199,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>312</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5211,28 +5232,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>71</v>
+        <v>283</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>72</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5244,28 +5265,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>28</v>
+        <v>287</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>39</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5277,66 +5298,165 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>314</v>
+        <v>61</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>221</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
-      <c r="P119" s="13">
-        <v>6195.8850000000002</v>
-      </c>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="14">
-        <v>323</v>
-      </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c t="s" r="G120" s="15">
-        <v>324</v>
-      </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c t="s" r="K120" s="17">
-        <v>325</v>
-      </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>327</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>17</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>13</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>78</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>328</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>17</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>13</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>36</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>329</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>321</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>13</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>287</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>6895.8850000000002</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
+        <v>330</v>
+      </c>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
+        <v>331</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>332</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="572">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5905,10 +6025,25 @@
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
     <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -437,6 +437,15 @@
     <t>17.0000</t>
   </si>
   <si>
+    <t>FLUCA EYE SUSP. DROP 5 ML</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
   </si>
   <si>
@@ -599,6 +608,9 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>LUBRIVISC 0.1% EYE DROPS 10 ML</t>
+  </si>
+  <si>
     <t>MILGA ADVANCE 30 F.C. TABS</t>
   </si>
   <si>
@@ -992,6 +1004,15 @@
     <t>ماء اكسجين 20</t>
   </si>
   <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t>محلول خليط</t>
   </si>
   <si>
@@ -1001,7 +1022,7 @@
     <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 8:18 PM</t>
+    <t>Wednesday, 27 August, 2025 8:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2896,7 +2917,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2913,7 +2934,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>145</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2922,14 +2943,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2939,14 +2960,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2955,28 +2976,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2995,21 +3016,21 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -3021,14 +3042,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3061,7 +3082,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3071,14 +3092,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3087,7 +3108,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3104,11 +3125,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>28</v>
@@ -3127,13 +3148,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -3144,7 +3165,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3160,7 +3181,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3170,11 +3191,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3186,7 +3207,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3199,11 +3220,11 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3226,7 +3247,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3265,15 +3286,15 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3285,7 +3306,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3298,15 +3319,15 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3358,7 +3379,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3375,7 +3396,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3401,14 +3422,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3417,7 +3438,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3434,7 +3455,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3457,7 +3478,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3474,7 +3495,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3490,7 +3511,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>191</v>
+        <v>28</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3500,11 +3521,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>116</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>117</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>28</v>
@@ -3516,14 +3537,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3533,14 +3554,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>195</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3549,14 +3570,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3566,14 +3587,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q65" s="12">
         <v>198</v>
-      </c>
-      <c t="s" r="Q65" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3599,11 +3620,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>137</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3615,14 +3636,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3632,11 +3653,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>28</v>
@@ -3648,14 +3669,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3665,14 +3686,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3681,14 +3702,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3698,14 +3719,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3714,14 +3735,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3731,11 +3752,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>28</v>
@@ -3747,7 +3768,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3764,11 +3785,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3780,14 +3801,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3797,11 +3818,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>28</v>
@@ -3813,14 +3834,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3830,14 +3851,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3846,14 +3867,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3863,14 +3884,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3879,14 +3900,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3896,11 +3917,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>28</v>
@@ -3912,7 +3933,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3929,14 +3950,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3945,14 +3966,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>230</v>
+        <v>43</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3962,11 +3983,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>47</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>28</v>
@@ -3978,14 +3999,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3995,11 +4016,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>28</v>
@@ -4011,14 +4032,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>43</v>
+        <v>234</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4028,11 +4049,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>170</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>28</v>
@@ -4044,14 +4065,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4061,11 +4082,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>28</v>
@@ -4077,14 +4098,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4094,14 +4115,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4110,14 +4131,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4127,14 +4148,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>180</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4143,14 +4164,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4160,11 +4181,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>177</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>178</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4176,14 +4197,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4193,14 +4214,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>183</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4209,14 +4230,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4226,14 +4247,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4249,7 +4270,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4259,11 +4280,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>28</v>
@@ -4275,14 +4296,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4292,14 +4313,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>254</v>
+        <v>109</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4308,14 +4329,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4325,14 +4346,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4341,7 +4362,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4358,11 +4379,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>72</v>
+        <v>258</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4374,14 +4395,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4391,14 +4412,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4414,7 +4435,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4424,11 +4445,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>129</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4440,7 +4461,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4457,11 +4478,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>180</v>
+        <v>266</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4473,14 +4494,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4490,14 +4511,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4506,7 +4527,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4523,14 +4544,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>183</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4546,7 +4567,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4579,7 +4600,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4589,14 +4610,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>208</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>219</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4605,14 +4626,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4622,11 +4643,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>257</v>
+        <v>102</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>28</v>
@@ -4645,7 +4666,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4655,14 +4676,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>109</v>
+        <v>212</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>110</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4688,14 +4709,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>145</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4704,14 +4725,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4721,11 +4742,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>193</v>
+        <v>109</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4737,31 +4758,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4770,31 +4791,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>286</v>
+        <v>154</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>196</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4803,14 +4824,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>151</v>
+        <v>286</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4820,11 +4841,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>113</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4836,14 +4857,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4853,14 +4874,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4869,14 +4890,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4886,14 +4907,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4902,7 +4923,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4919,14 +4940,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>300</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4935,7 +4956,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4952,11 +4973,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>35</v>
@@ -4968,14 +4989,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>305</v>
+        <v>17</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4985,14 +5006,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>151</v>
+        <v>304</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5001,14 +5022,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5018,14 +5039,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5034,14 +5055,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5051,14 +5072,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>38</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5067,14 +5088,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5084,11 +5105,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5100,14 +5121,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>105</v>
+        <v>316</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5117,14 +5138,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5133,14 +5154,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5150,11 +5171,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5173,7 +5194,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>321</v>
+        <v>105</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5183,11 +5204,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5199,14 +5220,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5216,11 +5237,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5239,7 +5260,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>17</v>
+        <v>325</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5249,11 +5270,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5265,14 +5286,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5282,11 +5303,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5298,14 +5319,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5315,11 +5336,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5331,7 +5352,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5348,11 +5369,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>78</v>
+        <v>291</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5364,14 +5385,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5381,11 +5402,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>36</v>
+        <v>322</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>47</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5397,14 +5418,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>321</v>
+        <v>17</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5414,49 +5435,148 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>287</v>
+        <v>332</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>228</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
-      <c r="P122" s="13">
-        <v>6895.8850000000002</v>
-      </c>
-      <c r="Q122" s="13"/>
-    </row>
-    <row r="123" ht="16.5" customHeight="1">
-      <c t="s" r="A123" s="14">
-        <v>330</v>
-      </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c t="s" r="G123" s="15">
-        <v>331</v>
-      </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="16"/>
-      <c t="s" r="K123" s="17">
-        <v>332</v>
-      </c>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>334</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>17</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>13</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>78</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>335</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>17</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>13</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>36</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>336</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>325</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>13</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>291</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="P125" s="13">
+        <v>7001.8850000000002</v>
+      </c>
+      <c r="Q125" s="13"/>
+    </row>
+    <row r="126" ht="16.5" customHeight="1">
+      <c t="s" r="A126" s="14">
+        <v>337</v>
+      </c>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c t="s" r="G126" s="15">
+        <v>338</v>
+      </c>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="16"/>
+      <c t="s" r="K126" s="17">
+        <v>339</v>
+      </c>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
+      <c r="N126" s="17"/>
+      <c r="O126" s="17"/>
+      <c r="P126" s="17"/>
+      <c r="Q126" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="587">
+  <mergeCells count="602">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6040,10 +6160,25 @@
     <mergeCell ref="H121:K121"/>
     <mergeCell ref="L121:M121"/>
     <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="P125:Q125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="K126:Q126"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -233,6 +233,15 @@
     <t>19.2000</t>
   </si>
   <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>CLARITINE 10MG 20 TAB.</t>
   </si>
   <si>
@@ -314,9 +323,6 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -365,6 +371,12 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>DOLO-D 20 TAB.</t>
+  </si>
+  <si>
+    <t>12.5000</t>
+  </si>
+  <si>
     <t>DROSSA NOSA GEL</t>
   </si>
   <si>
@@ -909,9 +921,6 @@
   </si>
   <si>
     <t>4.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -2224,7 +2233,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2234,7 +2243,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -2257,7 +2266,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2274,7 +2283,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2290,7 +2299,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2307,7 +2316,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2340,7 +2349,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2356,7 +2365,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2366,14 +2375,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2382,14 +2391,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2422,13 +2431,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2439,7 +2448,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2455,13 +2464,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2472,7 +2481,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>99</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2481,14 +2490,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2498,14 +2507,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>50</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2514,14 +2523,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2531,14 +2540,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2547,14 +2556,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2564,11 +2573,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2580,14 +2589,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2597,14 +2606,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2613,14 +2622,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2630,11 +2639,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>28</v>
@@ -2646,31 +2655,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2679,28 +2688,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>28</v>
@@ -2712,31 +2721,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2745,31 +2754,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2778,14 +2787,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2795,11 +2804,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>50</v>
@@ -2811,14 +2820,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2828,11 +2837,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2844,14 +2853,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2861,14 +2870,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2877,14 +2886,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2894,14 +2903,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2910,14 +2919,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2927,11 +2936,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2943,14 +2952,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2960,14 +2969,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>148</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2976,7 +2985,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2993,11 +3002,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -3009,31 +3018,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>152</v>
-      </c>
-      <c t="s" r="Q48" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3049,7 +3058,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3059,11 +3068,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -3075,28 +3084,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -3108,14 +3117,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3125,14 +3134,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3148,7 +3157,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3165,7 +3174,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3181,24 +3190,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3207,31 +3216,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3240,28 +3249,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3273,28 +3282,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3306,28 +3315,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3385,15 +3394,15 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3405,14 +3414,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3422,14 +3431,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3438,14 +3447,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3455,11 +3464,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3471,7 +3480,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3488,14 +3497,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3504,14 +3513,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3521,14 +3530,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>62</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3537,14 +3546,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3554,14 +3563,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3570,14 +3579,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3587,14 +3596,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>198</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3603,14 +3612,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3620,14 +3629,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3636,14 +3645,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3653,14 +3662,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q67" s="12">
         <v>202</v>
-      </c>
-      <c t="s" r="Q67" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3686,11 +3695,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>141</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3702,14 +3711,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3719,11 +3728,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>28</v>
@@ -3735,14 +3744,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3752,14 +3761,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>107</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3768,14 +3777,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3785,14 +3794,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3801,14 +3810,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3818,11 +3827,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>28</v>
@@ -3834,7 +3843,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3851,11 +3860,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3867,14 +3876,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3884,11 +3893,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>28</v>
@@ -3900,14 +3909,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3917,14 +3926,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3933,14 +3942,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3950,14 +3959,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3966,14 +3975,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3983,11 +3992,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>28</v>
@@ -3999,7 +4008,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4016,14 +4025,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4032,14 +4041,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>234</v>
+        <v>43</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4049,11 +4058,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>170</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>47</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>28</v>
@@ -4065,14 +4074,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4082,11 +4091,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>28</v>
@@ -4098,14 +4107,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>43</v>
+        <v>238</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4115,11 +4124,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>174</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>28</v>
@@ -4131,14 +4140,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4148,11 +4157,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>28</v>
@@ -4164,14 +4173,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4181,14 +4190,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4197,14 +4206,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4214,14 +4223,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>183</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4230,14 +4239,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4247,11 +4256,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>180</v>
+        <v>249</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>181</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4263,14 +4272,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4280,14 +4289,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>187</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4296,14 +4305,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4313,14 +4322,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4336,7 +4345,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4346,11 +4355,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>28</v>
@@ -4362,14 +4371,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4379,14 +4388,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>258</v>
+        <v>111</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4395,14 +4404,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4412,14 +4421,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4428,7 +4437,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4445,11 +4454,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>72</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4461,14 +4470,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4478,14 +4487,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4501,7 +4510,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4511,11 +4520,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>129</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4527,7 +4536,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4544,11 +4553,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>183</v>
+        <v>270</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4560,14 +4569,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4577,14 +4586,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4593,7 +4602,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4610,14 +4619,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>187</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4633,7 +4642,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4643,7 +4652,7 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
@@ -4666,7 +4675,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4676,14 +4685,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>212</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4692,14 +4701,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4709,11 +4718,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>261</v>
+        <v>104</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>28</v>
@@ -4732,7 +4741,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4742,14 +4751,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>109</v>
+        <v>216</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>110</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4775,14 +4784,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>148</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4791,14 +4800,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4808,11 +4817,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4824,31 +4833,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4857,31 +4866,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>290</v>
+        <v>158</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>200</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4890,14 +4899,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>154</v>
+        <v>290</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4907,11 +4916,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>113</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4923,14 +4932,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>17</v>
+        <v>294</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4940,14 +4949,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4956,14 +4965,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4973,14 +4982,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>300</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4989,7 +4998,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5006,14 +5015,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>304</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5022,7 +5031,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5039,11 +5048,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>307</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>35</v>
@@ -5055,14 +5064,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>309</v>
+        <v>17</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5072,14 +5081,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>154</v>
+        <v>307</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5088,14 +5097,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5105,14 +5114,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5121,14 +5130,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5138,14 +5147,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>38</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5154,14 +5163,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5171,11 +5180,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5187,14 +5196,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>105</v>
+        <v>319</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5204,14 +5213,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5220,14 +5229,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5237,11 +5246,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5253,14 +5262,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>325</v>
+        <v>107</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5270,11 +5279,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5286,14 +5295,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5303,11 +5312,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>76</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5319,14 +5328,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>17</v>
+        <v>328</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5336,11 +5345,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5359,7 +5368,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5369,11 +5378,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5385,14 +5394,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5402,11 +5411,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5418,7 +5427,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5435,11 +5444,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>333</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5451,14 +5460,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5468,11 +5477,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>78</v>
+        <v>325</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>79</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5484,7 +5493,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5501,11 +5510,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>36</v>
+        <v>335</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>47</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5517,14 +5526,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>325</v>
+        <v>17</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5534,49 +5543,115 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>291</v>
+        <v>81</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>232</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
-      <c r="P125" s="13">
-        <v>7001.8850000000002</v>
-      </c>
-      <c r="Q125" s="13"/>
-    </row>
-    <row r="126" ht="16.5" customHeight="1">
-      <c t="s" r="A126" s="14">
-        <v>337</v>
-      </c>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c t="s" r="G126" s="15">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
         <v>338</v>
       </c>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="16"/>
-      <c t="s" r="K126" s="17">
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>17</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>13</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>36</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
         <v>339</v>
       </c>
-      <c r="L126" s="17"/>
-      <c r="M126" s="17"/>
-      <c r="N126" s="17"/>
-      <c r="O126" s="17"/>
-      <c r="P126" s="17"/>
-      <c r="Q126" s="17"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>328</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>13</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>295</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>236</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="P127" s="13">
+        <v>7026.3850000000002</v>
+      </c>
+      <c r="Q127" s="13"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c t="s" r="A128" s="14">
+        <v>340</v>
+      </c>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c t="s" r="G128" s="15">
+        <v>341</v>
+      </c>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c t="s" r="K128" s="17">
+        <v>342</v>
+      </c>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="602">
+  <mergeCells count="612">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6175,10 +6250,20 @@
     <mergeCell ref="H124:K124"/>
     <mergeCell ref="L124:M124"/>
     <mergeCell ref="N124:O124"/>
-    <mergeCell ref="P125:Q125"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="K126:Q126"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="K128:Q128"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -1031,7 +1031,7 @@
     <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 8:22 PM</t>
+    <t>Wednesday, 27 August, 2025 8:25 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -404,6 +404,15 @@
     <t>108.9000</t>
   </si>
   <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
     <t>EXTRAUMA DNA CREAM 25 GM</t>
   </si>
   <si>
@@ -1031,7 +1040,7 @@
     <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 8:25 PM</t>
+    <t>Wednesday, 27 August, 2025 8:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2827,7 +2836,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2844,7 +2853,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2860,7 +2869,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2870,14 +2879,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2893,7 +2902,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2903,14 +2912,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2926,7 +2935,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2959,7 +2968,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2976,7 +2985,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2992,7 +3001,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3009,7 +3018,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3025,7 +3034,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3042,7 +3051,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>152</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3051,14 +3060,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3068,14 +3077,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3084,28 +3093,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -3124,21 +3133,21 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -3150,14 +3159,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3190,7 +3199,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3200,14 +3209,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3216,7 +3225,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3233,11 +3242,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>40</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>28</v>
@@ -3256,13 +3265,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3273,7 +3282,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3289,7 +3298,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3299,11 +3308,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3315,7 +3324,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3328,11 +3337,11 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3355,7 +3364,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3394,15 +3403,15 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3414,7 +3423,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3427,15 +3436,15 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3487,7 +3496,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3504,7 +3513,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3530,14 +3539,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>62</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3546,7 +3555,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3563,7 +3572,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>62</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3586,7 +3595,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3603,7 +3612,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3619,7 +3628,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>198</v>
+        <v>28</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3629,11 +3638,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>119</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>28</v>
@@ -3645,14 +3654,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3662,14 +3671,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>118</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>202</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3678,7 +3687,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3695,14 +3704,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3711,14 +3720,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3728,14 +3737,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3751,7 +3760,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3768,7 +3777,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3801,7 +3810,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3817,7 +3826,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3831,7 +3840,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>109</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>28</v>
@@ -3843,14 +3852,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3860,14 +3869,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3883,7 +3892,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3897,10 +3906,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>139</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3909,14 +3918,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3926,14 +3935,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3949,7 +3958,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>198</v>
+        <v>17</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3963,10 +3972,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>109</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3975,14 +3984,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>28</v>
+        <v>201</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3992,11 +4001,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>28</v>
@@ -4015,7 +4024,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4032,7 +4041,7 @@
         <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4048,7 +4057,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4065,7 +4074,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4081,7 +4090,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4114,7 +4123,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>238</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4124,11 +4133,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>174</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>47</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>28</v>
@@ -4140,14 +4149,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>43</v>
+        <v>241</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4157,11 +4166,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>177</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>28</v>
@@ -4213,7 +4222,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4246,7 +4255,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4263,7 +4272,7 @@
         <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4279,7 +4288,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4289,11 +4298,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>187</v>
+        <v>252</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4305,14 +4314,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4322,11 +4331,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>185</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4338,14 +4347,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4355,14 +4364,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>243</v>
+        <v>187</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4371,14 +4380,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4388,11 +4397,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>111</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>28</v>
@@ -4404,14 +4413,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4421,7 +4430,7 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>111</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
@@ -4444,7 +4453,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4461,7 +4470,7 @@
         <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4477,7 +4486,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4494,7 +4503,7 @@
         <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4510,7 +4519,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4520,14 +4529,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>72</v>
+        <v>268</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4536,7 +4545,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4553,11 +4562,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>270</v>
+        <v>72</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>227</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4569,14 +4578,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4586,11 +4595,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>132</v>
+        <v>273</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>133</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4602,14 +4611,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4619,11 +4628,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>187</v>
+        <v>135</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>252</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4635,14 +4644,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4652,14 +4661,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>57</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4668,14 +4677,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4685,11 +4694,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>104</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>28</v>
@@ -4718,11 +4727,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>104</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>57</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>28</v>
@@ -4734,14 +4743,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4751,14 +4760,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>216</v>
+        <v>104</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>227</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4767,14 +4776,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>280</v>
+        <v>61</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4784,14 +4793,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4807,7 +4816,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>38</v>
+        <v>283</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4817,14 +4826,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>111</v>
+        <v>268</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>112</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4833,14 +4842,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>284</v>
+        <v>38</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4850,14 +4859,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>285</v>
+        <v>111</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>152</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4866,14 +4875,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>158</v>
+        <v>287</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4883,14 +4892,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>155</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4899,28 +4908,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>290</v>
+        <v>161</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>291</v>
+        <v>203</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4932,14 +4941,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4949,14 +4958,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4965,14 +4974,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4986,10 +4995,10 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>115</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4998,14 +5007,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5015,11 +5024,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>301</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -5052,10 +5061,10 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5064,7 +5073,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5081,14 +5090,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>306</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>307</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5097,7 +5106,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5114,14 +5123,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
+        <v>309</v>
+      </c>
+      <c t="s" r="Q111" s="12">
         <v>310</v>
-      </c>
-      <c t="s" r="Q111" s="12">
-        <v>35</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5137,7 +5146,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>312</v>
+        <v>17</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5147,14 +5156,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>158</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5163,14 +5172,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>315</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5187,7 +5196,7 @@
         <v>317</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5203,7 +5212,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>319</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5213,14 +5222,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5229,14 +5238,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>158</v>
+        <v>322</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5246,14 +5255,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5262,14 +5271,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5279,11 +5288,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5295,7 +5304,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5312,11 +5321,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5335,7 +5344,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>328</v>
+        <v>107</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5345,11 +5354,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5361,14 +5370,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>61</v>
+        <v>331</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5378,11 +5387,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5394,14 +5403,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5411,11 +5420,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5427,7 +5436,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5444,11 +5453,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>236</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5460,14 +5469,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5477,11 +5486,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>326</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5493,14 +5502,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5510,11 +5519,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5543,11 +5552,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>81</v>
+        <v>338</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>82</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5559,7 +5568,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5576,11 +5585,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>12</v>
@@ -5592,14 +5601,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>328</v>
+        <v>17</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5609,49 +5618,82 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>295</v>
+        <v>36</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>236</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
-      <c r="P127" s="13">
-        <v>7026.3850000000002</v>
-      </c>
-      <c r="Q127" s="13"/>
-    </row>
-    <row r="128" ht="16.5" customHeight="1">
-      <c t="s" r="A128" s="14">
-        <v>340</v>
-      </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c t="s" r="G128" s="15">
-        <v>341</v>
-      </c>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="16"/>
-      <c t="s" r="K128" s="17">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
         <v>342</v>
       </c>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="17"/>
-      <c r="O128" s="17"/>
-      <c r="P128" s="17"/>
-      <c r="Q128" s="17"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>331</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>13</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>298</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="P128" s="13">
+        <v>7064.9949999999999</v>
+      </c>
+      <c r="Q128" s="13"/>
+    </row>
+    <row r="129" ht="16.5" customHeight="1">
+      <c t="s" r="A129" s="14">
+        <v>343</v>
+      </c>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c t="s" r="G129" s="15">
+        <v>344</v>
+      </c>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c t="s" r="K129" s="17">
+        <v>345</v>
+      </c>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="612">
+  <mergeCells count="617">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6260,10 +6302,15 @@
     <mergeCell ref="H126:K126"/>
     <mergeCell ref="L126:M126"/>
     <mergeCell ref="N126:O126"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="K129:Q129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -155,6 +155,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>AUGMENTIN ES-600 PD. FOR ORAL SUSP. 75 ML</t>
+  </si>
+  <si>
+    <t>169.00</t>
+  </si>
+  <si>
+    <t>169.0000</t>
+  </si>
+  <si>
     <t>AVEROTHIAZIDE 5/20/12.5MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -185,6 +194,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
@@ -881,6 +899,18 @@
     <t>50.4900</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8359:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -935,9 +965,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>46.0000</t>
   </si>
   <si>
@@ -1040,7 +1067,7 @@
     <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 8:30 PM</t>
+    <t>Wednesday, 27 August, 2025 8:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1978,7 +2005,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1988,14 +2015,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2011,7 +2038,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2021,14 +2048,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>53</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2044,7 +2071,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2054,14 +2081,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2070,14 +2097,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2087,14 +2114,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2103,14 +2130,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2127,7 +2154,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2143,7 +2170,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2153,11 +2180,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>28</v>
@@ -2169,14 +2196,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2193,7 +2220,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2209,7 +2236,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2219,11 +2246,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>28</v>
@@ -2235,14 +2262,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2252,11 +2279,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>28</v>
@@ -2268,14 +2295,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2308,7 +2335,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2318,14 +2345,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2341,7 +2368,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2358,7 +2385,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2374,7 +2401,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2391,7 +2418,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2407,7 +2434,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2417,14 +2444,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2433,14 +2460,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2450,14 +2477,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2466,20 +2493,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2490,7 +2517,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2523,7 +2550,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2532,31 +2559,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2565,14 +2592,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2582,14 +2609,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2598,14 +2625,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2615,14 +2642,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2631,14 +2658,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2655,7 +2682,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2671,7 +2698,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2681,14 +2708,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2697,14 +2724,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2714,7 +2741,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2737,24 +2764,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2763,24 +2790,24 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2803,13 +2830,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2820,7 +2847,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2836,13 +2863,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2869,7 +2896,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2886,7 +2913,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2902,7 +2929,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2912,14 +2939,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2935,7 +2962,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2968,7 +2995,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2978,14 +3005,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3001,7 +3028,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3018,7 +3045,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3034,7 +3061,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3067,7 +3094,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3084,7 +3111,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>155</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3093,7 +3120,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3110,11 +3137,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -3126,31 +3153,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3159,14 +3186,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3176,11 +3203,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3192,28 +3219,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3225,14 +3252,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3242,14 +3269,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3258,14 +3285,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3275,14 +3302,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3291,31 +3318,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3331,24 +3358,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3357,28 +3384,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3390,24 +3417,24 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3430,21 +3457,21 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3456,7 +3483,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3473,11 +3500,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3489,7 +3516,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3502,15 +3529,15 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>135</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3529,7 +3556,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3546,7 +3573,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3562,7 +3589,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3572,11 +3599,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>62</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3588,7 +3615,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3605,14 +3632,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3621,14 +3648,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3638,14 +3665,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>68</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3661,7 +3688,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3671,14 +3698,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>118</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>119</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3687,14 +3714,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3704,14 +3731,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>205</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3727,7 +3754,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3737,14 +3764,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3753,14 +3780,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3770,14 +3797,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>28</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3786,7 +3813,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3803,11 +3830,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>150</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3826,7 +3853,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3859,7 +3886,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3873,10 +3900,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>109</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3885,14 +3912,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3902,14 +3929,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3918,14 +3945,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3935,11 +3962,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>28</v>
@@ -3951,7 +3978,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3968,11 +3995,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3984,14 +4011,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4001,11 +4028,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>28</v>
@@ -4017,14 +4044,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4034,14 +4061,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4050,14 +4077,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4067,14 +4094,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4090,7 +4117,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4140,7 +4167,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4156,7 +4183,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>241</v>
+        <v>43</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4166,11 +4193,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>47</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>28</v>
@@ -4182,14 +4209,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4199,11 +4226,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>28</v>
@@ -4215,14 +4242,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>43</v>
+        <v>247</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4232,11 +4259,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>183</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>28</v>
@@ -4255,7 +4282,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4288,7 +4315,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4305,7 +4332,7 @@
         <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4321,7 +4348,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4331,14 +4358,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>190</v>
+        <v>255</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4347,14 +4374,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4364,11 +4391,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>187</v>
+        <v>258</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>188</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4380,14 +4407,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4397,14 +4424,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>196</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4413,14 +4440,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4430,14 +4457,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>111</v>
+        <v>193</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4446,14 +4473,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4463,11 +4490,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>28</v>
@@ -4479,14 +4506,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4496,14 +4523,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>117</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4519,7 +4546,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4536,7 +4563,7 @@
         <v>269</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4562,11 +4589,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>72</v>
+        <v>271</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4578,14 +4605,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4595,14 +4622,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>230</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4611,14 +4638,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4628,11 +4655,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>136</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4644,7 +4671,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4661,11 +4688,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>190</v>
+        <v>279</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4677,14 +4704,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4694,14 +4721,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4710,7 +4737,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4727,14 +4754,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>196</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4743,14 +4770,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4760,11 +4787,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>28</v>
@@ -4776,14 +4803,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4793,14 +4820,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>219</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>230</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4809,14 +4836,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>283</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4826,11 +4853,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>268</v>
+        <v>110</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>28</v>
@@ -4842,14 +4869,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4859,14 +4886,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>111</v>
+        <v>225</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4875,14 +4902,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4892,14 +4919,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>155</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4908,14 +4935,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>161</v>
+        <v>38</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4925,11 +4952,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>203</v>
+        <v>117</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4954,7 +4981,7 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
@@ -4965,7 +4992,7 @@
         <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4987,7 +5014,7 @@
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
@@ -5014,21 +5041,21 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>301</v>
+        <v>209</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>115</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -5047,7 +5074,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>17</v>
+        <v>303</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5057,11 +5084,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -5073,14 +5100,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>17</v>
+        <v>307</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5090,14 +5117,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>76</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5106,14 +5133,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5123,14 +5150,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>309</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>310</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5139,7 +5166,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5156,14 +5183,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5172,14 +5199,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>315</v>
+        <v>17</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5193,10 +5220,10 @@
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>317</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>161</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5205,14 +5232,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5222,14 +5249,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>319</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5238,14 +5265,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>322</v>
+        <v>17</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5255,14 +5282,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5271,14 +5298,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>161</v>
+        <v>324</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5288,14 +5315,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>12</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5304,14 +5331,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5321,11 +5348,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5337,14 +5364,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>107</v>
+        <v>331</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5354,14 +5381,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5370,14 +5397,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>331</v>
+        <v>167</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5387,11 +5414,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5403,14 +5430,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5420,11 +5447,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5436,14 +5463,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5453,11 +5480,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>294</v>
+        <v>337</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>295</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5469,14 +5496,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>17</v>
+        <v>340</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5486,11 +5513,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>239</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5502,14 +5529,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5519,11 +5546,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>329</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5535,7 +5562,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5552,11 +5579,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5568,7 +5595,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5585,11 +5612,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>81</v>
+        <v>308</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>12</v>
@@ -5601,14 +5628,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5618,11 +5645,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>36</v>
+        <v>337</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>47</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5634,14 +5661,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>331</v>
+        <v>17</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5651,49 +5678,148 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>298</v>
+        <v>347</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>239</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
-      <c r="P128" s="13">
-        <v>7064.9949999999999</v>
-      </c>
-      <c r="Q128" s="13"/>
-    </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c t="s" r="A129" s="14">
-        <v>343</v>
-      </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c t="s" r="G129" s="15">
-        <v>344</v>
-      </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="16"/>
-      <c t="s" r="K129" s="17">
-        <v>345</v>
-      </c>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>349</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>17</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>13</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>87</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>350</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>17</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>13</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>36</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>351</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>340</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>13</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>308</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>245</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="P131" s="13">
+        <v>7281.9949999999999</v>
+      </c>
+      <c r="Q131" s="13"/>
+    </row>
+    <row r="132" ht="16.5" customHeight="1">
+      <c t="s" r="A132" s="14">
+        <v>352</v>
+      </c>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c t="s" r="G132" s="15">
+        <v>353</v>
+      </c>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c t="s" r="K132" s="17">
+        <v>354</v>
+      </c>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="617">
+  <mergeCells count="632">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6307,10 +6433,25 @@
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="N127:O127"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="K132:Q132"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -338,6 +338,24 @@
     <t>1:3</t>
   </si>
   <si>
+    <t>DENTINOX 2.65% INFANT COLIC DROPS 100 ML</t>
+  </si>
+  <si>
+    <t>103.00</t>
+  </si>
+  <si>
+    <t>103.0000</t>
+  </si>
+  <si>
+    <t>DEXAFLOX EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -1067,7 +1085,7 @@
     <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 8:33 PM</t>
+    <t>Wednesday, 27 August, 2025 8:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2632,7 +2650,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2649,7 +2667,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2665,7 +2683,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2675,11 +2693,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2691,14 +2709,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2708,14 +2726,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2724,14 +2742,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2748,7 +2766,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2764,7 +2782,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2774,14 +2792,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2790,14 +2808,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2807,7 +2825,7 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2830,24 +2848,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2856,24 +2874,24 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2896,13 +2914,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2913,7 +2931,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2935,7 +2953,7 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2962,7 +2980,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2979,7 +2997,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2995,7 +3013,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3005,14 +3023,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3028,7 +3046,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3061,7 +3079,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3071,14 +3089,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3094,7 +3112,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3111,7 +3129,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3127,7 +3145,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3160,7 +3178,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3177,7 +3195,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>161</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3186,7 +3204,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3203,11 +3221,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3219,31 +3237,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3252,14 +3270,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3269,11 +3287,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3285,28 +3303,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3318,14 +3336,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>30</v>
+        <v>173</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3335,14 +3353,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3351,14 +3369,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3368,14 +3386,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3384,31 +3402,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3424,24 +3442,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3450,28 +3468,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3483,24 +3501,24 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3523,21 +3541,21 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3549,7 +3567,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3566,11 +3584,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3582,7 +3600,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3595,15 +3613,15 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>141</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3622,7 +3640,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3639,7 +3657,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3655,7 +3673,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3665,11 +3683,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>68</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3681,7 +3699,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3698,14 +3716,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3714,14 +3732,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3731,14 +3749,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>68</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3754,7 +3772,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3764,14 +3782,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>124</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3780,14 +3798,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3797,14 +3815,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>211</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3820,7 +3838,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3830,14 +3848,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3846,14 +3864,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3863,14 +3881,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>28</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3879,7 +3897,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3896,11 +3914,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>156</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3919,7 +3937,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3952,7 +3970,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3966,10 +3984,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>115</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3978,14 +3996,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3995,14 +4013,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4011,14 +4029,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4028,11 +4046,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>28</v>
@@ -4044,7 +4062,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4061,11 +4079,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -4077,14 +4095,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4094,11 +4112,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>28</v>
@@ -4110,14 +4128,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4127,14 +4145,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4143,14 +4161,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4160,14 +4178,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4183,7 +4201,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4233,7 +4251,7 @@
         <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4249,7 +4267,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>247</v>
+        <v>43</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4259,11 +4277,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>183</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>47</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>28</v>
@@ -4275,14 +4293,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4292,11 +4310,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>28</v>
@@ -4308,14 +4326,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>43</v>
+        <v>253</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4325,11 +4343,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>252</v>
+        <v>189</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>253</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>28</v>
@@ -4348,7 +4366,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4381,7 +4399,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4398,7 +4416,7 @@
         <v>259</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4414,7 +4432,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4424,14 +4442,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>196</v>
+        <v>261</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4440,14 +4458,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4457,11 +4475,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>193</v>
+        <v>264</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>194</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4473,14 +4491,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4490,14 +4508,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>252</v>
+        <v>202</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4506,14 +4524,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4523,14 +4541,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>117</v>
+        <v>199</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4539,14 +4557,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4556,11 +4574,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>28</v>
@@ -4572,14 +4590,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4589,14 +4607,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>271</v>
+        <v>123</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>272</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4612,7 +4630,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4629,7 +4647,7 @@
         <v>275</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4655,11 +4673,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>78</v>
+        <v>277</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4671,14 +4689,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4688,14 +4706,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>236</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4704,14 +4722,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4721,11 +4739,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>142</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4737,7 +4755,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4754,11 +4772,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>196</v>
+        <v>285</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4770,14 +4788,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4787,14 +4805,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4803,7 +4821,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4820,14 +4838,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>202</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4836,14 +4854,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4853,7 +4871,7 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
@@ -4869,14 +4887,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4886,14 +4904,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>225</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4902,14 +4920,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>289</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4919,11 +4937,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>274</v>
+        <v>116</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>28</v>
@@ -4935,14 +4953,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4952,14 +4970,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>117</v>
+        <v>231</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>118</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4968,14 +4986,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4985,14 +5003,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>161</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5001,14 +5019,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>297</v>
+        <v>38</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5018,14 +5036,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>123</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5034,14 +5052,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>167</v>
+        <v>299</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5051,14 +5069,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>209</v>
+        <v>300</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
         <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5080,7 +5098,7 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
@@ -5091,7 +5109,7 @@
         <v>305</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5107,24 +5125,24 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>307</v>
+        <v>173</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>308</v>
+        <v>215</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5133,14 +5151,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>167</v>
+        <v>309</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5150,11 +5168,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>121</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5173,7 +5191,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5183,14 +5201,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5199,14 +5217,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5216,14 +5234,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5232,7 +5250,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5249,14 +5267,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>319</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5265,7 +5283,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5282,11 +5300,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>322</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>35</v>
@@ -5305,7 +5323,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>324</v>
+        <v>17</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5315,14 +5333,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>167</v>
+        <v>325</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5331,14 +5349,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5348,14 +5366,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5364,14 +5382,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5381,14 +5399,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>38</v>
+        <v>173</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5397,14 +5415,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5414,11 +5432,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5430,14 +5448,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>113</v>
+        <v>337</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5447,14 +5465,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5463,14 +5481,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5480,11 +5498,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5496,14 +5514,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>340</v>
+        <v>119</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5513,11 +5531,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5529,14 +5547,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5546,11 +5564,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>85</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5562,14 +5580,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>17</v>
+        <v>346</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5579,11 +5597,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5595,14 +5613,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5612,11 +5630,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>245</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>12</v>
@@ -5628,14 +5646,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5645,11 +5663,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5661,7 +5679,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5678,11 +5696,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>348</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5694,14 +5712,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5711,11 +5729,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>87</v>
+        <v>343</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>88</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>12</v>
@@ -5727,7 +5745,7 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -5744,11 +5762,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>36</v>
+        <v>353</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>47</v>
+        <v>354</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>12</v>
@@ -5760,14 +5778,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>340</v>
+        <v>17</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5777,49 +5795,115 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>308</v>
+        <v>87</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>245</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
-      <c r="P131" s="13">
-        <v>7281.9949999999999</v>
-      </c>
-      <c r="Q131" s="13"/>
-    </row>
-    <row r="132" ht="16.5" customHeight="1">
-      <c t="s" r="A132" s="14">
-        <v>352</v>
-      </c>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c t="s" r="G132" s="15">
-        <v>353</v>
-      </c>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="16"/>
-      <c t="s" r="K132" s="17">
-        <v>354</v>
-      </c>
-      <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
-      <c r="N132" s="17"/>
-      <c r="O132" s="17"/>
-      <c r="P132" s="17"/>
-      <c r="Q132" s="17"/>
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>356</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>17</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>13</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>36</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>357</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>346</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>13</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>314</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>251</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="P133" s="13">
+        <v>7437.9949999999999</v>
+      </c>
+      <c r="Q133" s="13"/>
+    </row>
+    <row r="134" ht="16.5" customHeight="1">
+      <c t="s" r="A134" s="14">
+        <v>358</v>
+      </c>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c t="s" r="G134" s="15">
+        <v>359</v>
+      </c>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c t="s" r="K134" s="17">
+        <v>360</v>
+      </c>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="632">
+  <mergeCells count="642">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6448,10 +6532,20 @@
     <mergeCell ref="H130:K130"/>
     <mergeCell ref="L130:M130"/>
     <mergeCell ref="N130:O130"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="K132:Q132"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="K134:Q134"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -74,6 +74,21 @@
     <t>290.0000</t>
   </si>
   <si>
+    <t>AMBEZIM-G 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AMRIZOLE 500 MG 20 TABS.</t>
   </si>
   <si>
@@ -95,9 +110,6 @@
     <t>36.6300</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -194,6 +206,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
+  </si>
+  <si>
+    <t>30.50</t>
+  </si>
+  <si>
+    <t>30.5000</t>
+  </si>
+  <si>
     <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
   </si>
   <si>
@@ -254,9 +275,6 @@
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>12.0000</t>
   </si>
   <si>
@@ -269,6 +287,15 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
     <t>CODILAR SYRUP 120 ML</t>
   </si>
   <si>
@@ -1085,7 +1112,7 @@
     <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 8:39 PM</t>
+    <t>Wednesday, 27 August, 2025 8:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1792,7 +1819,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1802,14 +1829,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1818,14 +1845,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1835,14 +1862,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1875,7 +1902,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1884,14 +1911,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1901,14 +1928,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>37</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>38</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1917,14 +1944,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1941,7 +1968,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1950,14 +1977,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1974,7 +2001,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1990,7 +2017,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -2000,14 +2027,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -2016,14 +2043,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2033,11 +2060,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -2049,14 +2076,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2066,14 +2093,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2082,14 +2109,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2099,14 +2126,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2115,14 +2142,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2139,7 +2166,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2155,7 +2182,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2165,11 +2192,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -2181,31 +2208,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2214,14 +2241,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2231,14 +2258,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2247,14 +2274,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2264,14 +2291,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2287,7 +2314,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2297,14 +2324,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2313,14 +2340,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2337,7 +2364,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2353,7 +2380,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2363,14 +2390,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2386,7 +2413,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2396,14 +2423,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2412,14 +2439,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2429,14 +2456,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2452,7 +2479,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2469,7 +2496,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2485,7 +2512,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2502,7 +2529,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2518,7 +2545,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2528,11 +2555,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2544,14 +2571,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2561,14 +2588,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2577,31 +2604,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2610,14 +2637,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2634,7 +2661,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>108</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2643,7 +2670,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2660,11 +2687,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2676,31 +2703,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2709,14 +2736,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2726,14 +2753,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>117</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>53</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2749,7 +2776,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2759,11 +2786,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2775,14 +2802,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2792,11 +2819,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2808,14 +2835,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2825,14 +2852,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2841,14 +2868,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2858,14 +2885,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2874,14 +2901,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2891,14 +2918,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2914,13 +2941,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2931,7 +2958,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2947,24 +2974,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2973,14 +3000,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2990,14 +3017,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>53</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3013,13 +3040,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -3030,7 +3057,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3046,13 +3073,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -3063,7 +3090,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3079,7 +3106,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3089,14 +3116,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3112,7 +3139,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3129,7 +3156,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3145,7 +3172,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3178,7 +3205,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>159</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3188,14 +3215,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3244,7 +3271,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3261,7 +3288,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>167</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3270,14 +3297,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3287,14 +3314,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>124</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3303,28 +3330,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3336,14 +3363,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3360,7 +3387,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3369,14 +3396,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3386,11 +3413,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3402,31 +3429,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3435,14 +3462,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>30</v>
+        <v>182</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3452,14 +3479,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3468,28 +3495,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3501,31 +3528,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3534,14 +3561,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3551,14 +3578,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3567,7 +3594,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3580,15 +3607,15 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3600,14 +3627,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3617,11 +3644,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3633,14 +3660,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3650,11 +3677,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3666,7 +3693,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3683,11 +3710,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3699,31 +3726,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3739,7 +3766,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3749,11 +3776,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>68</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3765,14 +3792,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3782,11 +3809,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3798,14 +3825,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3815,14 +3842,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3831,14 +3858,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3848,14 +3875,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>131</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3864,7 +3891,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3881,14 +3908,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>217</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3904,7 +3931,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3914,14 +3941,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>156</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>157</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3930,14 +3957,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3947,14 +3974,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>139</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3963,7 +3990,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3980,14 +4007,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>226</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3996,7 +4023,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4013,14 +4040,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>165</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4036,7 +4063,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>38</v>
+        <v>222</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4050,10 +4077,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>121</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4062,14 +4089,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4079,11 +4106,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -4095,7 +4122,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4112,14 +4139,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>154</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4128,14 +4155,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4145,14 +4172,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4161,14 +4188,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>213</v>
+        <v>17</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4178,14 +4205,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>121</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4194,14 +4221,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4211,14 +4238,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4227,14 +4254,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4244,11 +4271,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4260,14 +4287,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>43</v>
+        <v>222</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4277,14 +4304,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4300,7 +4327,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4317,7 +4344,7 @@
         <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4333,7 +4360,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4343,14 +4370,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>189</v>
+        <v>253</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>47</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4359,14 +4386,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4376,14 +4403,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4392,14 +4419,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4409,14 +4436,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4425,14 +4452,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>28</v>
+        <v>262</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4442,14 +4469,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>261</v>
+        <v>198</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>262</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4465,7 +4492,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4482,7 +4509,7 @@
         <v>265</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4498,7 +4525,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4508,14 +4535,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>202</v>
+        <v>267</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4524,14 +4551,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4541,14 +4568,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>199</v>
+        <v>270</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4557,14 +4584,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4574,14 +4601,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4590,14 +4617,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4607,14 +4634,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>123</v>
+        <v>211</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4623,14 +4650,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4640,14 +4667,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>274</v>
+        <v>208</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>275</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4656,14 +4683,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4673,14 +4700,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4689,14 +4716,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4706,14 +4733,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>280</v>
+        <v>132</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>281</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4729,7 +4756,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4739,14 +4766,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>78</v>
+        <v>283</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4755,7 +4782,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4772,11 +4799,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>242</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4788,14 +4815,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4805,14 +4832,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>147</v>
+        <v>289</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>148</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4821,7 +4848,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4838,11 +4865,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4854,14 +4881,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4871,14 +4898,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>116</v>
+        <v>294</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>60</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4887,14 +4914,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4904,14 +4931,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>290</v>
+        <v>156</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4920,7 +4947,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4937,14 +4964,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>116</v>
+        <v>211</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>60</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4953,14 +4980,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4970,14 +4997,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>231</v>
+        <v>125</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>242</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4986,14 +5013,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>295</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5003,14 +5030,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5019,14 +5046,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5036,14 +5063,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5052,14 +5079,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>299</v>
+        <v>74</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5069,14 +5096,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>167</v>
+        <v>42</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5085,14 +5112,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5102,14 +5129,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
         <v>305</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5125,7 +5152,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5135,11 +5162,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>215</v>
+        <v>132</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>307</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5151,31 +5178,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>176</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5184,31 +5211,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5217,28 +5244,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>317</v>
+        <v>224</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>127</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5250,14 +5277,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>17</v>
+        <v>318</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5290,7 +5317,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5300,14 +5327,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>82</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5316,14 +5343,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5333,14 +5360,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>324</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>325</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5349,7 +5376,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5366,14 +5393,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5382,14 +5409,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>330</v>
+        <v>17</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5403,10 +5430,10 @@
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>332</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>173</v>
+        <v>39</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5415,14 +5442,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5432,14 +5459,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>12</v>
+        <v>334</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5448,14 +5475,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>337</v>
+        <v>17</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5465,14 +5492,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5481,14 +5508,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5498,14 +5525,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>12</v>
+        <v>182</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5514,14 +5541,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5531,11 +5558,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5547,14 +5574,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>119</v>
+        <v>346</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5564,14 +5591,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5580,14 +5607,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>346</v>
+        <v>182</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5597,11 +5624,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5613,14 +5640,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5630,11 +5657,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>85</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>12</v>
@@ -5646,14 +5673,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5663,11 +5690,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5679,14 +5706,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>17</v>
+        <v>355</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5696,11 +5723,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5712,14 +5739,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5729,11 +5756,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>344</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>12</v>
@@ -5745,7 +5772,7 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -5762,11 +5789,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>12</v>
@@ -5778,7 +5805,7 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -5795,11 +5822,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>87</v>
+        <v>323</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>88</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>12</v>
@@ -5811,14 +5838,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5828,11 +5855,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>47</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>12</v>
@@ -5844,14 +5871,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>346</v>
+        <v>17</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5861,49 +5888,148 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>314</v>
+        <v>362</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>251</v>
+        <v>363</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
-      <c r="P133" s="13">
-        <v>7437.9949999999999</v>
-      </c>
-      <c r="Q133" s="13"/>
-    </row>
-    <row r="134" ht="16.5" customHeight="1">
-      <c t="s" r="A134" s="14">
-        <v>358</v>
-      </c>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c t="s" r="G134" s="15">
-        <v>359</v>
-      </c>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="16"/>
-      <c t="s" r="K134" s="17">
-        <v>360</v>
-      </c>
-      <c r="L134" s="17"/>
-      <c r="M134" s="17"/>
-      <c r="N134" s="17"/>
-      <c r="O134" s="17"/>
-      <c r="P134" s="17"/>
-      <c r="Q134" s="17"/>
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>364</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>17</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>13</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>96</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>365</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>17</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>13</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>40</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>366</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>355</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>13</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>323</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="P136" s="13">
+        <v>7545.0550000000003</v>
+      </c>
+      <c r="Q136" s="13"/>
+    </row>
+    <row r="137" ht="16.5" customHeight="1">
+      <c t="s" r="A137" s="14">
+        <v>367</v>
+      </c>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c t="s" r="G137" s="15">
+        <v>368</v>
+      </c>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c t="s" r="K137" s="17">
+        <v>369</v>
+      </c>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="642">
+  <mergeCells count="657">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6542,10 +6668,25 @@
     <mergeCell ref="H132:K132"/>
     <mergeCell ref="L132:M132"/>
     <mergeCell ref="N132:O132"/>
-    <mergeCell ref="P133:Q133"/>
-    <mergeCell ref="A134:F134"/>
-    <mergeCell ref="G134:I134"/>
-    <mergeCell ref="K134:Q134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="K137:Q137"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -875,6 +875,18 @@
     <t>131.0000</t>
   </si>
   <si>
+    <t>SWABIVENT NEBULIZER SOLN. 20 AMP. 2.5ML</t>
+  </si>
+  <si>
+    <t>1:16</t>
+  </si>
+  <si>
+    <t>176.00</t>
+  </si>
+  <si>
+    <t>8.8000</t>
+  </si>
+  <si>
     <t>TAVACIN 500MG 5 F.C. TAB</t>
   </si>
   <si>
@@ -1112,7 +1124,7 @@
     <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 8:41 PM</t>
+    <t>Wednesday, 27 August, 2025 8:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4822,7 +4834,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4832,14 +4844,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4848,14 +4860,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4865,14 +4877,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>85</v>
+        <v>293</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4881,7 +4893,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4898,11 +4910,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>294</v>
+        <v>85</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4914,14 +4926,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4931,11 +4943,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>156</v>
+        <v>298</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>157</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4947,14 +4959,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4964,11 +4976,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>276</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4980,14 +4992,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4997,14 +5009,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>125</v>
+        <v>211</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>64</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5013,14 +5025,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5030,11 +5042,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>299</v>
+        <v>125</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>300</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>25</v>
@@ -5046,7 +5058,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -5063,11 +5075,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>125</v>
+        <v>303</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>64</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>25</v>
@@ -5079,14 +5091,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5096,14 +5108,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>240</v>
+        <v>125</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>251</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5112,14 +5124,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>304</v>
+        <v>74</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5129,14 +5141,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>289</v>
+        <v>240</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>305</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5145,14 +5157,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>42</v>
+        <v>308</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5162,14 +5174,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>132</v>
+        <v>293</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>133</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5178,14 +5190,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>308</v>
+        <v>42</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5195,14 +5207,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>310</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>176</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5235,7 +5247,7 @@
         <v>314</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>42</v>
+        <v>176</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5251,7 +5263,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>182</v>
+        <v>316</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5261,14 +5273,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>224</v>
+        <v>317</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5277,24 +5289,24 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>318</v>
+        <v>182</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>319</v>
+        <v>224</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
@@ -5334,7 +5346,7 @@
         <v>324</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5350,7 +5362,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>182</v>
+        <v>326</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5360,14 +5372,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>136</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5376,14 +5388,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5393,11 +5405,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>329</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5409,7 +5421,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5426,14 +5438,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>88</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5442,7 +5454,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5459,14 +5471,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>333</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>334</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5475,7 +5487,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5492,14 +5504,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
         <v>337</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>39</v>
+        <v>338</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5508,14 +5520,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>339</v>
+        <v>17</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5532,7 +5544,7 @@
         <v>341</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>182</v>
+        <v>39</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5548,7 +5560,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>12</v>
+        <v>343</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5558,14 +5570,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>12</v>
+        <v>182</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5574,14 +5586,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>346</v>
+        <v>12</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5598,7 +5610,7 @@
         <v>348</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5614,7 +5626,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5624,14 +5636,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5640,14 +5652,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5657,11 +5669,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>12</v>
@@ -5673,7 +5685,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5690,11 +5702,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5706,14 +5718,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>355</v>
+        <v>128</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5723,11 +5735,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5739,14 +5751,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>74</v>
+        <v>359</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5756,11 +5768,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>91</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>12</v>
@@ -5772,14 +5784,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5789,11 +5801,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>320</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>12</v>
@@ -5805,7 +5817,7 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -5826,7 +5838,7 @@
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>260</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>12</v>
@@ -5838,14 +5850,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5855,11 +5867,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>353</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>12</v>
@@ -5871,14 +5883,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5888,11 +5900,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>12</v>
@@ -5904,7 +5916,7 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
@@ -5921,11 +5933,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>96</v>
+        <v>366</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>97</v>
+        <v>367</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>12</v>
@@ -5937,7 +5949,7 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
@@ -5954,11 +5966,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>12</v>
@@ -5970,14 +5982,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>355</v>
+        <v>17</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5987,49 +5999,82 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>323</v>
+        <v>40</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
+        <v>370</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>359</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>13</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>327</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
         <v>260</v>
       </c>
-      <c t="s" r="Q135" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="136" ht="25.5" customHeight="1">
-      <c r="P136" s="13">
-        <v>7545.0550000000003</v>
-      </c>
-      <c r="Q136" s="13"/>
-    </row>
-    <row r="137" ht="16.5" customHeight="1">
-      <c t="s" r="A137" s="14">
-        <v>367</v>
-      </c>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c t="s" r="G137" s="15">
-        <v>368</v>
-      </c>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="16"/>
-      <c t="s" r="K137" s="17">
-        <v>369</v>
-      </c>
-      <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
-      <c r="N137" s="17"/>
-      <c r="O137" s="17"/>
-      <c r="P137" s="17"/>
-      <c r="Q137" s="17"/>
+      <c t="s" r="Q136" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="P137" s="13">
+        <v>7553.8549999999996</v>
+      </c>
+      <c r="Q137" s="13"/>
+    </row>
+    <row r="138" ht="16.5" customHeight="1">
+      <c t="s" r="A138" s="14">
+        <v>371</v>
+      </c>
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c t="s" r="G138" s="15">
+        <v>372</v>
+      </c>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="16"/>
+      <c t="s" r="K138" s="17">
+        <v>373</v>
+      </c>
+      <c r="L138" s="17"/>
+      <c r="M138" s="17"/>
+      <c r="N138" s="17"/>
+      <c r="O138" s="17"/>
+      <c r="P138" s="17"/>
+      <c r="Q138" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="657">
+  <mergeCells count="662">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6683,10 +6728,15 @@
     <mergeCell ref="H135:K135"/>
     <mergeCell ref="L135:M135"/>
     <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P136:Q136"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="K137:Q137"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="P137:Q137"/>
+    <mergeCell ref="A138:F138"/>
+    <mergeCell ref="G138:I138"/>
+    <mergeCell ref="K138:Q138"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -74,21 +74,27 @@
     <t>290.0000</t>
   </si>
   <si>
+    <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AMBEZIM-G 30 F.C. TABS.</t>
   </si>
   <si>
     <t>3:1</t>
   </si>
   <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>AMRIZOLE 500 MG 20 TABS.</t>
   </si>
   <si>
@@ -152,9 +158,6 @@
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>93.00</t>
   </si>
   <si>
@@ -440,6 +443,15 @@
     <t>12.5000</t>
   </si>
   <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
     <t>DROSSA NOSA GEL</t>
   </si>
   <si>
@@ -473,7 +485,7 @@
     <t>117.00</t>
   </si>
   <si>
-    <t>38.6100</t>
+    <t>77.2200</t>
   </si>
   <si>
     <t>EXTRAUMA DNA CREAM 25 GM</t>
@@ -485,6 +497,15 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -503,6 +524,15 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">FLAGELLAT FORTE 200MG/5ML  100ML SUSP</t>
   </si>
   <si>
@@ -695,6 +725,9 @@
     <t>LUBRIVISC 0.1% EYE DROPS 10 ML</t>
   </si>
   <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
     <t>MILGA ADVANCE 30 F.C. TABS</t>
   </si>
   <si>
@@ -728,6 +761,9 @@
     <t>46.00</t>
   </si>
   <si>
+    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
     <t>NEVXAL 0.1% EYE DPS. 5 ML</t>
   </si>
   <si>
@@ -866,6 +902,15 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
     <t>SUPRAX 100MG/5 ML SUSP. 60ML</t>
   </si>
   <si>
@@ -950,9 +995,6 @@
     <t>3:2</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
     <t>50.4900</t>
   </si>
   <si>
@@ -1124,7 +1166,7 @@
     <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 8:47 PM</t>
+    <t>Wednesday, 27 August, 2025 8:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1864,7 +1906,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1874,14 +1916,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1890,14 +1932,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1907,14 +1949,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1923,14 +1965,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1940,14 +1982,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1956,14 +1998,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1973,14 +2015,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1989,14 +2031,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -2006,14 +2048,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -2022,14 +2064,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -2039,11 +2081,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>25</v>
@@ -2055,14 +2097,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2072,14 +2114,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2088,14 +2130,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2105,11 +2147,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -2121,14 +2163,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2138,14 +2180,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2154,14 +2196,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2171,14 +2213,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2187,14 +2229,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2204,14 +2246,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2220,28 +2262,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -2253,28 +2295,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -2286,14 +2328,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2303,14 +2345,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2319,14 +2361,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2336,14 +2378,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2352,14 +2394,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2369,14 +2411,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2385,14 +2427,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2402,11 +2444,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>25</v>
@@ -2418,14 +2460,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2435,11 +2477,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
@@ -2451,14 +2493,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2468,11 +2510,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>25</v>
@@ -2484,14 +2526,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2501,11 +2543,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -2517,14 +2559,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2534,11 +2576,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>25</v>
@@ -2550,14 +2592,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2567,14 +2609,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2583,14 +2625,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2600,14 +2642,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2616,14 +2658,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2633,14 +2675,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2649,14 +2691,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2666,14 +2708,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2682,14 +2724,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2699,11 +2741,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2715,31 +2757,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2748,31 +2790,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>117</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2781,7 +2823,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2798,14 +2840,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2814,14 +2856,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2831,11 +2873,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2847,14 +2889,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2864,14 +2906,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2880,14 +2922,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2897,14 +2939,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2913,14 +2955,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2930,11 +2972,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2946,14 +2988,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2963,14 +3005,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2979,14 +3021,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2996,11 +3038,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -3012,14 +3054,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3029,11 +3071,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>25</v>
@@ -3045,31 +3087,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>29</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3078,28 +3120,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>25</v>
@@ -3111,31 +3153,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3144,28 +3186,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>25</v>
@@ -3177,14 +3219,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3194,14 +3236,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3210,14 +3252,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3227,14 +3269,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3243,14 +3285,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3260,11 +3302,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3276,14 +3318,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3293,14 +3335,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3309,14 +3351,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3326,14 +3368,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3342,7 +3384,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3359,11 +3401,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3375,14 +3417,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3392,14 +3434,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>176</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3408,14 +3450,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3425,11 +3467,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3441,31 +3483,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3474,14 +3516,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3491,11 +3533,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3507,14 +3549,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3524,14 +3566,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3540,14 +3582,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3557,14 +3599,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3573,31 +3615,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3606,20 +3648,20 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>17</v>
+        <v>192</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3646,21 +3688,21 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3672,14 +3714,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3689,14 +3731,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>46</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3705,14 +3747,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3722,14 +3764,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3738,7 +3780,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3755,11 +3797,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3771,24 +3813,24 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>154</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3811,7 +3853,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3844,7 +3886,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3861,7 +3903,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3877,21 +3919,21 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3903,14 +3945,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3920,11 +3962,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3936,14 +3978,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3953,14 +3995,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3969,14 +4011,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3986,11 +4028,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>139</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>25</v>
@@ -4019,14 +4061,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>226</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4035,7 +4077,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4052,11 +4094,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>165</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>166</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -4075,7 +4117,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>222</v>
+        <v>25</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4108,7 +4150,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4118,14 +4160,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>140</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4134,7 +4176,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4151,14 +4193,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
+        <v>235</v>
+      </c>
+      <c t="s" r="Q79" s="12">
         <v>236</v>
-      </c>
-      <c t="s" r="Q79" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4174,7 +4216,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4184,14 +4226,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4200,14 +4242,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4217,11 +4259,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4233,14 +4275,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4250,11 +4292,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>163</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>25</v>
@@ -4266,14 +4308,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4283,11 +4325,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4299,14 +4341,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4316,11 +4358,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>130</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>25</v>
@@ -4332,14 +4374,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4349,11 +4391,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>25</v>
@@ -4365,14 +4407,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4382,14 +4424,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>253</v>
+        <v>82</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>254</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4398,14 +4440,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4415,14 +4457,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4431,7 +4473,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4448,11 +4490,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>25</v>
@@ -4464,14 +4506,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>262</v>
+        <v>17</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4481,14 +4523,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>198</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>51</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4497,14 +4539,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>47</v>
+        <v>232</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4514,11 +4556,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>265</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>25</v>
@@ -4530,14 +4572,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4547,11 +4589,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>25</v>
@@ -4563,14 +4605,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4580,14 +4622,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4596,14 +4638,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4613,14 +4655,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4629,7 +4671,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4646,14 +4688,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>211</v>
+        <v>271</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4662,14 +4704,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>74</v>
+        <v>274</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4683,10 +4725,10 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>209</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4695,14 +4737,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4712,11 +4754,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>25</v>
@@ -4728,14 +4770,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4745,11 +4787,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>132</v>
+        <v>279</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>25</v>
@@ -4761,14 +4803,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4778,11 +4820,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>25</v>
@@ -4794,14 +4836,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4811,11 +4853,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4827,14 +4869,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>289</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4844,14 +4886,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>290</v>
+        <v>221</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4860,14 +4902,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4877,14 +4919,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>293</v>
+        <v>218</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>294</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4893,14 +4935,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4910,14 +4952,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>85</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4926,14 +4968,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4943,14 +4985,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>298</v>
+        <v>133</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>251</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4959,14 +5001,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4976,14 +5018,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>156</v>
+        <v>295</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>157</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4992,14 +5034,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5009,14 +5051,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>211</v>
+        <v>298</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5025,14 +5067,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5042,14 +5084,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>125</v>
+        <v>301</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>64</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5058,14 +5100,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5075,11 +5117,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>25</v>
@@ -5091,14 +5133,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5108,14 +5150,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>125</v>
+        <v>308</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>64</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5124,14 +5166,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5141,14 +5183,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>240</v>
+        <v>86</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>251</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5157,14 +5199,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>308</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5174,14 +5216,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>309</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5190,14 +5232,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5207,11 +5249,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5223,14 +5265,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>312</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5240,14 +5282,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>313</v>
+        <v>221</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>176</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5256,14 +5298,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>316</v>
+        <v>27</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5273,14 +5315,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>317</v>
+        <v>126</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>318</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5289,14 +5331,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5306,14 +5348,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>224</v>
+        <v>318</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5322,31 +5364,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>322</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>323</v>
+        <v>126</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>324</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5355,31 +5397,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>326</v>
+        <v>75</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>327</v>
+        <v>252</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>328</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5388,31 +5430,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>182</v>
+        <v>323</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>136</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5421,28 +5463,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>332</v>
+        <v>133</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>333</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5454,31 +5496,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>17</v>
+        <v>327</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>335</v>
+        <v>163</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>88</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>39</v>
+        <v>186</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5487,31 +5529,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>17</v>
+        <v>330</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>338</v>
+        <v>44</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5520,31 +5562,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>17</v>
+        <v>192</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>340</v>
+        <v>234</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5553,14 +5595,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5570,14 +5612,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>182</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5586,14 +5628,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5603,14 +5645,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5619,14 +5661,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>350</v>
+        <v>192</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5636,14 +5678,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>352</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5652,14 +5694,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>182</v>
+        <v>17</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5669,11 +5711,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>12</v>
@@ -5685,14 +5727,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5702,14 +5744,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>333</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5718,14 +5760,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5735,14 +5777,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>12</v>
+        <v>352</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5751,14 +5793,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>359</v>
+        <v>17</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5768,14 +5810,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>323</v>
+        <v>354</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5784,14 +5826,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>74</v>
+        <v>357</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5801,14 +5843,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>91</v>
+        <v>359</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>12</v>
+        <v>192</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5817,14 +5859,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5834,11 +5876,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>12</v>
@@ -5857,7 +5899,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>17</v>
+        <v>364</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5867,14 +5909,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>260</v>
+        <v>366</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5883,14 +5925,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5900,11 +5942,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>12</v>
@@ -5916,14 +5958,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5933,11 +5975,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>12</v>
@@ -5949,14 +5991,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5966,11 +6008,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>96</v>
+        <v>370</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>97</v>
+        <v>371</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>12</v>
@@ -5982,14 +6024,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>17</v>
+        <v>373</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5999,11 +6041,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>40</v>
+        <v>337</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>51</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>12</v>
@@ -6015,14 +6057,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>359</v>
+        <v>75</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6032,49 +6074,280 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>327</v>
+        <v>375</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>260</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
-      <c r="P137" s="13">
-        <v>7553.8549999999996</v>
-      </c>
-      <c r="Q137" s="13"/>
-    </row>
-    <row r="138" ht="16.5" customHeight="1">
-      <c t="s" r="A138" s="14">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
+        <v>376</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>17</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>13</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>337</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>338</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
+        <v>377</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>17</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>13</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>341</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
+        <v>272</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
+        <v>378</v>
+      </c>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>75</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>13</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>370</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
         <v>371</v>
       </c>
-      <c r="B138" s="14"/>
-      <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
-      <c t="s" r="G138" s="15">
-        <v>372</v>
-      </c>
-      <c r="H138" s="15"/>
-      <c r="I138" s="15"/>
-      <c r="J138" s="16"/>
-      <c t="s" r="K138" s="17">
+      <c t="s" r="Q139" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
+        <v>379</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
+        <v>17</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>13</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
+        <v>380</v>
+      </c>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
+        <v>381</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="A141" s="7">
+        <v>135</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c t="s" r="C141" s="8">
+        <v>382</v>
+      </c>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c t="s" r="H141" s="9">
+        <v>17</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c t="s" r="L141" s="10">
+        <v>13</v>
+      </c>
+      <c r="M141" s="10"/>
+      <c t="s" r="N141" s="8">
+        <v>97</v>
+      </c>
+      <c r="O141" s="8"/>
+      <c t="s" r="P141" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q141" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="A142" s="7">
+        <v>136</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c t="s" r="C142" s="8">
+        <v>383</v>
+      </c>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c t="s" r="H142" s="9">
+        <v>17</v>
+      </c>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c t="s" r="L142" s="10">
+        <v>13</v>
+      </c>
+      <c r="M142" s="10"/>
+      <c t="s" r="N142" s="8">
+        <v>42</v>
+      </c>
+      <c r="O142" s="8"/>
+      <c t="s" r="P142" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q142" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" ht="24.75" customHeight="1">
+      <c r="A143" s="7">
+        <v>137</v>
+      </c>
+      <c r="B143" s="7"/>
+      <c t="s" r="C143" s="8">
+        <v>384</v>
+      </c>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c t="s" r="H143" s="9">
         <v>373</v>
       </c>
-      <c r="L138" s="17"/>
-      <c r="M138" s="17"/>
-      <c r="N138" s="17"/>
-      <c r="O138" s="17"/>
-      <c r="P138" s="17"/>
-      <c r="Q138" s="17"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c t="s" r="L143" s="10">
+        <v>13</v>
+      </c>
+      <c r="M143" s="10"/>
+      <c t="s" r="N143" s="8">
+        <v>341</v>
+      </c>
+      <c r="O143" s="8"/>
+      <c t="s" r="P143" s="11">
+        <v>272</v>
+      </c>
+      <c t="s" r="Q143" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" ht="25.5" customHeight="1">
+      <c r="P144" s="13">
+        <v>8006.5</v>
+      </c>
+      <c r="Q144" s="13"/>
+    </row>
+    <row r="145" ht="16.5" customHeight="1">
+      <c t="s" r="A145" s="14">
+        <v>385</v>
+      </c>
+      <c r="B145" s="14"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="14"/>
+      <c r="E145" s="14"/>
+      <c r="F145" s="14"/>
+      <c t="s" r="G145" s="15">
+        <v>386</v>
+      </c>
+      <c r="H145" s="15"/>
+      <c r="I145" s="15"/>
+      <c r="J145" s="16"/>
+      <c t="s" r="K145" s="17">
+        <v>387</v>
+      </c>
+      <c r="L145" s="17"/>
+      <c r="M145" s="17"/>
+      <c r="N145" s="17"/>
+      <c r="O145" s="17"/>
+      <c r="P145" s="17"/>
+      <c r="Q145" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="662">
+  <mergeCells count="697">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6733,10 +7006,45 @@
     <mergeCell ref="H136:K136"/>
     <mergeCell ref="L136:M136"/>
     <mergeCell ref="N136:O136"/>
-    <mergeCell ref="P137:Q137"/>
-    <mergeCell ref="A138:F138"/>
-    <mergeCell ref="G138:I138"/>
-    <mergeCell ref="K138:Q138"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="L143:M143"/>
+    <mergeCell ref="N143:O143"/>
+    <mergeCell ref="P144:Q144"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="G145:I145"/>
+    <mergeCell ref="K145:Q145"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -626,6 +626,9 @@
     <t>135.0000</t>
   </si>
   <si>
+    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
+  </si>
+  <si>
     <t>HELANO LINE GEL</t>
   </si>
   <si>
@@ -1001,7 +1004,7 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8359:0</t>
+    <t>8361:0</t>
   </si>
   <si>
     <t>2.00</t>
@@ -1016,6 +1019,9 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -1166,7 +1172,7 @@
     <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 8:50 PM</t>
+    <t>Wednesday, 27 August, 2025 8:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2170,7 +2176,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2335,7 +2341,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -3820,21 +3826,21 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3846,7 +3852,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3859,15 +3865,15 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3879,14 +3885,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3896,11 +3902,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3912,7 +3918,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3925,15 +3931,15 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>154</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3958,15 +3964,15 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>154</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3978,7 +3984,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3995,11 +4001,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -4011,14 +4017,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -4028,14 +4034,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -4044,7 +4050,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -4061,14 +4067,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4077,7 +4083,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4094,11 +4100,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -4110,14 +4116,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4127,14 +4133,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4143,14 +4149,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>232</v>
+        <v>25</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4160,11 +4166,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>141</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>25</v>
@@ -4176,14 +4182,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4193,14 +4199,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>140</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>236</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4209,7 +4215,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4226,14 +4232,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>237</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4259,11 +4265,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4282,7 +4288,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4292,14 +4298,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4308,14 +4314,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4325,14 +4331,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4341,7 +4347,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4358,14 +4364,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4374,14 +4380,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4391,11 +4397,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>25</v>
@@ -4407,14 +4413,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4424,11 +4430,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>82</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>25</v>
@@ -4447,7 +4453,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4457,14 +4463,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>82</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4473,14 +4479,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4490,14 +4496,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>170</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4506,14 +4512,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4523,14 +4529,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4539,14 +4545,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>232</v>
+        <v>17</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4556,14 +4562,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>131</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4572,14 +4578,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>25</v>
+        <v>233</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4589,11 +4595,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>25</v>
@@ -4605,14 +4611,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4622,14 +4628,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4638,14 +4644,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4655,14 +4661,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4671,14 +4677,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4688,11 +4694,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>25</v>
@@ -4704,14 +4710,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>274</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4721,11 +4727,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>208</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>25</v>
@@ -4737,14 +4743,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4754,11 +4760,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>276</v>
+        <v>209</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>25</v>
@@ -4770,7 +4776,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4787,11 +4793,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>25</v>
@@ -4803,14 +4809,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4820,11 +4826,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>25</v>
@@ -4836,14 +4842,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4853,14 +4859,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4869,14 +4875,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4886,11 +4892,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>221</v>
+        <v>286</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4902,14 +4908,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4919,11 +4925,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>219</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4942,7 +4948,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4952,14 +4958,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>279</v>
+        <v>219</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>291</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4968,14 +4974,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4985,11 +4991,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>133</v>
+        <v>280</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>25</v>
@@ -5001,14 +5007,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -5018,11 +5024,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>295</v>
+        <v>133</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>25</v>
@@ -5034,7 +5040,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -5051,11 +5057,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>25</v>
@@ -5067,14 +5073,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5084,14 +5090,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5100,14 +5106,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>304</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5117,14 +5123,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5133,14 +5139,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>17</v>
+        <v>305</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5150,14 +5156,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5166,14 +5172,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5183,14 +5189,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>86</v>
+        <v>309</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5199,7 +5205,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5216,11 +5222,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>313</v>
+        <v>86</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>263</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5232,14 +5238,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5249,11 +5255,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>160</v>
+        <v>314</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>161</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5272,7 +5278,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5282,11 +5288,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>221</v>
+        <v>160</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>288</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5305,7 +5311,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5315,14 +5321,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>126</v>
+        <v>222</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>65</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5338,7 +5344,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5348,11 +5354,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>318</v>
+        <v>126</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>319</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>25</v>
@@ -5364,7 +5370,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5381,11 +5387,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>126</v>
+        <v>319</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>65</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>25</v>
@@ -5404,7 +5410,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5414,14 +5420,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>252</v>
+        <v>126</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>263</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5437,7 +5443,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>323</v>
+        <v>75</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5447,14 +5453,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>308</v>
+        <v>253</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>324</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5463,14 +5469,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>44</v>
+        <v>324</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5480,14 +5486,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>133</v>
+        <v>309</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>134</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5503,7 +5509,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>327</v>
+        <v>44</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5513,14 +5519,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>328</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>186</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5529,14 +5535,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5546,14 +5552,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>331</v>
+        <v>163</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>44</v>
+        <v>186</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5562,14 +5568,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>192</v>
+        <v>331</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5579,14 +5585,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>234</v>
+        <v>332</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5595,28 +5601,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>336</v>
+        <v>192</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>337</v>
+        <v>235</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5628,14 +5634,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>340</v>
+        <v>192</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5645,14 +5651,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>341</v>
+        <v>29</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>342</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5661,14 +5667,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>192</v>
+        <v>338</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5678,11 +5684,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>137</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5694,14 +5700,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>17</v>
+        <v>342</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5711,14 +5717,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5727,14 +5733,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>17</v>
+        <v>192</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5744,14 +5750,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5760,7 +5766,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5777,14 +5783,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>352</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5793,7 +5799,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5810,11 +5816,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>355</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>41</v>
@@ -5826,14 +5832,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>357</v>
+        <v>17</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5843,14 +5849,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>192</v>
+        <v>354</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5859,14 +5865,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5876,14 +5882,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5892,14 +5898,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5909,14 +5915,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>44</v>
+        <v>192</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5925,14 +5931,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5942,11 +5948,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>12</v>
@@ -5958,14 +5964,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>129</v>
+        <v>366</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5975,14 +5981,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5998,7 +6004,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -6008,11 +6014,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>12</v>
@@ -6024,14 +6030,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>373</v>
+        <v>129</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6041,11 +6047,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>12</v>
@@ -6057,14 +6063,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6074,11 +6080,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>92</v>
+        <v>373</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>12</v>
@@ -6090,14 +6096,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>17</v>
+        <v>375</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6107,11 +6113,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>12</v>
@@ -6123,14 +6129,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6140,11 +6146,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>272</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>12</v>
@@ -6163,7 +6169,7 @@
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6173,11 +6179,11 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>12</v>
@@ -6206,11 +6212,11 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>380</v>
+        <v>343</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>381</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q140" s="12">
         <v>12</v>
@@ -6222,14 +6228,14 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6239,11 +6245,11 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>97</v>
+        <v>372</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>98</v>
+        <v>373</v>
       </c>
       <c t="s" r="Q141" s="12">
         <v>12</v>
@@ -6255,7 +6261,7 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
@@ -6272,11 +6278,11 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>42</v>
+        <v>382</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>52</v>
+        <v>383</v>
       </c>
       <c t="s" r="Q142" s="12">
         <v>12</v>
@@ -6295,7 +6301,7 @@
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c t="s" r="H143" s="9">
-        <v>373</v>
+        <v>17</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
@@ -6305,49 +6311,115 @@
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>341</v>
+        <v>97</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>272</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q143" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="144" ht="25.5" customHeight="1">
-      <c r="P144" s="13">
-        <v>8006.5</v>
-      </c>
-      <c r="Q144" s="13"/>
-    </row>
-    <row r="145" ht="16.5" customHeight="1">
-      <c t="s" r="A145" s="14">
+      <c r="A144" s="7">
+        <v>138</v>
+      </c>
+      <c r="B144" s="7"/>
+      <c t="s" r="C144" s="8">
         <v>385</v>
       </c>
-      <c r="B145" s="14"/>
-      <c r="C145" s="14"/>
-      <c r="D145" s="14"/>
-      <c r="E145" s="14"/>
-      <c r="F145" s="14"/>
-      <c t="s" r="G145" s="15">
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c t="s" r="H144" s="9">
+        <v>17</v>
+      </c>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c t="s" r="L144" s="10">
+        <v>13</v>
+      </c>
+      <c r="M144" s="10"/>
+      <c t="s" r="N144" s="8">
+        <v>42</v>
+      </c>
+      <c r="O144" s="8"/>
+      <c t="s" r="P144" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q144" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" ht="24.75" customHeight="1">
+      <c r="A145" s="7">
+        <v>139</v>
+      </c>
+      <c r="B145" s="7"/>
+      <c t="s" r="C145" s="8">
         <v>386</v>
       </c>
-      <c r="H145" s="15"/>
-      <c r="I145" s="15"/>
-      <c r="J145" s="16"/>
-      <c t="s" r="K145" s="17">
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c t="s" r="H145" s="9">
+        <v>375</v>
+      </c>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c t="s" r="L145" s="10">
+        <v>13</v>
+      </c>
+      <c r="M145" s="10"/>
+      <c t="s" r="N145" s="8">
+        <v>343</v>
+      </c>
+      <c r="O145" s="8"/>
+      <c t="s" r="P145" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q145" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" ht="25.5" customHeight="1">
+      <c r="P146" s="13">
+        <v>8072.5</v>
+      </c>
+      <c r="Q146" s="13"/>
+    </row>
+    <row r="147" ht="16.5" customHeight="1">
+      <c t="s" r="A147" s="14">
         <v>387</v>
       </c>
-      <c r="L145" s="17"/>
-      <c r="M145" s="17"/>
-      <c r="N145" s="17"/>
-      <c r="O145" s="17"/>
-      <c r="P145" s="17"/>
-      <c r="Q145" s="17"/>
+      <c r="B147" s="14"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="14"/>
+      <c r="E147" s="14"/>
+      <c r="F147" s="14"/>
+      <c t="s" r="G147" s="15">
+        <v>388</v>
+      </c>
+      <c r="H147" s="15"/>
+      <c r="I147" s="15"/>
+      <c r="J147" s="16"/>
+      <c t="s" r="K147" s="17">
+        <v>389</v>
+      </c>
+      <c r="L147" s="17"/>
+      <c r="M147" s="17"/>
+      <c r="N147" s="17"/>
+      <c r="O147" s="17"/>
+      <c r="P147" s="17"/>
+      <c r="Q147" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="697">
+  <mergeCells count="707">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7041,10 +7113,20 @@
     <mergeCell ref="H143:K143"/>
     <mergeCell ref="L143:M143"/>
     <mergeCell ref="N143:O143"/>
-    <mergeCell ref="P144:Q144"/>
-    <mergeCell ref="A145:F145"/>
-    <mergeCell ref="G145:I145"/>
-    <mergeCell ref="K145:Q145"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:G144"/>
+    <mergeCell ref="H144:K144"/>
+    <mergeCell ref="L144:M144"/>
+    <mergeCell ref="N144:O144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:G145"/>
+    <mergeCell ref="H145:K145"/>
+    <mergeCell ref="L145:M145"/>
+    <mergeCell ref="N145:O145"/>
+    <mergeCell ref="P146:Q146"/>
+    <mergeCell ref="A147:F147"/>
+    <mergeCell ref="G147:I147"/>
+    <mergeCell ref="K147:Q147"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -1004,7 +1004,7 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8361:0</t>
+    <t>8359:0</t>
   </si>
   <si>
     <t>2.00</t>
@@ -1109,13 +1109,13 @@
     <t>شامبو كلير 1 كيس</t>
   </si>
   <si>
-    <t>109:0</t>
+    <t>107:0</t>
   </si>
   <si>
     <t>2.50</t>
   </si>
   <si>
-    <t>5.0000</t>
+    <t>10.0000</t>
   </si>
   <si>
     <t xml:space="preserve">شاور جل مود </t>
@@ -1130,9 +1130,6 @@
     <t>10.00</t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
     <t>فرش اسنان اورل فريش</t>
   </si>
   <si>
@@ -1172,7 +1169,7 @@
     <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 8:55 PM</t>
+    <t>Wednesday, 27 August, 2025 8:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2176,7 +2173,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2341,7 +2338,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -5988,7 +5985,7 @@
         <v>368</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>44</v>
+        <v>75</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -6084,7 +6081,7 @@
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>12</v>
@@ -6096,14 +6093,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6129,7 +6126,7 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
@@ -6146,7 +6143,7 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
@@ -6162,7 +6159,7 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
@@ -6195,7 +6192,7 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
@@ -6228,7 +6225,7 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
@@ -6249,7 +6246,7 @@
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c t="s" r="Q141" s="12">
         <v>12</v>
@@ -6261,7 +6258,7 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
@@ -6278,11 +6275,11 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c t="s" r="Q142" s="12">
         <v>12</v>
@@ -6294,7 +6291,7 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
@@ -6327,7 +6324,7 @@
       </c>
       <c r="B144" s="7"/>
       <c t="s" r="C144" s="8">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
@@ -6360,14 +6357,14 @@
       </c>
       <c r="B145" s="7"/>
       <c t="s" r="C145" s="8">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c t="s" r="H145" s="9">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
@@ -6389,13 +6386,13 @@
     </row>
     <row r="146" ht="25.5" customHeight="1">
       <c r="P146" s="13">
-        <v>8072.5</v>
+        <v>8077.5</v>
       </c>
       <c r="Q146" s="13"/>
     </row>
     <row r="147" ht="16.5" customHeight="1">
       <c t="s" r="A147" s="14">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B147" s="14"/>
       <c r="C147" s="14"/>
@@ -6403,13 +6400,13 @@
       <c r="E147" s="14"/>
       <c r="F147" s="14"/>
       <c t="s" r="G147" s="15">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H147" s="15"/>
       <c r="I147" s="15"/>
       <c r="J147" s="16"/>
       <c t="s" r="K147" s="17">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L147" s="17"/>
       <c r="M147" s="17"/>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -1169,7 +1169,7 @@
     <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 8:58 PM</t>
+    <t>Wednesday, 27 August, 2025 9:04 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -1169,7 +1169,7 @@
     <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 9:04 PM</t>
+    <t>Wednesday, 27 August, 2025 9:06 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-27_00-00.xlsx
+++ b/DaySale_2025-08-27_00-00.xlsx
@@ -161,7 +161,10 @@
     <t>93.00</t>
   </si>
   <si>
-    <t>30.6900</t>
+    <t>61.3800</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>APIDONE SYRUP 125ML</t>
@@ -182,12 +185,6 @@
     <t>AVEROTHIAZIDE 5/20/12.5MG 30 F.C. TABS</t>
   </si>
   <si>
-    <t>61.3800</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>BEPRA 20MG 14 F.C. TAB.</t>
   </si>
   <si>
@@ -815,6 +812,15 @@
     <t>56.0000</t>
   </si>
   <si>
+    <t>PETRO 30 TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
     <t>PK-MERZ 100MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -833,6 +839,15 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>PRIMPERAN 10MG 10 SCORED TAB.</t>
+  </si>
+  <si>
+    <t>10.50</t>
+  </si>
+  <si>
+    <t>10.5000</t>
+  </si>
+  <si>
     <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
   </si>
   <si>
@@ -1169,7 +1184,7 @@
     <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
-    <t>Wednesday, 27 August, 2025 9:06 PM</t>
+    <t>Wednesday, 27 August, 2025 9:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2107,7 +2122,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2124,7 +2139,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2133,7 +2148,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -2154,7 +2169,7 @@
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -2166,7 +2181,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -2183,11 +2198,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -2199,7 +2214,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -2220,10 +2235,10 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2232,14 +2247,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2249,11 +2264,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>25</v>
@@ -2265,14 +2280,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2282,11 +2297,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -2298,7 +2313,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2315,11 +2330,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -2331,7 +2346,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2348,11 +2363,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -2364,7 +2379,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2385,7 +2400,7 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>25</v>
@@ -2397,14 +2412,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2414,11 +2429,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>44</v>
@@ -2430,7 +2445,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2447,11 +2462,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>25</v>
@@ -2463,7 +2478,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2480,11 +2495,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
@@ -2496,14 +2511,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2513,11 +2528,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>25</v>
@@ -2529,7 +2544,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2550,7 +2565,7 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -2562,7 +2577,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2579,11 +2594,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>25</v>
@@ -2595,7 +2610,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2612,11 +2627,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>25</v>
@@ -2628,7 +2643,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2645,11 +2660,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2661,7 +2676,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2678,11 +2693,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>36</v>
@@ -2694,7 +2709,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2711,11 +2726,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>25</v>
@@ -2727,14 +2742,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2744,11 +2759,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2760,7 +2775,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2777,11 +2792,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2793,7 +2808,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2810,11 +2825,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>25</v>
@@ -2826,7 +2841,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2843,14 +2858,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>117</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>118</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2859,7 +2874,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2876,11 +2891,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2892,7 +2907,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2909,11 +2924,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2925,7 +2940,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2942,14 +2957,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2958,14 +2973,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2975,11 +2990,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2991,14 +3006,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -3008,11 +3023,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -3024,7 +3039,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -3041,11 +3056,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -3057,14 +3072,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3074,11 +3089,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>25</v>
@@ -3090,7 +3105,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -3111,7 +3126,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>25</v>
@@ -3123,7 +3138,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -3140,11 +3155,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>25</v>
@@ -3156,7 +3171,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3173,11 +3188,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -3189,14 +3204,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3206,11 +3221,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>25</v>
@@ -3222,7 +3237,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3239,14 +3254,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3255,7 +3270,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3272,14 +3287,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3288,7 +3303,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3305,11 +3320,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3321,7 +3336,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3338,11 +3353,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -3354,14 +3369,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3375,10 +3390,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3387,7 +3402,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3404,11 +3419,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3420,7 +3435,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3437,11 +3452,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>25</v>
@@ -3453,7 +3468,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3470,11 +3485,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3486,7 +3501,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3503,11 +3518,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -3519,7 +3534,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3536,11 +3551,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3552,7 +3567,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3569,14 +3584,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q60" s="12">
         <v>185</v>
-      </c>
-      <c t="s" r="Q60" s="12">
-        <v>186</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3585,7 +3600,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3602,11 +3617,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3618,14 +3633,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3635,11 +3650,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3651,14 +3666,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3668,11 +3683,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3684,14 +3699,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3701,11 +3716,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3717,7 +3732,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3750,7 +3765,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3767,11 +3782,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3783,7 +3798,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3800,11 +3815,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3816,7 +3831,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3833,11 +3848,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3849,7 +3864,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3866,11 +3881,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3882,7 +3897,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3899,11 +3914,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3915,7 +3930,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3932,11 +3947,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3948,7 +3963,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3965,11 +3980,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3981,7 +3996,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3998,11 +4013,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -4014,7 +4029,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -4031,11 +4046,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -4047,7 +4062,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -4064,11 +4079,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>25</v>
@@ -4080,7 +4095,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4097,11 +4112,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -4113,7 +4128,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4130,11 +4145,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -4146,7 +4161,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4163,11 +4178,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>25</v>
@@ -4179,14 +4194,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4196,11 +4211,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>25</v>
@@ -4212,7 +4227,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4229,14 +4244,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
+        <v>235</v>
+      </c>
+      <c t="s" r="Q80" s="12">
         <v>236</v>
-      </c>
-      <c t="s" r="Q80" s="12">
-        <v>237</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4245,7 +4260,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4262,11 +4277,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4278,7 +4293,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4295,11 +4310,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4311,14 +4326,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4328,11 +4343,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>25</v>
@@ -4344,7 +4359,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4361,11 +4376,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4377,7 +4392,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4394,11 +4409,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>25</v>
@@ -4410,7 +4425,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4427,11 +4442,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>25</v>
@@ -4443,7 +4458,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
